--- a/lib/scenarios.xlsx
+++ b/lib/scenarios.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ss\estgrowth\lib\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -12,14 +17,14 @@
     <sheet name="readme" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenarios!$A$1:$N$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenarios!$A$1:$N$127</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="68">
   <si>
     <t>fish &amp; surv length</t>
   </si>
@@ -280,6 +285,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -327,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,11 +580,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="0">CONCATENATE(A3,"-",B3,"-",C3,"-",D3,"-",E3,"-",F3,"-",G3,"-")</f>
+        <f t="shared" ref="H3:H58" si="0">CONCATENATE(A3,"-",B3,"-",C3,"-",D3,"-",E3,"-",F3,"-",G3,"-")</f>
         <v>A0-C0-D0-L30-E0-F0-I0-R0-</v>
       </c>
       <c r="I3" t="str">
@@ -2778,19 +2786,19 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
         <v>61</v>
@@ -2800,19 +2808,19 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D10-L10-E2-F0-I0-R0-</v>
+        <v>A30-C0-D0-L10-E0-F0-I0-R0-</v>
       </c>
       <c r="I44" t="str">
         <f>LOOKUP(A44,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; .5surv age</v>
       </c>
       <c r="J44" t="str">
         <f>LOOKUP(B44,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K44" t="str">
         <f>LOOKUP(C44,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L44" t="str">
         <f>LOOKUP(D44,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2820,7 +2828,7 @@
       </c>
       <c r="M44" t="str">
         <f>LOOKUP(E44,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N44" t="str">
         <f>LOOKUP(F44,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2829,70 +2837,70 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
         <v>3</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D10-L10-E2-F1-I0-R0-</v>
+        <v>A30-C0-D0-L30-E0-F0-I0-R0-</v>
       </c>
       <c r="I45" t="str">
         <f>LOOKUP(A45,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; .5surv age</v>
       </c>
       <c r="J45" t="str">
         <f>LOOKUP(B45,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K45" t="str">
         <f>LOOKUP(C45,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L45" t="str">
         <f>LOOKUP(D45,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M45" t="str">
         <f>LOOKUP(E45,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N45" t="str">
         <f>LOOKUP(F45,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F46" t="s">
         <v>61</v>
@@ -2902,27 +2910,27 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D10-L30-E2-F0-I0-R0-</v>
+        <v>A30-C0-D0-L31-E0-F0-I0-R0-</v>
       </c>
       <c r="I46" t="str">
         <f>LOOKUP(A46,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; .5surv age</v>
       </c>
       <c r="J46" t="str">
         <f>LOOKUP(B46,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K46" t="str">
         <f>LOOKUP(C46,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L46" t="str">
         <f>LOOKUP(D46,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M46" t="str">
         <f>LOOKUP(E46,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N46" t="str">
         <f>LOOKUP(F46,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2931,33 +2939,33 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G47" t="s">
         <v>3</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D10-L30-E2-F1-I0-R0-</v>
+        <v>A30-C10-D0-L10-E0-F0-I0-R0-</v>
       </c>
       <c r="I47" t="str">
         <f>LOOKUP(A47,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; .5surv age</v>
       </c>
       <c r="J47" t="str">
         <f>LOOKUP(B47,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2965,36 +2973,36 @@
       </c>
       <c r="K47" t="str">
         <f>LOOKUP(C47,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L47" t="str">
         <f>LOOKUP(D47,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M47" t="str">
         <f>LOOKUP(E47,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N47" t="str">
         <f>LOOKUP(F47,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s">
         <v>61</v>
@@ -3004,11 +3012,11 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D10-L31-E2-F0-I0-R0-</v>
+        <v>A30-C10-D0-L30-E0-F0-I0-R0-</v>
       </c>
       <c r="I48" t="str">
         <f>LOOKUP(A48,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; .5surv age</v>
       </c>
       <c r="J48" t="str">
         <f>LOOKUP(B48,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3016,15 +3024,15 @@
       </c>
       <c r="K48" t="str">
         <f>LOOKUP(C48,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L48" t="str">
         <f>LOOKUP(D48,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M48" t="str">
         <f>LOOKUP(E48,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N48" t="str">
         <f>LOOKUP(F48,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3033,33 +3041,33 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G49" t="s">
         <v>3</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D10-L31-E2-F1-I0-R0-</v>
+        <v>A30-C10-D0-L31-E0-F0-I0-R0-</v>
       </c>
       <c r="I49" t="str">
         <f>LOOKUP(A49,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; .5surv age</v>
       </c>
       <c r="J49" t="str">
         <f>LOOKUP(B49,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3067,7 +3075,7 @@
       </c>
       <c r="K49" t="str">
         <f>LOOKUP(C49,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L49" t="str">
         <f>LOOKUP(D49,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3075,11 +3083,11 @@
       </c>
       <c r="M49" t="str">
         <f>LOOKUP(E49,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N49" t="str">
         <f>LOOKUP(F49,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3096,7 +3104,7 @@
         <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F50" t="s">
         <v>61</v>
@@ -3106,7 +3114,7 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L10-E0-F0-I0-R0-</v>
+        <v>A30-C0-D0-L10-E1-F0-I0-R0-</v>
       </c>
       <c r="I50" t="str">
         <f>LOOKUP(A50,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3126,7 +3134,7 @@
       </c>
       <c r="M50" t="str">
         <f>LOOKUP(E50,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N50" t="str">
         <f>LOOKUP(F50,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3147,7 +3155,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s">
         <v>61</v>
@@ -3157,7 +3165,7 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L30-E0-F0-I0-R0-</v>
+        <v>A30-C0-D0-L30-E1-F0-I0-R0-</v>
       </c>
       <c r="I51" t="str">
         <f>LOOKUP(A51,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3177,7 +3185,7 @@
       </c>
       <c r="M51" t="str">
         <f>LOOKUP(E51,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N51" t="str">
         <f>LOOKUP(F51,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3198,7 +3206,7 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
         <v>61</v>
@@ -3208,7 +3216,7 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L31-E0-F0-I0-R0-</v>
+        <v>A30-C0-D0-L31-E1-F0-I0-R0-</v>
       </c>
       <c r="I52" t="str">
         <f>LOOKUP(A52,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3228,7 +3236,7 @@
       </c>
       <c r="M52" t="str">
         <f>LOOKUP(E52,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N52" t="str">
         <f>LOOKUP(F52,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3249,7 +3257,7 @@
         <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F53" t="s">
         <v>61</v>
@@ -3259,7 +3267,7 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L10-E0-F0-I0-R0-</v>
+        <v>A30-C10-D0-L10-E1-F0-I0-R0-</v>
       </c>
       <c r="I53" t="str">
         <f>LOOKUP(A53,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3279,7 +3287,7 @@
       </c>
       <c r="M53" t="str">
         <f>LOOKUP(E53,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N53" t="str">
         <f>LOOKUP(F53,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3300,7 +3308,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F54" t="s">
         <v>61</v>
@@ -3310,7 +3318,7 @@
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L30-E0-F0-I0-R0-</v>
+        <v>A30-C10-D0-L30-E1-F0-I0-R0-</v>
       </c>
       <c r="I54" t="str">
         <f>LOOKUP(A54,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3330,7 +3338,7 @@
       </c>
       <c r="M54" t="str">
         <f>LOOKUP(E54,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N54" t="str">
         <f>LOOKUP(F54,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3351,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F55" t="s">
         <v>61</v>
@@ -3361,7 +3369,7 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L31-E0-F0-I0-R0-</v>
+        <v>A30-C10-D0-L31-E1-F0-I0-R0-</v>
       </c>
       <c r="I55" t="str">
         <f>LOOKUP(A55,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3381,7 +3389,7 @@
       </c>
       <c r="M55" t="str">
         <f>LOOKUP(E55,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N55" t="str">
         <f>LOOKUP(F55,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3396,13 +3404,13 @@
         <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
         <v>61</v>
@@ -3412,7 +3420,7 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L10-E1-F0-I0-R0-</v>
+        <v>A30-C0-D10-L10-E2-F0-I0-R0-</v>
       </c>
       <c r="I56" t="str">
         <f>LOOKUP(A56,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3424,7 +3432,7 @@
       </c>
       <c r="K56" t="str">
         <f>LOOKUP(C56,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L56" t="str">
         <f>LOOKUP(D56,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3432,7 +3440,7 @@
       </c>
       <c r="M56" t="str">
         <f>LOOKUP(E56,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>external</v>
       </c>
       <c r="N56" t="str">
         <f>LOOKUP(F56,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3447,23 +3455,23 @@
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G57" t="s">
         <v>3</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L30-E1-F0-I0-R0-</v>
+        <v>A30-C0-D10-L10-E2-F1-I0-R0-</v>
       </c>
       <c r="I57" t="str">
         <f>LOOKUP(A57,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3475,19 +3483,19 @@
       </c>
       <c r="K57" t="str">
         <f>LOOKUP(C57,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L57" t="str">
         <f>LOOKUP(D57,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M57" t="str">
         <f>LOOKUP(E57,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>external</v>
       </c>
       <c r="N57" t="str">
         <f>LOOKUP(F57,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3498,13 +3506,13 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
         <v>61</v>
@@ -3514,7 +3522,7 @@
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L31-E1-F0-I0-R0-</v>
+        <v>A30-C0-D10-L30-E2-F0-I0-R0-</v>
       </c>
       <c r="I58" t="str">
         <f>LOOKUP(A58,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3526,15 +3534,15 @@
       </c>
       <c r="K58" t="str">
         <f>LOOKUP(C58,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L58" t="str">
         <f>LOOKUP(D58,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M58" t="str">
         <f>LOOKUP(E58,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>external</v>
       </c>
       <c r="N58" t="str">
         <f>LOOKUP(F58,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3546,16 +3554,16 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F59" t="s">
         <v>61</v>
@@ -3564,8 +3572,8 @@
         <v>3</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C10-D0-L10-E1-F0-I0-R0-</v>
+        <f t="shared" ref="H59:H102" si="1">CONCATENATE(A59,"-",B59,"-",C59,"-",D59,"-",E59,"-",F59,"-",G59,"-")</f>
+        <v>A30-C20-D0-L30-E0-F0-I0-R0-</v>
       </c>
       <c r="I59" t="str">
         <f>LOOKUP(A59,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3573,7 +3581,7 @@
       </c>
       <c r="J59" t="str">
         <f>LOOKUP(B59,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K59" t="str">
         <f>LOOKUP(C59,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3581,11 +3589,11 @@
       </c>
       <c r="L59" t="str">
         <f>LOOKUP(D59,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M59" t="str">
         <f>LOOKUP(E59,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N59" t="str">
         <f>LOOKUP(F59,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3597,7 +3605,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>24</v>
@@ -3615,8 +3623,8 @@
         <v>3</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C10-D0-L30-E1-F0-I0-R0-</v>
+        <f t="shared" si="1"/>
+        <v>A30-C20-D0-L30-E1-F0-I0-R0-</v>
       </c>
       <c r="I60" t="str">
         <f>LOOKUP(A60,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3624,7 +3632,7 @@
       </c>
       <c r="J60" t="str">
         <f>LOOKUP(B60,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K60" t="str">
         <f>LOOKUP(C60,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3648,16 +3656,16 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>61</v>
@@ -3666,8 +3674,8 @@
         <v>3</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C10-D0-L31-E1-F0-I0-R0-</v>
+        <f t="shared" si="1"/>
+        <v>A30-C0-D20-L30-E2-F0-I0-R0-</v>
       </c>
       <c r="I61" t="str">
         <f>LOOKUP(A61,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3675,19 +3683,19 @@
       </c>
       <c r="J61" t="str">
         <f>LOOKUP(B61,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K61" t="str">
         <f>LOOKUP(C61,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>surv mlacomp</v>
       </c>
       <c r="L61" t="str">
         <f>LOOKUP(D61,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M61" t="str">
         <f>LOOKUP(E61,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>external</v>
       </c>
       <c r="N61" t="str">
         <f>LOOKUP(F61,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3702,10 +3710,10 @@
         <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -3717,8 +3725,8 @@
         <v>3</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C0-D10-L10-E2-F0-I0-R0-</v>
+        <f t="shared" si="1"/>
+        <v>A30-C0-D20-L31-E2-F0-I0-R0-</v>
       </c>
       <c r="I62" t="str">
         <f>LOOKUP(A62,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3730,11 +3738,11 @@
       </c>
       <c r="K62" t="str">
         <f>LOOKUP(C62,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>surv mlacomp</v>
       </c>
       <c r="L62" t="str">
         <f>LOOKUP(D62,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M62" t="str">
         <f>LOOKUP(E62,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3750,26 +3758,26 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G63" t="s">
         <v>3</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C10-D10-L10-E2-F0-I0-R0-</v>
+        <f t="shared" si="1"/>
+        <v>A30-C20-D0-L30-E0-F1-I0-R0-</v>
       </c>
       <c r="I63" t="str">
         <f>LOOKUP(A63,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3777,23 +3785,23 @@
       </c>
       <c r="J63" t="str">
         <f>LOOKUP(B63,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K63" t="str">
         <f>LOOKUP(C63,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L63" t="str">
         <f>LOOKUP(D63,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M63" t="str">
         <f>LOOKUP(E63,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N63" t="str">
         <f>LOOKUP(F63,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -3804,13 +3812,13 @@
         <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
         <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F64" t="s">
         <v>62</v>
@@ -3819,8 +3827,8 @@
         <v>3</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C0-D10-L10-E2-F1-I0-R0-</v>
+        <f t="shared" si="1"/>
+        <v>A30-C0-D0-L10-E0-F1-I0-R0-</v>
       </c>
       <c r="I64" t="str">
         <f>LOOKUP(A64,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3832,7 +3840,7 @@
       </c>
       <c r="K64" t="str">
         <f>LOOKUP(C64,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L64" t="str">
         <f>LOOKUP(D64,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3840,7 +3848,7 @@
       </c>
       <c r="M64" t="str">
         <f>LOOKUP(E64,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N64" t="str">
         <f>LOOKUP(F64,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3852,16 +3860,16 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F65" t="s">
         <v>62</v>
@@ -3870,8 +3878,8 @@
         <v>3</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C10-D10-L10-E2-F1-I0-R0-</v>
+        <f t="shared" si="1"/>
+        <v>A30-C0-D0-L30-E0-F1-I0-R0-</v>
       </c>
       <c r="I65" t="str">
         <f>LOOKUP(A65,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3879,19 +3887,19 @@
       </c>
       <c r="J65" t="str">
         <f>LOOKUP(B65,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K65" t="str">
         <f>LOOKUP(C65,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L65" t="str">
         <f>LOOKUP(D65,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M65" t="str">
         <f>LOOKUP(E65,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N65" t="str">
         <f>LOOKUP(F65,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3906,23 +3914,23 @@
         <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G66" t="s">
         <v>3</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C0-D10-L30-E2-F0-I0-R0-</v>
+        <f t="shared" si="1"/>
+        <v>A30-C0-D0-L31-E0-F1-I0-R0-</v>
       </c>
       <c r="I66" t="str">
         <f>LOOKUP(A66,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3934,19 +3942,19 @@
       </c>
       <c r="K66" t="str">
         <f>LOOKUP(C66,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L66" t="str">
         <f>LOOKUP(D66,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M66" t="str">
         <f>LOOKUP(E66,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N66" t="str">
         <f>LOOKUP(F66,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -3957,23 +3965,23 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G67" t="s">
         <v>3</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H130" si="1">CONCATENATE(A67,"-",B67,"-",C67,"-",D67,"-",E67,"-",F67,"-",G67,"-")</f>
-        <v>A30-C10-D10-L30-E2-F0-I0-R0-</v>
+        <f t="shared" si="1"/>
+        <v>A30-C10-D0-L10-E0-F1-I0-R0-</v>
       </c>
       <c r="I67" t="str">
         <f>LOOKUP(A67,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3985,19 +3993,19 @@
       </c>
       <c r="K67" t="str">
         <f>LOOKUP(C67,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L67" t="str">
         <f>LOOKUP(D67,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M67" t="str">
         <f>LOOKUP(E67,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N67" t="str">
         <f>LOOKUP(F67,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -4005,7 +4013,7 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
         <v>24</v>
@@ -4017,14 +4025,14 @@
         <v>27</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G68" t="s">
         <v>3</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L30-E0-F0-I0-R0-</v>
+        <v>A30-C10-D0-L30-E0-F1-I0-R0-</v>
       </c>
       <c r="I68" t="str">
         <f>LOOKUP(A68,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4032,7 +4040,7 @@
       </c>
       <c r="J68" t="str">
         <f>LOOKUP(B68,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>fish calcomp</v>
       </c>
       <c r="K68" t="str">
         <f>LOOKUP(C68,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4048,7 +4056,7 @@
       </c>
       <c r="N68" t="str">
         <f>LOOKUP(F68,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -4056,26 +4064,26 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
         <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G69" t="s">
         <v>3</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L30-E1-F0-I0-R0-</v>
+        <v>A30-C10-D0-L31-E0-F1-I0-R0-</v>
       </c>
       <c r="I69" t="str">
         <f>LOOKUP(A69,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4083,7 +4091,7 @@
       </c>
       <c r="J69" t="str">
         <f>LOOKUP(B69,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>fish calcomp</v>
       </c>
       <c r="K69" t="str">
         <f>LOOKUP(C69,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4091,15 +4099,15 @@
       </c>
       <c r="L69" t="str">
         <f>LOOKUP(D69,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M69" t="str">
         <f>LOOKUP(E69,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N69" t="str">
         <f>LOOKUP(F69,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -4110,23 +4118,23 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G70" t="s">
         <v>3</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D10-L30-E2-F0-I0-R0-</v>
+        <v>A30-C20-D0-L30-E1-F1-I0-R0-</v>
       </c>
       <c r="I70" t="str">
         <f>LOOKUP(A70,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4138,7 +4146,7 @@
       </c>
       <c r="K70" t="str">
         <f>LOOKUP(C70,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L70" t="str">
         <f>LOOKUP(D70,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4146,11 +4154,11 @@
       </c>
       <c r="M70" t="str">
         <f>LOOKUP(E70,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N70" t="str">
         <f>LOOKUP(F70,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -4161,23 +4169,23 @@
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G71" t="s">
         <v>3</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D20-L30-E2-F0-I0-R0-</v>
+        <v>A30-C0-D0-L10-E1-F1-I0-R0-</v>
       </c>
       <c r="I71" t="str">
         <f>LOOKUP(A71,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4189,19 +4197,19 @@
       </c>
       <c r="K71" t="str">
         <f>LOOKUP(C71,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L71" t="str">
         <f>LOOKUP(D71,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M71" t="str">
         <f>LOOKUP(E71,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N71" t="str">
         <f>LOOKUP(F71,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -4212,23 +4220,23 @@
         <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G72" t="s">
         <v>3</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D20-L31-E2-F0-I0-R0-</v>
+        <v>A30-C0-D0-L30-E1-F1-I0-R0-</v>
       </c>
       <c r="I72" t="str">
         <f>LOOKUP(A72,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4240,19 +4248,19 @@
       </c>
       <c r="K72" t="str">
         <f>LOOKUP(C72,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L72" t="str">
         <f>LOOKUP(D72,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M72" t="str">
         <f>LOOKUP(E72,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N72" t="str">
         <f>LOOKUP(F72,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -4260,26 +4268,26 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G73" t="s">
         <v>3</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D20-L30-E2-F0-I0-R0-</v>
+        <v>A30-C0-D0-L31-E1-F1-I0-R0-</v>
       </c>
       <c r="I73" t="str">
         <f>LOOKUP(A73,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4287,23 +4295,23 @@
       </c>
       <c r="J73" t="str">
         <f>LOOKUP(B73,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K73" t="str">
         <f>LOOKUP(C73,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L73" t="str">
         <f>LOOKUP(D73,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M73" t="str">
         <f>LOOKUP(E73,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N73" t="str">
         <f>LOOKUP(F73,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -4314,23 +4322,23 @@
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E74" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G74" t="s">
         <v>3</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D20-L31-E2-F0-I0-R0-</v>
+        <v>A30-C10-D0-L10-E1-F1-I0-R0-</v>
       </c>
       <c r="I74" t="str">
         <f>LOOKUP(A74,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4342,19 +4350,19 @@
       </c>
       <c r="K74" t="str">
         <f>LOOKUP(C74,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L74" t="str">
         <f>LOOKUP(D74,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M74" t="str">
         <f>LOOKUP(E74,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N74" t="str">
         <f>LOOKUP(F74,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -4362,26 +4370,26 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G75" t="s">
         <v>3</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D20-L30-E2-F0-I0-R0-</v>
+        <v>A30-C10-D0-L30-E1-F1-I0-R0-</v>
       </c>
       <c r="I75" t="str">
         <f>LOOKUP(A75,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4389,11 +4397,11 @@
       </c>
       <c r="J75" t="str">
         <f>LOOKUP(B75,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>fish calcomp</v>
       </c>
       <c r="K75" t="str">
         <f>LOOKUP(C75,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L75" t="str">
         <f>LOOKUP(D75,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4401,11 +4409,11 @@
       </c>
       <c r="M75" t="str">
         <f>LOOKUP(E75,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N75" t="str">
         <f>LOOKUP(F75,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -4413,16 +4421,16 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
         <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
         <v>62</v>
@@ -4432,7 +4440,7 @@
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L30-E0-F1-I0-R0-</v>
+        <v>A30-C10-D0-L31-E1-F1-I0-R0-</v>
       </c>
       <c r="I76" t="str">
         <f>LOOKUP(A76,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4440,7 +4448,7 @@
       </c>
       <c r="J76" t="str">
         <f>LOOKUP(B76,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>fish calcomp</v>
       </c>
       <c r="K76" t="str">
         <f>LOOKUP(C76,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4448,11 +4456,11 @@
       </c>
       <c r="L76" t="str">
         <f>LOOKUP(D76,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M76" t="str">
         <f>LOOKUP(E76,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N76" t="str">
         <f>LOOKUP(F76,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4464,26 +4472,26 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E77" t="s">
         <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G77" t="s">
         <v>3</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L10-E0-F1-I0-R0-</v>
+        <v>A30-C20-D0-L31-E0-F0-I0-R0-</v>
       </c>
       <c r="I77" t="str">
         <f>LOOKUP(A77,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4491,7 +4499,7 @@
       </c>
       <c r="J77" t="str">
         <f>LOOKUP(B77,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K77" t="str">
         <f>LOOKUP(C77,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4499,7 +4507,7 @@
       </c>
       <c r="L77" t="str">
         <f>LOOKUP(D77,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M77" t="str">
         <f>LOOKUP(E77,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4507,7 +4515,7 @@
       </c>
       <c r="N77" t="str">
         <f>LOOKUP(F77,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -4515,26 +4523,26 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G78" t="s">
         <v>3</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L30-E0-F1-I0-R0-</v>
+        <v>A30-C20-D0-L31-E1-F0-I0-R0-</v>
       </c>
       <c r="I78" t="str">
         <f>LOOKUP(A78,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4542,7 +4550,7 @@
       </c>
       <c r="J78" t="str">
         <f>LOOKUP(B78,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K78" t="str">
         <f>LOOKUP(C78,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4550,15 +4558,15 @@
       </c>
       <c r="L78" t="str">
         <f>LOOKUP(D78,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M78" t="str">
         <f>LOOKUP(E78,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N78" t="str">
         <f>LOOKUP(F78,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -4569,13 +4577,13 @@
         <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
         <v>62</v>
@@ -4585,7 +4593,7 @@
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L31-E0-F1-I0-R0-</v>
+        <v>A30-C0-D10-L30-E2-F1-I0-R0-</v>
       </c>
       <c r="I79" t="str">
         <f>LOOKUP(A79,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4597,15 +4605,15 @@
       </c>
       <c r="K79" t="str">
         <f>LOOKUP(C79,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L79" t="str">
         <f>LOOKUP(D79,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M79" t="str">
         <f>LOOKUP(E79,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>external</v>
       </c>
       <c r="N79" t="str">
         <f>LOOKUP(F79,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4617,26 +4625,26 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G80" t="s">
         <v>3</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L10-E0-F1-I0-R0-</v>
+        <v>A30-C0-D10-L31-E2-F0-I0-R0-</v>
       </c>
       <c r="I80" t="str">
         <f>LOOKUP(A80,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4644,23 +4652,23 @@
       </c>
       <c r="J80" t="str">
         <f>LOOKUP(B80,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K80" t="str">
         <f>LOOKUP(C80,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L80" t="str">
         <f>LOOKUP(D80,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M80" t="str">
         <f>LOOKUP(E80,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>external</v>
       </c>
       <c r="N80" t="str">
         <f>LOOKUP(F80,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -4668,16 +4676,16 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>62</v>
@@ -4687,7 +4695,7 @@
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L30-E0-F1-I0-R0-</v>
+        <v>A30-C0-D10-L31-E2-F1-I0-R0-</v>
       </c>
       <c r="I81" t="str">
         <f>LOOKUP(A81,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4695,19 +4703,19 @@
       </c>
       <c r="J81" t="str">
         <f>LOOKUP(B81,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K81" t="str">
         <f>LOOKUP(C81,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L81" t="str">
         <f>LOOKUP(D81,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M81" t="str">
         <f>LOOKUP(E81,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>external</v>
       </c>
       <c r="N81" t="str">
         <f>LOOKUP(F81,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4719,7 +4727,7 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>24</v>
@@ -4738,7 +4746,7 @@
       </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L31-E0-F1-I0-R0-</v>
+        <v>A30-C20-D0-L31-E0-F1-I0-R0-</v>
       </c>
       <c r="I82" t="str">
         <f>LOOKUP(A82,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4746,7 +4754,7 @@
       </c>
       <c r="J82" t="str">
         <f>LOOKUP(B82,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K82" t="str">
         <f>LOOKUP(C82,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4776,7 +4784,7 @@
         <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E83" t="s">
         <v>23</v>
@@ -4789,7 +4797,7 @@
       </c>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L30-E1-F1-I0-R0-</v>
+        <v>A30-C20-D0-L31-E1-F1-I0-R0-</v>
       </c>
       <c r="I83" t="str">
         <f>LOOKUP(A83,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4805,7 +4813,7 @@
       </c>
       <c r="L83" t="str">
         <f>LOOKUP(D83,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M83" t="str">
         <f>LOOKUP(E83,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4821,10 +4829,10 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
@@ -4840,7 +4848,7 @@
       </c>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D10-L30-E2-F1-I0-R0-</v>
+        <v>A30-C0-D20-L30-E2-F1-I0-R0-</v>
       </c>
       <c r="I84" t="str">
         <f>LOOKUP(A84,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4848,11 +4856,11 @@
       </c>
       <c r="J84" t="str">
         <f>LOOKUP(B84,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K84" t="str">
         <f>LOOKUP(C84,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>surv mlacomp</v>
       </c>
       <c r="L84" t="str">
         <f>LOOKUP(D84,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4872,13 +4880,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
@@ -4891,7 +4899,7 @@
       </c>
       <c r="H85" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D20-L30-E2-F1-I0-R0-</v>
+        <v>A30-C0-D20-L31-E2-F1-I0-R0-</v>
       </c>
       <c r="I85" t="str">
         <f>LOOKUP(A85,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4899,7 +4907,7 @@
       </c>
       <c r="J85" t="str">
         <f>LOOKUP(B85,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K85" t="str">
         <f>LOOKUP(C85,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4907,7 +4915,7 @@
       </c>
       <c r="L85" t="str">
         <f>LOOKUP(D85,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M85" t="str">
         <f>LOOKUP(E85,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4920,7 +4928,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
         <v>17</v>
@@ -4932,21 +4940,21 @@
         <v>21</v>
       </c>
       <c r="E86" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G86" t="s">
         <v>3</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L10-E1-F1-I0-R0-</v>
+        <v>A31-C0-D0-L10-E0-F0-I0-R0-</v>
       </c>
       <c r="I86" t="str">
         <f>LOOKUP(A86,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J86" t="str">
         <f>LOOKUP(B86,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4962,16 +4970,16 @@
       </c>
       <c r="M86" t="str">
         <f>LOOKUP(E86,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N86" t="str">
         <f>LOOKUP(F86,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
         <v>17</v>
@@ -4983,21 +4991,21 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G87" t="s">
         <v>3</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L30-E1-F1-I0-R0-</v>
+        <v>A31-C0-D0-L30-E0-F0-I0-R0-</v>
       </c>
       <c r="I87" t="str">
         <f>LOOKUP(A87,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J87" t="str">
         <f>LOOKUP(B87,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5013,16 +5021,16 @@
       </c>
       <c r="M87" t="str">
         <f>LOOKUP(E87,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N87" t="str">
         <f>LOOKUP(F87,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
         <v>17</v>
@@ -5034,21 +5042,21 @@
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G88" t="s">
         <v>3</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L31-E1-F1-I0-R0-</v>
+        <v>A31-C0-D0-L31-E0-F0-I0-R0-</v>
       </c>
       <c r="I88" t="str">
         <f>LOOKUP(A88,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J88" t="str">
         <f>LOOKUP(B88,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5064,16 +5072,16 @@
       </c>
       <c r="M88" t="str">
         <f>LOOKUP(E88,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N88" t="str">
         <f>LOOKUP(F88,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
@@ -5085,21 +5093,21 @@
         <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G89" t="s">
         <v>3</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L10-E1-F1-I0-R0-</v>
+        <v>A31-C10-D0-L10-E0-F0-I0-R0-</v>
       </c>
       <c r="I89" t="str">
         <f>LOOKUP(A89,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J89" t="str">
         <f>LOOKUP(B89,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5115,16 +5123,16 @@
       </c>
       <c r="M89" t="str">
         <f>LOOKUP(E89,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N89" t="str">
         <f>LOOKUP(F89,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
@@ -5136,21 +5144,21 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G90" t="s">
         <v>3</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L30-E1-F1-I0-R0-</v>
+        <v>A31-C10-D0-L30-E0-F0-I0-R0-</v>
       </c>
       <c r="I90" t="str">
         <f>LOOKUP(A90,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J90" t="str">
         <f>LOOKUP(B90,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5166,16 +5174,16 @@
       </c>
       <c r="M90" t="str">
         <f>LOOKUP(E90,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N90" t="str">
         <f>LOOKUP(F90,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
@@ -5187,21 +5195,21 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G91" t="s">
         <v>3</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L31-E1-F1-I0-R0-</v>
+        <v>A31-C10-D0-L31-E0-F0-I0-R0-</v>
       </c>
       <c r="I91" t="str">
         <f>LOOKUP(A91,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J91" t="str">
         <f>LOOKUP(B91,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5217,28 +5225,28 @@
       </c>
       <c r="M91" t="str">
         <f>LOOKUP(E91,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N91" t="str">
         <f>LOOKUP(F91,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
         <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F92" t="s">
         <v>61</v>
@@ -5248,15 +5256,15 @@
       </c>
       <c r="H92" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L31-E0-F0-I0-R0-</v>
+        <v>A31-C0-D0-L10-E1-F0-I0-R0-</v>
       </c>
       <c r="I92" t="str">
         <f>LOOKUP(A92,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J92" t="str">
         <f>LOOKUP(B92,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K92" t="str">
         <f>LOOKUP(C92,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5264,11 +5272,11 @@
       </c>
       <c r="L92" t="str">
         <f>LOOKUP(D92,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M92" t="str">
         <f>LOOKUP(E92,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N92" t="str">
         <f>LOOKUP(F92,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5277,16 +5285,16 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C93" t="s">
         <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
         <v>23</v>
@@ -5299,15 +5307,15 @@
       </c>
       <c r="H93" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L31-E1-F0-I0-R0-</v>
+        <v>A31-C0-D0-L30-E1-F0-I0-R0-</v>
       </c>
       <c r="I93" t="str">
         <f>LOOKUP(A93,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J93" t="str">
         <f>LOOKUP(B93,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K93" t="str">
         <f>LOOKUP(C93,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5315,7 +5323,7 @@
       </c>
       <c r="L93" t="str">
         <f>LOOKUP(D93,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M93" t="str">
         <f>LOOKUP(E93,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5328,33 +5336,33 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G94" t="s">
         <v>3</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D10-L30-E2-F1-I0-R0-</v>
+        <v>A31-C0-D0-L31-E1-F0-I0-R0-</v>
       </c>
       <c r="I94" t="str">
         <f>LOOKUP(A94,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J94" t="str">
         <f>LOOKUP(B94,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5362,50 +5370,50 @@
       </c>
       <c r="K94" t="str">
         <f>LOOKUP(C94,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L94" t="str">
         <f>LOOKUP(D94,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M94" t="str">
         <f>LOOKUP(E94,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N94" t="str">
         <f>LOOKUP(F94,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G95" t="s">
         <v>3</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D10-L30-E2-F1-I0-R0-</v>
+        <v>A31-C10-D0-L10-E1-F0-I0-R0-</v>
       </c>
       <c r="I95" t="str">
         <f>LOOKUP(A95,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J95" t="str">
         <f>LOOKUP(B95,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5413,36 +5421,36 @@
       </c>
       <c r="K95" t="str">
         <f>LOOKUP(C95,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L95" t="str">
         <f>LOOKUP(D95,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M95" t="str">
         <f>LOOKUP(E95,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N95" t="str">
         <f>LOOKUP(F95,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F96" t="s">
         <v>61</v>
@@ -5452,27 +5460,27 @@
       </c>
       <c r="H96" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D10-L31-E2-F0-I0-R0-</v>
+        <v>A31-C10-D0-L30-E1-F0-I0-R0-</v>
       </c>
       <c r="I96" t="str">
         <f>LOOKUP(A96,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J96" t="str">
         <f>LOOKUP(B96,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>fish calcomp</v>
       </c>
       <c r="K96" t="str">
         <f>LOOKUP(C96,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L96" t="str">
         <f>LOOKUP(D96,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M96" t="str">
         <f>LOOKUP(E96,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N96" t="str">
         <f>LOOKUP(F96,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5481,19 +5489,19 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F97" t="s">
         <v>61</v>
@@ -5503,11 +5511,11 @@
       </c>
       <c r="H97" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D10-L31-E2-F0-I0-R0-</v>
+        <v>A31-C10-D0-L31-E1-F0-I0-R0-</v>
       </c>
       <c r="I97" t="str">
         <f>LOOKUP(A97,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J97" t="str">
         <f>LOOKUP(B97,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5515,7 +5523,7 @@
       </c>
       <c r="K97" t="str">
         <f>LOOKUP(C97,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L97" t="str">
         <f>LOOKUP(D97,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5523,7 +5531,7 @@
       </c>
       <c r="M97" t="str">
         <f>LOOKUP(E97,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N97" t="str">
         <f>LOOKUP(F97,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5532,16 +5540,16 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E98" t="s">
         <v>4</v>
@@ -5554,15 +5562,15 @@
       </c>
       <c r="H98" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D10-L31-E2-F0-I0-R0-</v>
+        <v>A31-C0-D10-L10-E2-F0-I0-R0-</v>
       </c>
       <c r="I98" t="str">
         <f>LOOKUP(A98,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J98" t="str">
         <f>LOOKUP(B98,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K98" t="str">
         <f>LOOKUP(C98,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5570,7 +5578,7 @@
       </c>
       <c r="L98" t="str">
         <f>LOOKUP(D98,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M98" t="str">
         <f>LOOKUP(E98,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5583,7 +5591,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
         <v>17</v>
@@ -5592,7 +5600,7 @@
         <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E99" t="s">
         <v>4</v>
@@ -5605,11 +5613,11 @@
       </c>
       <c r="H99" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D10-L31-E2-F1-I0-R0-</v>
+        <v>A31-C0-D10-L10-E2-F1-I0-R0-</v>
       </c>
       <c r="I99" t="str">
         <f>LOOKUP(A99,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J99" t="str">
         <f>LOOKUP(B99,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5621,7 +5629,7 @@
       </c>
       <c r="L99" t="str">
         <f>LOOKUP(D99,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M99" t="str">
         <f>LOOKUP(E99,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5634,37 +5642,37 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
         <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G100" t="s">
         <v>3</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D10-L31-E2-F1-I0-R0-</v>
+        <v>A31-C0-D10-L30-E2-F0-I0-R0-</v>
       </c>
       <c r="I100" t="str">
         <f>LOOKUP(A100,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J100" t="str">
         <f>LOOKUP(B100,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K100" t="str">
         <f>LOOKUP(C100,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5672,7 +5680,7 @@
       </c>
       <c r="L100" t="str">
         <f>LOOKUP(D100,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M100" t="str">
         <f>LOOKUP(E100,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5680,24 +5688,24 @@
       </c>
       <c r="N100" t="str">
         <f>LOOKUP(F100,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F101" t="s">
         <v>61</v>
@@ -5707,11 +5715,11 @@
       </c>
       <c r="H101" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D20-L31-E2-F0-I0-R0-</v>
+        <v>A31-C20-D0-L30-E0-F0-I0-R0-</v>
       </c>
       <c r="I101" t="str">
         <f>LOOKUP(A101,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J101" t="str">
         <f>LOOKUP(B101,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5719,15 +5727,15 @@
       </c>
       <c r="K101" t="str">
         <f>LOOKUP(C101,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L101" t="str">
         <f>LOOKUP(D101,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M101" t="str">
         <f>LOOKUP(E101,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N101" t="str">
         <f>LOOKUP(F101,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5736,7 +5744,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -5745,24 +5753,24 @@
         <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G102" t="s">
         <v>3</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L31-E0-F1-I0-R0-</v>
+        <v>A31-C20-D0-L30-E1-F0-I0-R0-</v>
       </c>
       <c r="I102" t="str">
         <f>LOOKUP(A102,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J102" t="str">
         <f>LOOKUP(B102,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5774,71 +5782,71 @@
       </c>
       <c r="L102" t="str">
         <f>LOOKUP(D102,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M102" t="str">
         <f>LOOKUP(E102,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N102" t="str">
         <f>LOOKUP(F102,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G103" t="s">
         <v>3</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C20-D0-L31-E1-F1-I0-R0-</v>
+        <f t="shared" ref="H103:H127" si="2">CONCATENATE(A103,"-",B103,"-",C103,"-",D103,"-",E103,"-",F103,"-",G103,"-")</f>
+        <v>A31-C0-D20-L30-E2-F0-I0-R0-</v>
       </c>
       <c r="I103" t="str">
         <f>LOOKUP(A103,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J103" t="str">
         <f>LOOKUP(B103,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K103" t="str">
         <f>LOOKUP(C103,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>surv mlacomp</v>
       </c>
       <c r="L103" t="str">
         <f>LOOKUP(D103,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M103" t="str">
         <f>LOOKUP(E103,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>external</v>
       </c>
       <c r="N103" t="str">
         <f>LOOKUP(F103,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
         <v>17</v>
@@ -5847,24 +5855,24 @@
         <v>6</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
       </c>
       <c r="F104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G104" t="s">
         <v>3</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C0-D20-L30-E2-F1-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C0-D20-L31-E2-F0-I0-R0-</v>
       </c>
       <c r="I104" t="str">
         <f>LOOKUP(A104,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J104" t="str">
         <f>LOOKUP(B104,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5876,7 +5884,7 @@
       </c>
       <c r="L104" t="str">
         <f>LOOKUP(D104,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M104" t="str">
         <f>LOOKUP(E104,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5884,24 +5892,24 @@
       </c>
       <c r="N104" t="str">
         <f>LOOKUP(F104,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F105" t="s">
         <v>62</v>
@@ -5910,28 +5918,28 @@
         <v>3</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C0-D20-L31-E2-F1-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C20-D0-L30-E0-F1-I0-R0-</v>
       </c>
       <c r="I105" t="str">
         <f>LOOKUP(A105,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J105" t="str">
         <f>LOOKUP(B105,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K105" t="str">
         <f>LOOKUP(C105,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L105" t="str">
         <f>LOOKUP(D105,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M105" t="str">
         <f>LOOKUP(E105,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N105" t="str">
         <f>LOOKUP(F105,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5940,19 +5948,19 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E106" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F106" t="s">
         <v>62</v>
@@ -5961,28 +5969,28 @@
         <v>3</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C10-D20-L30-E2-F1-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C0-D0-L10-E0-F1-I0-R0-</v>
       </c>
       <c r="I106" t="str">
         <f>LOOKUP(A106,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J106" t="str">
         <f>LOOKUP(B106,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K106" t="str">
         <f>LOOKUP(C106,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L106" t="str">
         <f>LOOKUP(D106,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M106" t="str">
         <f>LOOKUP(E106,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N106" t="str">
         <f>LOOKUP(F106,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5991,19 +5999,19 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F107" t="s">
         <v>62</v>
@@ -6012,28 +6020,28 @@
         <v>3</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C10-D20-L31-E2-F1-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C0-D0-L30-E0-F1-I0-R0-</v>
       </c>
       <c r="I107" t="str">
         <f>LOOKUP(A107,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J107" t="str">
         <f>LOOKUP(B107,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K107" t="str">
         <f>LOOKUP(C107,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L107" t="str">
         <f>LOOKUP(D107,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M107" t="str">
         <f>LOOKUP(E107,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N107" t="str">
         <f>LOOKUP(F107,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6042,19 +6050,19 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D108" t="s">
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F108" t="s">
         <v>62</v>
@@ -6063,20 +6071,20 @@
         <v>3</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C20-D10-L31-E2-F1-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C0-D0-L31-E0-F1-I0-R0-</v>
       </c>
       <c r="I108" t="str">
         <f>LOOKUP(A108,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J108" t="str">
         <f>LOOKUP(B108,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K108" t="str">
         <f>LOOKUP(C108,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L108" t="str">
         <f>LOOKUP(D108,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6084,7 +6092,7 @@
       </c>
       <c r="M108" t="str">
         <f>LOOKUP(E108,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N108" t="str">
         <f>LOOKUP(F108,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6093,19 +6101,19 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E109" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F109" t="s">
         <v>62</v>
@@ -6114,28 +6122,28 @@
         <v>3</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C20-D20-L31-E2-F1-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C10-D0-L10-E0-F1-I0-R0-</v>
       </c>
       <c r="I109" t="str">
         <f>LOOKUP(A109,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv age</v>
       </c>
       <c r="J109" t="str">
         <f>LOOKUP(B109,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>fish calcomp</v>
       </c>
       <c r="K109" t="str">
         <f>LOOKUP(C109,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L109" t="str">
         <f>LOOKUP(D109,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M109" t="str">
         <f>LOOKUP(E109,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N109" t="str">
         <f>LOOKUP(F109,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6147,26 +6155,26 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
         <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
         <v>27</v>
       </c>
       <c r="F110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G110" t="s">
         <v>3</v>
       </c>
       <c r="H110" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C0-D0-L10-E0-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C10-D0-L30-E0-F1-I0-R0-</v>
       </c>
       <c r="I110" t="str">
         <f>LOOKUP(A110,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6174,7 +6182,7 @@
       </c>
       <c r="J110" t="str">
         <f>LOOKUP(B110,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>fish calcomp</v>
       </c>
       <c r="K110" t="str">
         <f>LOOKUP(C110,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6182,7 +6190,7 @@
       </c>
       <c r="L110" t="str">
         <f>LOOKUP(D110,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M110" t="str">
         <f>LOOKUP(E110,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6190,7 +6198,7 @@
       </c>
       <c r="N110" t="str">
         <f>LOOKUP(F110,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -6198,26 +6206,26 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
         <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E111" t="s">
         <v>27</v>
       </c>
       <c r="F111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G111" t="s">
         <v>3</v>
       </c>
       <c r="H111" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C0-D0-L30-E0-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C10-D0-L31-E0-F1-I0-R0-</v>
       </c>
       <c r="I111" t="str">
         <f>LOOKUP(A111,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6225,7 +6233,7 @@
       </c>
       <c r="J111" t="str">
         <f>LOOKUP(B111,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>fish calcomp</v>
       </c>
       <c r="K111" t="str">
         <f>LOOKUP(C111,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6233,7 +6241,7 @@
       </c>
       <c r="L111" t="str">
         <f>LOOKUP(D111,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M111" t="str">
         <f>LOOKUP(E111,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6241,7 +6249,7 @@
       </c>
       <c r="N111" t="str">
         <f>LOOKUP(F111,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -6249,26 +6257,26 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G112" t="s">
         <v>3</v>
       </c>
       <c r="H112" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C0-D0-L31-E0-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C20-D0-L30-E1-F1-I0-R0-</v>
       </c>
       <c r="I112" t="str">
         <f>LOOKUP(A112,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6276,7 +6284,7 @@
       </c>
       <c r="J112" t="str">
         <f>LOOKUP(B112,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K112" t="str">
         <f>LOOKUP(C112,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6284,15 +6292,15 @@
       </c>
       <c r="L112" t="str">
         <f>LOOKUP(D112,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M112" t="str">
         <f>LOOKUP(E112,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N112" t="str">
         <f>LOOKUP(F112,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -6300,7 +6308,7 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C113" t="s">
         <v>24</v>
@@ -6309,17 +6317,17 @@
         <v>21</v>
       </c>
       <c r="E113" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G113" t="s">
         <v>3</v>
       </c>
       <c r="H113" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C10-D0-L10-E0-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C0-D0-L10-E1-F1-I0-R0-</v>
       </c>
       <c r="I113" t="str">
         <f>LOOKUP(A113,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6327,7 +6335,7 @@
       </c>
       <c r="J113" t="str">
         <f>LOOKUP(B113,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K113" t="str">
         <f>LOOKUP(C113,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6339,11 +6347,11 @@
       </c>
       <c r="M113" t="str">
         <f>LOOKUP(E113,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N113" t="str">
         <f>LOOKUP(F113,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -6351,7 +6359,7 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C114" t="s">
         <v>24</v>
@@ -6360,17 +6368,17 @@
         <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G114" t="s">
         <v>3</v>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C10-D0-L30-E0-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C0-D0-L30-E1-F1-I0-R0-</v>
       </c>
       <c r="I114" t="str">
         <f>LOOKUP(A114,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6378,7 +6386,7 @@
       </c>
       <c r="J114" t="str">
         <f>LOOKUP(B114,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K114" t="str">
         <f>LOOKUP(C114,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6390,11 +6398,11 @@
       </c>
       <c r="M114" t="str">
         <f>LOOKUP(E114,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N114" t="str">
         <f>LOOKUP(F114,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -6402,7 +6410,7 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C115" t="s">
         <v>24</v>
@@ -6411,17 +6419,17 @@
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G115" t="s">
         <v>3</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C10-D0-L31-E0-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C0-D0-L31-E1-F1-I0-R0-</v>
       </c>
       <c r="I115" t="str">
         <f>LOOKUP(A115,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6429,7 +6437,7 @@
       </c>
       <c r="J115" t="str">
         <f>LOOKUP(B115,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K115" t="str">
         <f>LOOKUP(C115,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6441,11 +6449,11 @@
       </c>
       <c r="M115" t="str">
         <f>LOOKUP(E115,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N115" t="str">
         <f>LOOKUP(F115,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -6453,7 +6461,7 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
         <v>24</v>
@@ -6465,14 +6473,14 @@
         <v>23</v>
       </c>
       <c r="F116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G116" t="s">
         <v>3</v>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C0-D0-L10-E1-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C10-D0-L10-E1-F1-I0-R0-</v>
       </c>
       <c r="I116" t="str">
         <f>LOOKUP(A116,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6480,7 +6488,7 @@
       </c>
       <c r="J116" t="str">
         <f>LOOKUP(B116,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>fish calcomp</v>
       </c>
       <c r="K116" t="str">
         <f>LOOKUP(C116,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6496,7 +6504,7 @@
       </c>
       <c r="N116" t="str">
         <f>LOOKUP(F116,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -6504,7 +6512,7 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C117" t="s">
         <v>24</v>
@@ -6516,14 +6524,14 @@
         <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G117" t="s">
         <v>3</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C0-D0-L30-E1-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C10-D0-L30-E1-F1-I0-R0-</v>
       </c>
       <c r="I117" t="str">
         <f>LOOKUP(A117,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6531,7 +6539,7 @@
       </c>
       <c r="J117" t="str">
         <f>LOOKUP(B117,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>fish calcomp</v>
       </c>
       <c r="K117" t="str">
         <f>LOOKUP(C117,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6547,7 +6555,7 @@
       </c>
       <c r="N117" t="str">
         <f>LOOKUP(F117,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -6555,7 +6563,7 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
         <v>24</v>
@@ -6567,14 +6575,14 @@
         <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G118" t="s">
         <v>3</v>
       </c>
       <c r="H118" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C0-D0-L31-E1-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C10-D0-L31-E1-F1-I0-R0-</v>
       </c>
       <c r="I118" t="str">
         <f>LOOKUP(A118,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6582,7 +6590,7 @@
       </c>
       <c r="J118" t="str">
         <f>LOOKUP(B118,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>fish calcomp</v>
       </c>
       <c r="K118" t="str">
         <f>LOOKUP(C118,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6598,7 +6606,7 @@
       </c>
       <c r="N118" t="str">
         <f>LOOKUP(F118,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -6606,16 +6614,16 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F119" t="s">
         <v>61</v>
@@ -6624,8 +6632,8 @@
         <v>3</v>
       </c>
       <c r="H119" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C10-D0-L10-E1-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C20-D0-L31-E0-F0-I0-R0-</v>
       </c>
       <c r="I119" t="str">
         <f>LOOKUP(A119,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6633,7 +6641,7 @@
       </c>
       <c r="J119" t="str">
         <f>LOOKUP(B119,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K119" t="str">
         <f>LOOKUP(C119,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6641,11 +6649,11 @@
       </c>
       <c r="L119" t="str">
         <f>LOOKUP(D119,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M119" t="str">
         <f>LOOKUP(E119,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N119" t="str">
         <f>LOOKUP(F119,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6657,13 +6665,13 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E120" t="s">
         <v>23</v>
@@ -6675,8 +6683,8 @@
         <v>3</v>
       </c>
       <c r="H120" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C10-D0-L30-E1-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C20-D0-L31-E1-F0-I0-R0-</v>
       </c>
       <c r="I120" t="str">
         <f>LOOKUP(A120,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6684,7 +6692,7 @@
       </c>
       <c r="J120" t="str">
         <f>LOOKUP(B120,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K120" t="str">
         <f>LOOKUP(C120,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6692,7 +6700,7 @@
       </c>
       <c r="L120" t="str">
         <f>LOOKUP(D120,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M120" t="str">
         <f>LOOKUP(E120,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6708,26 +6716,26 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G121" t="s">
         <v>3</v>
       </c>
       <c r="H121" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C10-D0-L31-E1-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C0-D10-L30-E2-F1-I0-R0-</v>
       </c>
       <c r="I121" t="str">
         <f>LOOKUP(A121,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6735,23 +6743,23 @@
       </c>
       <c r="J121" t="str">
         <f>LOOKUP(B121,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K121" t="str">
         <f>LOOKUP(C121,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L121" t="str">
         <f>LOOKUP(D121,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish &amp; .5surv length</v>
       </c>
       <c r="M121" t="str">
         <f>LOOKUP(E121,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>external</v>
       </c>
       <c r="N121" t="str">
         <f>LOOKUP(F121,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -6765,7 +6773,7 @@
         <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E122" t="s">
         <v>4</v>
@@ -6777,8 +6785,8 @@
         <v>3</v>
       </c>
       <c r="H122" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C0-D10-L10-E2-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C0-D10-L31-E2-F0-I0-R0-</v>
       </c>
       <c r="I122" t="str">
         <f>LOOKUP(A122,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6794,7 +6802,7 @@
       </c>
       <c r="L122" t="str">
         <f>LOOKUP(D122,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M122" t="str">
         <f>LOOKUP(E122,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6810,26 +6818,26 @@
         <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E123" t="s">
         <v>4</v>
       </c>
       <c r="F123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G123" t="s">
         <v>3</v>
       </c>
       <c r="H123" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C10-D10-L10-E2-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C0-D10-L31-E2-F1-I0-R0-</v>
       </c>
       <c r="I123" t="str">
         <f>LOOKUP(A123,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6837,7 +6845,7 @@
       </c>
       <c r="J123" t="str">
         <f>LOOKUP(B123,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K123" t="str">
         <f>LOOKUP(C123,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6845,7 +6853,7 @@
       </c>
       <c r="L123" t="str">
         <f>LOOKUP(D123,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M123" t="str">
         <f>LOOKUP(E123,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6853,7 +6861,7 @@
       </c>
       <c r="N123" t="str">
         <f>LOOKUP(F123,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -6861,16 +6869,16 @@
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F124" t="s">
         <v>62</v>
@@ -6879,8 +6887,8 @@
         <v>3</v>
       </c>
       <c r="H124" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C0-D10-L10-E2-F1-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C20-D0-L31-E0-F1-I0-R0-</v>
       </c>
       <c r="I124" t="str">
         <f>LOOKUP(A124,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6888,19 +6896,19 @@
       </c>
       <c r="J124" t="str">
         <f>LOOKUP(B124,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K124" t="str">
         <f>LOOKUP(C124,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L124" t="str">
         <f>LOOKUP(D124,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M124" t="str">
         <f>LOOKUP(E124,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N124" t="str">
         <f>LOOKUP(F124,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6912,16 +6920,16 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F125" t="s">
         <v>62</v>
@@ -6930,8 +6938,8 @@
         <v>3</v>
       </c>
       <c r="H125" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C10-D10-L10-E2-F1-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C20-D0-L31-E1-F1-I0-R0-</v>
       </c>
       <c r="I125" t="str">
         <f>LOOKUP(A125,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6939,19 +6947,19 @@
       </c>
       <c r="J125" t="str">
         <f>LOOKUP(B125,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K125" t="str">
         <f>LOOKUP(C125,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L125" t="str">
         <f>LOOKUP(D125,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M125" t="str">
         <f>LOOKUP(E125,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N125" t="str">
         <f>LOOKUP(F125,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6966,7 +6974,7 @@
         <v>17</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
@@ -6975,14 +6983,14 @@
         <v>4</v>
       </c>
       <c r="F126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G126" t="s">
         <v>3</v>
       </c>
       <c r="H126" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C0-D10-L30-E2-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C0-D20-L30-E2-F1-I0-R0-</v>
       </c>
       <c r="I126" t="str">
         <f>LOOKUP(A126,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6994,7 +7002,7 @@
       </c>
       <c r="K126" t="str">
         <f>LOOKUP(C126,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>surv mlacomp</v>
       </c>
       <c r="L126" t="str">
         <f>LOOKUP(D126,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7006,7 +7014,7 @@
       </c>
       <c r="N126" t="str">
         <f>LOOKUP(F126,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -7014,26 +7022,26 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E127" t="s">
         <v>4</v>
       </c>
       <c r="F127" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G127" t="s">
         <v>3</v>
       </c>
       <c r="H127" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C10-D10-L30-E2-F0-I0-R0-</v>
+        <f t="shared" si="2"/>
+        <v>A31-C0-D20-L31-E2-F1-I0-R0-</v>
       </c>
       <c r="I127" t="str">
         <f>LOOKUP(A127,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7041,15 +7049,15 @@
       </c>
       <c r="J127" t="str">
         <f>LOOKUP(B127,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K127" t="str">
         <f>LOOKUP(C127,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>surv mlacomp</v>
       </c>
       <c r="L127" t="str">
         <f>LOOKUP(D127,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M127" t="str">
         <f>LOOKUP(E127,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7057,2153 +7065,11 @@
       </c>
       <c r="N127" t="str">
         <f>LOOKUP(F127,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s">
-        <v>24</v>
-      </c>
-      <c r="D128" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" t="s">
-        <v>27</v>
-      </c>
-      <c r="F128" t="s">
-        <v>61</v>
-      </c>
-      <c r="G128" t="s">
-        <v>3</v>
-      </c>
-      <c r="H128" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C20-D0-L30-E0-F0-I0-R0-</v>
-      </c>
-      <c r="I128" t="str">
-        <f>LOOKUP(A128,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J128" t="str">
-        <f>LOOKUP(B128,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K128" t="str">
-        <f>LOOKUP(C128,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L128" t="str">
-        <f>LOOKUP(D128,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M128" t="str">
-        <f>LOOKUP(E128,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
-      </c>
-      <c r="N128" t="str">
-        <f>LOOKUP(F128,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s">
-        <v>24</v>
-      </c>
-      <c r="D129" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" t="s">
-        <v>23</v>
-      </c>
-      <c r="F129" t="s">
-        <v>61</v>
-      </c>
-      <c r="G129" t="s">
-        <v>3</v>
-      </c>
-      <c r="H129" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C20-D0-L30-E1-F0-I0-R0-</v>
-      </c>
-      <c r="I129" t="str">
-        <f>LOOKUP(A129,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J129" t="str">
-        <f>LOOKUP(B129,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K129" t="str">
-        <f>LOOKUP(C129,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L129" t="str">
-        <f>LOOKUP(D129,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M129" t="str">
-        <f>LOOKUP(E129,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
-      </c>
-      <c r="N129" t="str">
-        <f>LOOKUP(F129,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s">
-        <v>19</v>
-      </c>
-      <c r="D130" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" t="s">
-        <v>61</v>
-      </c>
-      <c r="G130" t="s">
-        <v>3</v>
-      </c>
-      <c r="H130" t="str">
-        <f t="shared" si="1"/>
-        <v>A31-C20-D10-L30-E2-F0-I0-R0-</v>
-      </c>
-      <c r="I130" t="str">
-        <f>LOOKUP(A130,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J130" t="str">
-        <f>LOOKUP(B130,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K130" t="str">
-        <f>LOOKUP(C130,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
-      </c>
-      <c r="L130" t="str">
-        <f>LOOKUP(D130,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M130" t="str">
-        <f>LOOKUP(E130,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N130" t="str">
-        <f>LOOKUP(F130,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" t="s">
-        <v>17</v>
-      </c>
-      <c r="C131" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" t="s">
-        <v>4</v>
-      </c>
-      <c r="F131" t="s">
-        <v>61</v>
-      </c>
-      <c r="G131" t="s">
-        <v>3</v>
-      </c>
-      <c r="H131" t="str">
-        <f t="shared" ref="H131:H169" si="2">CONCATENATE(A131,"-",B131,"-",C131,"-",D131,"-",E131,"-",F131,"-",G131,"-")</f>
-        <v>A31-C0-D20-L30-E2-F0-I0-R0-</v>
-      </c>
-      <c r="I131" t="str">
-        <f>LOOKUP(A131,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J131" t="str">
-        <f>LOOKUP(B131,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K131" t="str">
-        <f>LOOKUP(C131,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
-      </c>
-      <c r="L131" t="str">
-        <f>LOOKUP(D131,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M131" t="str">
-        <f>LOOKUP(E131,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N131" t="str">
-        <f>LOOKUP(F131,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" t="s">
-        <v>4</v>
-      </c>
-      <c r="F132" t="s">
-        <v>61</v>
-      </c>
-      <c r="G132" t="s">
-        <v>3</v>
-      </c>
-      <c r="H132" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C0-D20-L31-E2-F0-I0-R0-</v>
-      </c>
-      <c r="I132" t="str">
-        <f>LOOKUP(A132,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J132" t="str">
-        <f>LOOKUP(B132,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K132" t="str">
-        <f>LOOKUP(C132,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
-      </c>
-      <c r="L132" t="str">
-        <f>LOOKUP(D132,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M132" t="str">
-        <f>LOOKUP(E132,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N132" t="str">
-        <f>LOOKUP(F132,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" t="s">
-        <v>4</v>
-      </c>
-      <c r="F133" t="s">
-        <v>61</v>
-      </c>
-      <c r="G133" t="s">
-        <v>3</v>
-      </c>
-      <c r="H133" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C10-D20-L30-E2-F0-I0-R0-</v>
-      </c>
-      <c r="I133" t="str">
-        <f>LOOKUP(A133,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J133" t="str">
-        <f>LOOKUP(B133,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
-      </c>
-      <c r="K133" t="str">
-        <f>LOOKUP(C133,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
-      </c>
-      <c r="L133" t="str">
-        <f>LOOKUP(D133,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M133" t="str">
-        <f>LOOKUP(E133,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N133" t="str">
-        <f>LOOKUP(F133,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" t="s">
-        <v>15</v>
-      </c>
-      <c r="C134" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134" t="s">
-        <v>4</v>
-      </c>
-      <c r="F134" t="s">
-        <v>61</v>
-      </c>
-      <c r="G134" t="s">
-        <v>3</v>
-      </c>
-      <c r="H134" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C10-D20-L31-E2-F0-I0-R0-</v>
-      </c>
-      <c r="I134" t="str">
-        <f>LOOKUP(A134,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J134" t="str">
-        <f>LOOKUP(B134,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
-      </c>
-      <c r="K134" t="str">
-        <f>LOOKUP(C134,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
-      </c>
-      <c r="L134" t="str">
-        <f>LOOKUP(D134,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M134" t="str">
-        <f>LOOKUP(E134,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N134" t="str">
-        <f>LOOKUP(F134,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" t="s">
-        <v>61</v>
-      </c>
-      <c r="G135" t="s">
-        <v>3</v>
-      </c>
-      <c r="H135" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C20-D20-L30-E2-F0-I0-R0-</v>
-      </c>
-      <c r="I135" t="str">
-        <f>LOOKUP(A135,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J135" t="str">
-        <f>LOOKUP(B135,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K135" t="str">
-        <f>LOOKUP(C135,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
-      </c>
-      <c r="L135" t="str">
-        <f>LOOKUP(D135,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M135" t="str">
-        <f>LOOKUP(E135,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N135" t="str">
-        <f>LOOKUP(F135,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s">
-        <v>24</v>
-      </c>
-      <c r="D136" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" t="s">
-        <v>27</v>
-      </c>
-      <c r="F136" t="s">
-        <v>62</v>
-      </c>
-      <c r="G136" t="s">
-        <v>3</v>
-      </c>
-      <c r="H136" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C20-D0-L30-E0-F1-I0-R0-</v>
-      </c>
-      <c r="I136" t="str">
-        <f>LOOKUP(A136,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J136" t="str">
-        <f>LOOKUP(B136,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K136" t="str">
-        <f>LOOKUP(C136,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L136" t="str">
-        <f>LOOKUP(D136,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M136" t="str">
-        <f>LOOKUP(E136,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
-      </c>
-      <c r="N136" t="str">
-        <f>LOOKUP(F136,descriptions!$C:$C,descriptions!$D:$D)</f>
         <v>contrast</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" t="s">
-        <v>17</v>
-      </c>
-      <c r="C137" t="s">
-        <v>24</v>
-      </c>
-      <c r="D137" t="s">
-        <v>21</v>
-      </c>
-      <c r="E137" t="s">
-        <v>27</v>
-      </c>
-      <c r="F137" t="s">
-        <v>62</v>
-      </c>
-      <c r="G137" t="s">
-        <v>3</v>
-      </c>
-      <c r="H137" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C0-D0-L10-E0-F1-I0-R0-</v>
-      </c>
-      <c r="I137" t="str">
-        <f>LOOKUP(A137,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J137" t="str">
-        <f>LOOKUP(B137,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K137" t="str">
-        <f>LOOKUP(C137,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L137" t="str">
-        <f>LOOKUP(D137,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
-      </c>
-      <c r="M137" t="str">
-        <f>LOOKUP(E137,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
-      </c>
-      <c r="N137" t="str">
-        <f>LOOKUP(F137,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138" t="s">
-        <v>24</v>
-      </c>
-      <c r="D138" t="s">
-        <v>10</v>
-      </c>
-      <c r="E138" t="s">
-        <v>27</v>
-      </c>
-      <c r="F138" t="s">
-        <v>62</v>
-      </c>
-      <c r="G138" t="s">
-        <v>3</v>
-      </c>
-      <c r="H138" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C0-D0-L30-E0-F1-I0-R0-</v>
-      </c>
-      <c r="I138" t="str">
-        <f>LOOKUP(A138,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J138" t="str">
-        <f>LOOKUP(B138,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K138" t="str">
-        <f>LOOKUP(C138,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L138" t="str">
-        <f>LOOKUP(D138,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M138" t="str">
-        <f>LOOKUP(E138,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
-      </c>
-      <c r="N138" t="str">
-        <f>LOOKUP(F138,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" t="s">
-        <v>17</v>
-      </c>
-      <c r="C139" t="s">
-        <v>24</v>
-      </c>
-      <c r="D139" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" t="s">
-        <v>27</v>
-      </c>
-      <c r="F139" t="s">
-        <v>62</v>
-      </c>
-      <c r="G139" t="s">
-        <v>3</v>
-      </c>
-      <c r="H139" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C0-D0-L31-E0-F1-I0-R0-</v>
-      </c>
-      <c r="I139" t="str">
-        <f>LOOKUP(A139,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J139" t="str">
-        <f>LOOKUP(B139,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K139" t="str">
-        <f>LOOKUP(C139,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L139" t="str">
-        <f>LOOKUP(D139,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M139" t="str">
-        <f>LOOKUP(E139,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
-      </c>
-      <c r="N139" t="str">
-        <f>LOOKUP(F139,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" t="s">
-        <v>15</v>
-      </c>
-      <c r="C140" t="s">
-        <v>24</v>
-      </c>
-      <c r="D140" t="s">
-        <v>21</v>
-      </c>
-      <c r="E140" t="s">
-        <v>27</v>
-      </c>
-      <c r="F140" t="s">
-        <v>62</v>
-      </c>
-      <c r="G140" t="s">
-        <v>3</v>
-      </c>
-      <c r="H140" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C10-D0-L10-E0-F1-I0-R0-</v>
-      </c>
-      <c r="I140" t="str">
-        <f>LOOKUP(A140,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J140" t="str">
-        <f>LOOKUP(B140,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
-      </c>
-      <c r="K140" t="str">
-        <f>LOOKUP(C140,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L140" t="str">
-        <f>LOOKUP(D140,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
-      </c>
-      <c r="M140" t="str">
-        <f>LOOKUP(E140,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
-      </c>
-      <c r="N140" t="str">
-        <f>LOOKUP(F140,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" t="s">
-        <v>15</v>
-      </c>
-      <c r="C141" t="s">
-        <v>24</v>
-      </c>
-      <c r="D141" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" t="s">
-        <v>27</v>
-      </c>
-      <c r="F141" t="s">
-        <v>62</v>
-      </c>
-      <c r="G141" t="s">
-        <v>3</v>
-      </c>
-      <c r="H141" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C10-D0-L30-E0-F1-I0-R0-</v>
-      </c>
-      <c r="I141" t="str">
-        <f>LOOKUP(A141,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J141" t="str">
-        <f>LOOKUP(B141,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
-      </c>
-      <c r="K141" t="str">
-        <f>LOOKUP(C141,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L141" t="str">
-        <f>LOOKUP(D141,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M141" t="str">
-        <f>LOOKUP(E141,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
-      </c>
-      <c r="N141" t="str">
-        <f>LOOKUP(F141,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" t="s">
-        <v>5</v>
-      </c>
-      <c r="E142" t="s">
-        <v>27</v>
-      </c>
-      <c r="F142" t="s">
-        <v>62</v>
-      </c>
-      <c r="G142" t="s">
-        <v>3</v>
-      </c>
-      <c r="H142" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C10-D0-L31-E0-F1-I0-R0-</v>
-      </c>
-      <c r="I142" t="str">
-        <f>LOOKUP(A142,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J142" t="str">
-        <f>LOOKUP(B142,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
-      </c>
-      <c r="K142" t="str">
-        <f>LOOKUP(C142,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L142" t="str">
-        <f>LOOKUP(D142,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M142" t="str">
-        <f>LOOKUP(E142,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
-      </c>
-      <c r="N142" t="str">
-        <f>LOOKUP(F142,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>8</v>
-      </c>
-      <c r="B143" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" t="s">
-        <v>24</v>
-      </c>
-      <c r="D143" t="s">
-        <v>10</v>
-      </c>
-      <c r="E143" t="s">
-        <v>23</v>
-      </c>
-      <c r="F143" t="s">
-        <v>62</v>
-      </c>
-      <c r="G143" t="s">
-        <v>3</v>
-      </c>
-      <c r="H143" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C20-D0-L30-E1-F1-I0-R0-</v>
-      </c>
-      <c r="I143" t="str">
-        <f>LOOKUP(A143,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J143" t="str">
-        <f>LOOKUP(B143,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K143" t="str">
-        <f>LOOKUP(C143,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L143" t="str">
-        <f>LOOKUP(D143,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M143" t="str">
-        <f>LOOKUP(E143,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
-      </c>
-      <c r="N143" t="str">
-        <f>LOOKUP(F143,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>8</v>
-      </c>
-      <c r="B144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" t="s">
-        <v>10</v>
-      </c>
-      <c r="E144" t="s">
-        <v>4</v>
-      </c>
-      <c r="F144" t="s">
-        <v>62</v>
-      </c>
-      <c r="G144" t="s">
-        <v>3</v>
-      </c>
-      <c r="H144" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C20-D10-L30-E2-F1-I0-R0-</v>
-      </c>
-      <c r="I144" t="str">
-        <f>LOOKUP(A144,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J144" t="str">
-        <f>LOOKUP(B144,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K144" t="str">
-        <f>LOOKUP(C144,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
-      </c>
-      <c r="L144" t="str">
-        <f>LOOKUP(D144,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M144" t="str">
-        <f>LOOKUP(E144,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N144" t="str">
-        <f>LOOKUP(F144,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" t="s">
-        <v>4</v>
-      </c>
-      <c r="F145" t="s">
-        <v>62</v>
-      </c>
-      <c r="G145" t="s">
-        <v>3</v>
-      </c>
-      <c r="H145" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C20-D20-L30-E2-F1-I0-R0-</v>
-      </c>
-      <c r="I145" t="str">
-        <f>LOOKUP(A145,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J145" t="str">
-        <f>LOOKUP(B145,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K145" t="str">
-        <f>LOOKUP(C145,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
-      </c>
-      <c r="L145" t="str">
-        <f>LOOKUP(D145,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M145" t="str">
-        <f>LOOKUP(E145,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N145" t="str">
-        <f>LOOKUP(F145,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>8</v>
-      </c>
-      <c r="B146" t="s">
-        <v>17</v>
-      </c>
-      <c r="C146" t="s">
-        <v>24</v>
-      </c>
-      <c r="D146" t="s">
-        <v>21</v>
-      </c>
-      <c r="E146" t="s">
-        <v>23</v>
-      </c>
-      <c r="F146" t="s">
-        <v>62</v>
-      </c>
-      <c r="G146" t="s">
-        <v>3</v>
-      </c>
-      <c r="H146" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C0-D0-L10-E1-F1-I0-R0-</v>
-      </c>
-      <c r="I146" t="str">
-        <f>LOOKUP(A146,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J146" t="str">
-        <f>LOOKUP(B146,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K146" t="str">
-        <f>LOOKUP(C146,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L146" t="str">
-        <f>LOOKUP(D146,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
-      </c>
-      <c r="M146" t="str">
-        <f>LOOKUP(E146,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
-      </c>
-      <c r="N146" t="str">
-        <f>LOOKUP(F146,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>8</v>
-      </c>
-      <c r="B147" t="s">
-        <v>17</v>
-      </c>
-      <c r="C147" t="s">
-        <v>24</v>
-      </c>
-      <c r="D147" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" t="s">
-        <v>23</v>
-      </c>
-      <c r="F147" t="s">
-        <v>62</v>
-      </c>
-      <c r="G147" t="s">
-        <v>3</v>
-      </c>
-      <c r="H147" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C0-D0-L30-E1-F1-I0-R0-</v>
-      </c>
-      <c r="I147" t="str">
-        <f>LOOKUP(A147,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J147" t="str">
-        <f>LOOKUP(B147,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K147" t="str">
-        <f>LOOKUP(C147,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L147" t="str">
-        <f>LOOKUP(D147,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M147" t="str">
-        <f>LOOKUP(E147,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
-      </c>
-      <c r="N147" t="str">
-        <f>LOOKUP(F147,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>8</v>
-      </c>
-      <c r="B148" t="s">
-        <v>17</v>
-      </c>
-      <c r="C148" t="s">
-        <v>24</v>
-      </c>
-      <c r="D148" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148" t="s">
-        <v>23</v>
-      </c>
-      <c r="F148" t="s">
-        <v>62</v>
-      </c>
-      <c r="G148" t="s">
-        <v>3</v>
-      </c>
-      <c r="H148" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C0-D0-L31-E1-F1-I0-R0-</v>
-      </c>
-      <c r="I148" t="str">
-        <f>LOOKUP(A148,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J148" t="str">
-        <f>LOOKUP(B148,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K148" t="str">
-        <f>LOOKUP(C148,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L148" t="str">
-        <f>LOOKUP(D148,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M148" t="str">
-        <f>LOOKUP(E148,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
-      </c>
-      <c r="N148" t="str">
-        <f>LOOKUP(F148,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>8</v>
-      </c>
-      <c r="B149" t="s">
-        <v>15</v>
-      </c>
-      <c r="C149" t="s">
-        <v>24</v>
-      </c>
-      <c r="D149" t="s">
-        <v>21</v>
-      </c>
-      <c r="E149" t="s">
-        <v>23</v>
-      </c>
-      <c r="F149" t="s">
-        <v>62</v>
-      </c>
-      <c r="G149" t="s">
-        <v>3</v>
-      </c>
-      <c r="H149" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C10-D0-L10-E1-F1-I0-R0-</v>
-      </c>
-      <c r="I149" t="str">
-        <f>LOOKUP(A149,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J149" t="str">
-        <f>LOOKUP(B149,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
-      </c>
-      <c r="K149" t="str">
-        <f>LOOKUP(C149,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L149" t="str">
-        <f>LOOKUP(D149,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
-      </c>
-      <c r="M149" t="str">
-        <f>LOOKUP(E149,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
-      </c>
-      <c r="N149" t="str">
-        <f>LOOKUP(F149,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>8</v>
-      </c>
-      <c r="B150" t="s">
-        <v>15</v>
-      </c>
-      <c r="C150" t="s">
-        <v>24</v>
-      </c>
-      <c r="D150" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" t="s">
-        <v>23</v>
-      </c>
-      <c r="F150" t="s">
-        <v>62</v>
-      </c>
-      <c r="G150" t="s">
-        <v>3</v>
-      </c>
-      <c r="H150" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C10-D0-L30-E1-F1-I0-R0-</v>
-      </c>
-      <c r="I150" t="str">
-        <f>LOOKUP(A150,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J150" t="str">
-        <f>LOOKUP(B150,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
-      </c>
-      <c r="K150" t="str">
-        <f>LOOKUP(C150,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L150" t="str">
-        <f>LOOKUP(D150,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M150" t="str">
-        <f>LOOKUP(E150,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
-      </c>
-      <c r="N150" t="str">
-        <f>LOOKUP(F150,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>8</v>
-      </c>
-      <c r="B151" t="s">
-        <v>15</v>
-      </c>
-      <c r="C151" t="s">
-        <v>24</v>
-      </c>
-      <c r="D151" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151" t="s">
-        <v>23</v>
-      </c>
-      <c r="F151" t="s">
-        <v>62</v>
-      </c>
-      <c r="G151" t="s">
-        <v>3</v>
-      </c>
-      <c r="H151" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C10-D0-L31-E1-F1-I0-R0-</v>
-      </c>
-      <c r="I151" t="str">
-        <f>LOOKUP(A151,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J151" t="str">
-        <f>LOOKUP(B151,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
-      </c>
-      <c r="K151" t="str">
-        <f>LOOKUP(C151,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L151" t="str">
-        <f>LOOKUP(D151,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M151" t="str">
-        <f>LOOKUP(E151,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
-      </c>
-      <c r="N151" t="str">
-        <f>LOOKUP(F151,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>8</v>
-      </c>
-      <c r="B152" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" t="s">
-        <v>24</v>
-      </c>
-      <c r="D152" t="s">
-        <v>5</v>
-      </c>
-      <c r="E152" t="s">
-        <v>27</v>
-      </c>
-      <c r="F152" t="s">
-        <v>61</v>
-      </c>
-      <c r="G152" t="s">
-        <v>3</v>
-      </c>
-      <c r="H152" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C20-D0-L31-E0-F0-I0-R0-</v>
-      </c>
-      <c r="I152" t="str">
-        <f>LOOKUP(A152,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J152" t="str">
-        <f>LOOKUP(B152,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K152" t="str">
-        <f>LOOKUP(C152,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L152" t="str">
-        <f>LOOKUP(D152,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M152" t="str">
-        <f>LOOKUP(E152,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
-      </c>
-      <c r="N152" t="str">
-        <f>LOOKUP(F152,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" t="s">
-        <v>24</v>
-      </c>
-      <c r="D153" t="s">
-        <v>5</v>
-      </c>
-      <c r="E153" t="s">
-        <v>23</v>
-      </c>
-      <c r="F153" t="s">
-        <v>61</v>
-      </c>
-      <c r="G153" t="s">
-        <v>3</v>
-      </c>
-      <c r="H153" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C20-D0-L31-E1-F0-I0-R0-</v>
-      </c>
-      <c r="I153" t="str">
-        <f>LOOKUP(A153,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J153" t="str">
-        <f>LOOKUP(B153,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K153" t="str">
-        <f>LOOKUP(C153,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L153" t="str">
-        <f>LOOKUP(D153,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M153" t="str">
-        <f>LOOKUP(E153,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
-      </c>
-      <c r="N153" t="str">
-        <f>LOOKUP(F153,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" t="s">
-        <v>17</v>
-      </c>
-      <c r="C154" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" t="s">
-        <v>10</v>
-      </c>
-      <c r="E154" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" t="s">
-        <v>62</v>
-      </c>
-      <c r="G154" t="s">
-        <v>3</v>
-      </c>
-      <c r="H154" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C0-D10-L30-E2-F1-I0-R0-</v>
-      </c>
-      <c r="I154" t="str">
-        <f>LOOKUP(A154,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J154" t="str">
-        <f>LOOKUP(B154,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K154" t="str">
-        <f>LOOKUP(C154,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
-      </c>
-      <c r="L154" t="str">
-        <f>LOOKUP(D154,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M154" t="str">
-        <f>LOOKUP(E154,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N154" t="str">
-        <f>LOOKUP(F154,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>8</v>
-      </c>
-      <c r="B155" t="s">
-        <v>15</v>
-      </c>
-      <c r="C155" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" t="s">
-        <v>10</v>
-      </c>
-      <c r="E155" t="s">
-        <v>4</v>
-      </c>
-      <c r="F155" t="s">
-        <v>62</v>
-      </c>
-      <c r="G155" t="s">
-        <v>3</v>
-      </c>
-      <c r="H155" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C10-D10-L30-E2-F1-I0-R0-</v>
-      </c>
-      <c r="I155" t="str">
-        <f>LOOKUP(A155,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J155" t="str">
-        <f>LOOKUP(B155,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
-      </c>
-      <c r="K155" t="str">
-        <f>LOOKUP(C155,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
-      </c>
-      <c r="L155" t="str">
-        <f>LOOKUP(D155,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M155" t="str">
-        <f>LOOKUP(E155,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N155" t="str">
-        <f>LOOKUP(F155,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>8</v>
-      </c>
-      <c r="B156" t="s">
-        <v>17</v>
-      </c>
-      <c r="C156" t="s">
-        <v>19</v>
-      </c>
-      <c r="D156" t="s">
-        <v>5</v>
-      </c>
-      <c r="E156" t="s">
-        <v>4</v>
-      </c>
-      <c r="F156" t="s">
-        <v>61</v>
-      </c>
-      <c r="G156" t="s">
-        <v>3</v>
-      </c>
-      <c r="H156" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C0-D10-L31-E2-F0-I0-R0-</v>
-      </c>
-      <c r="I156" t="str">
-        <f>LOOKUP(A156,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J156" t="str">
-        <f>LOOKUP(B156,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K156" t="str">
-        <f>LOOKUP(C156,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
-      </c>
-      <c r="L156" t="str">
-        <f>LOOKUP(D156,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M156" t="str">
-        <f>LOOKUP(E156,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N156" t="str">
-        <f>LOOKUP(F156,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>8</v>
-      </c>
-      <c r="B157" t="s">
-        <v>15</v>
-      </c>
-      <c r="C157" t="s">
-        <v>19</v>
-      </c>
-      <c r="D157" t="s">
-        <v>5</v>
-      </c>
-      <c r="E157" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" t="s">
-        <v>61</v>
-      </c>
-      <c r="G157" t="s">
-        <v>3</v>
-      </c>
-      <c r="H157" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C10-D10-L31-E2-F0-I0-R0-</v>
-      </c>
-      <c r="I157" t="str">
-        <f>LOOKUP(A157,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J157" t="str">
-        <f>LOOKUP(B157,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
-      </c>
-      <c r="K157" t="str">
-        <f>LOOKUP(C157,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
-      </c>
-      <c r="L157" t="str">
-        <f>LOOKUP(D157,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M157" t="str">
-        <f>LOOKUP(E157,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N157" t="str">
-        <f>LOOKUP(F157,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>8</v>
-      </c>
-      <c r="B158" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158" t="s">
-        <v>5</v>
-      </c>
-      <c r="E158" t="s">
-        <v>4</v>
-      </c>
-      <c r="F158" t="s">
-        <v>61</v>
-      </c>
-      <c r="G158" t="s">
-        <v>3</v>
-      </c>
-      <c r="H158" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C20-D10-L31-E2-F0-I0-R0-</v>
-      </c>
-      <c r="I158" t="str">
-        <f>LOOKUP(A158,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J158" t="str">
-        <f>LOOKUP(B158,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K158" t="str">
-        <f>LOOKUP(C158,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
-      </c>
-      <c r="L158" t="str">
-        <f>LOOKUP(D158,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M158" t="str">
-        <f>LOOKUP(E158,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N158" t="str">
-        <f>LOOKUP(F158,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>8</v>
-      </c>
-      <c r="B159" t="s">
-        <v>17</v>
-      </c>
-      <c r="C159" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" t="s">
-        <v>5</v>
-      </c>
-      <c r="E159" t="s">
-        <v>4</v>
-      </c>
-      <c r="F159" t="s">
-        <v>62</v>
-      </c>
-      <c r="G159" t="s">
-        <v>3</v>
-      </c>
-      <c r="H159" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C0-D10-L31-E2-F1-I0-R0-</v>
-      </c>
-      <c r="I159" t="str">
-        <f>LOOKUP(A159,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J159" t="str">
-        <f>LOOKUP(B159,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K159" t="str">
-        <f>LOOKUP(C159,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
-      </c>
-      <c r="L159" t="str">
-        <f>LOOKUP(D159,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M159" t="str">
-        <f>LOOKUP(E159,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N159" t="str">
-        <f>LOOKUP(F159,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>8</v>
-      </c>
-      <c r="B160" t="s">
-        <v>15</v>
-      </c>
-      <c r="C160" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" t="s">
-        <v>5</v>
-      </c>
-      <c r="E160" t="s">
-        <v>4</v>
-      </c>
-      <c r="F160" t="s">
-        <v>62</v>
-      </c>
-      <c r="G160" t="s">
-        <v>3</v>
-      </c>
-      <c r="H160" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C10-D10-L31-E2-F1-I0-R0-</v>
-      </c>
-      <c r="I160" t="str">
-        <f>LOOKUP(A160,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J160" t="str">
-        <f>LOOKUP(B160,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
-      </c>
-      <c r="K160" t="str">
-        <f>LOOKUP(C160,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
-      </c>
-      <c r="L160" t="str">
-        <f>LOOKUP(D160,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M160" t="str">
-        <f>LOOKUP(E160,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N160" t="str">
-        <f>LOOKUP(F160,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>8</v>
-      </c>
-      <c r="B161" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" t="s">
-        <v>6</v>
-      </c>
-      <c r="D161" t="s">
-        <v>5</v>
-      </c>
-      <c r="E161" t="s">
-        <v>4</v>
-      </c>
-      <c r="F161" t="s">
-        <v>61</v>
-      </c>
-      <c r="G161" t="s">
-        <v>3</v>
-      </c>
-      <c r="H161" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C20-D20-L31-E2-F0-I0-R0-</v>
-      </c>
-      <c r="I161" t="str">
-        <f>LOOKUP(A161,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J161" t="str">
-        <f>LOOKUP(B161,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K161" t="str">
-        <f>LOOKUP(C161,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
-      </c>
-      <c r="L161" t="str">
-        <f>LOOKUP(D161,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M161" t="str">
-        <f>LOOKUP(E161,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N161" t="str">
-        <f>LOOKUP(F161,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>8</v>
-      </c>
-      <c r="B162" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" t="s">
-        <v>24</v>
-      </c>
-      <c r="D162" t="s">
-        <v>5</v>
-      </c>
-      <c r="E162" t="s">
-        <v>27</v>
-      </c>
-      <c r="F162" t="s">
-        <v>62</v>
-      </c>
-      <c r="G162" t="s">
-        <v>3</v>
-      </c>
-      <c r="H162" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C20-D0-L31-E0-F1-I0-R0-</v>
-      </c>
-      <c r="I162" t="str">
-        <f>LOOKUP(A162,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J162" t="str">
-        <f>LOOKUP(B162,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K162" t="str">
-        <f>LOOKUP(C162,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L162" t="str">
-        <f>LOOKUP(D162,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M162" t="str">
-        <f>LOOKUP(E162,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
-      </c>
-      <c r="N162" t="str">
-        <f>LOOKUP(F162,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>8</v>
-      </c>
-      <c r="B163" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" t="s">
-        <v>24</v>
-      </c>
-      <c r="D163" t="s">
-        <v>5</v>
-      </c>
-      <c r="E163" t="s">
-        <v>23</v>
-      </c>
-      <c r="F163" t="s">
-        <v>62</v>
-      </c>
-      <c r="G163" t="s">
-        <v>3</v>
-      </c>
-      <c r="H163" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C20-D0-L31-E1-F1-I0-R0-</v>
-      </c>
-      <c r="I163" t="str">
-        <f>LOOKUP(A163,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J163" t="str">
-        <f>LOOKUP(B163,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K163" t="str">
-        <f>LOOKUP(C163,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L163" t="str">
-        <f>LOOKUP(D163,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M163" t="str">
-        <f>LOOKUP(E163,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
-      </c>
-      <c r="N163" t="str">
-        <f>LOOKUP(F163,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>8</v>
-      </c>
-      <c r="B164" t="s">
-        <v>17</v>
-      </c>
-      <c r="C164" t="s">
-        <v>6</v>
-      </c>
-      <c r="D164" t="s">
-        <v>10</v>
-      </c>
-      <c r="E164" t="s">
-        <v>4</v>
-      </c>
-      <c r="F164" t="s">
-        <v>62</v>
-      </c>
-      <c r="G164" t="s">
-        <v>3</v>
-      </c>
-      <c r="H164" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C0-D20-L30-E2-F1-I0-R0-</v>
-      </c>
-      <c r="I164" t="str">
-        <f>LOOKUP(A164,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J164" t="str">
-        <f>LOOKUP(B164,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K164" t="str">
-        <f>LOOKUP(C164,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
-      </c>
-      <c r="L164" t="str">
-        <f>LOOKUP(D164,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M164" t="str">
-        <f>LOOKUP(E164,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N164" t="str">
-        <f>LOOKUP(F164,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>8</v>
-      </c>
-      <c r="B165" t="s">
-        <v>17</v>
-      </c>
-      <c r="C165" t="s">
-        <v>6</v>
-      </c>
-      <c r="D165" t="s">
-        <v>5</v>
-      </c>
-      <c r="E165" t="s">
-        <v>4</v>
-      </c>
-      <c r="F165" t="s">
-        <v>62</v>
-      </c>
-      <c r="G165" t="s">
-        <v>3</v>
-      </c>
-      <c r="H165" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C0-D20-L31-E2-F1-I0-R0-</v>
-      </c>
-      <c r="I165" t="str">
-        <f>LOOKUP(A165,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J165" t="str">
-        <f>LOOKUP(B165,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K165" t="str">
-        <f>LOOKUP(C165,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
-      </c>
-      <c r="L165" t="str">
-        <f>LOOKUP(D165,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M165" t="str">
-        <f>LOOKUP(E165,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N165" t="str">
-        <f>LOOKUP(F165,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>8</v>
-      </c>
-      <c r="B166" t="s">
-        <v>15</v>
-      </c>
-      <c r="C166" t="s">
-        <v>6</v>
-      </c>
-      <c r="D166" t="s">
-        <v>10</v>
-      </c>
-      <c r="E166" t="s">
-        <v>4</v>
-      </c>
-      <c r="F166" t="s">
-        <v>62</v>
-      </c>
-      <c r="G166" t="s">
-        <v>3</v>
-      </c>
-      <c r="H166" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C10-D20-L30-E2-F1-I0-R0-</v>
-      </c>
-      <c r="I166" t="str">
-        <f>LOOKUP(A166,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J166" t="str">
-        <f>LOOKUP(B166,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
-      </c>
-      <c r="K166" t="str">
-        <f>LOOKUP(C166,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
-      </c>
-      <c r="L166" t="str">
-        <f>LOOKUP(D166,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
-      </c>
-      <c r="M166" t="str">
-        <f>LOOKUP(E166,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N166" t="str">
-        <f>LOOKUP(F166,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>8</v>
-      </c>
-      <c r="B167" t="s">
-        <v>15</v>
-      </c>
-      <c r="C167" t="s">
-        <v>6</v>
-      </c>
-      <c r="D167" t="s">
-        <v>5</v>
-      </c>
-      <c r="E167" t="s">
-        <v>4</v>
-      </c>
-      <c r="F167" t="s">
-        <v>62</v>
-      </c>
-      <c r="G167" t="s">
-        <v>3</v>
-      </c>
-      <c r="H167" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C10-D20-L31-E2-F1-I0-R0-</v>
-      </c>
-      <c r="I167" t="str">
-        <f>LOOKUP(A167,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J167" t="str">
-        <f>LOOKUP(B167,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish calcomp</v>
-      </c>
-      <c r="K167" t="str">
-        <f>LOOKUP(C167,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
-      </c>
-      <c r="L167" t="str">
-        <f>LOOKUP(D167,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M167" t="str">
-        <f>LOOKUP(E167,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N167" t="str">
-        <f>LOOKUP(F167,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>8</v>
-      </c>
-      <c r="B168" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" t="s">
-        <v>19</v>
-      </c>
-      <c r="D168" t="s">
-        <v>5</v>
-      </c>
-      <c r="E168" t="s">
-        <v>4</v>
-      </c>
-      <c r="F168" t="s">
-        <v>62</v>
-      </c>
-      <c r="G168" t="s">
-        <v>3</v>
-      </c>
-      <c r="H168" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C20-D10-L31-E2-F1-I0-R0-</v>
-      </c>
-      <c r="I168" t="str">
-        <f>LOOKUP(A168,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J168" t="str">
-        <f>LOOKUP(B168,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K168" t="str">
-        <f>LOOKUP(C168,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
-      </c>
-      <c r="L168" t="str">
-        <f>LOOKUP(D168,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M168" t="str">
-        <f>LOOKUP(E168,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N168" t="str">
-        <f>LOOKUP(F168,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>8</v>
-      </c>
-      <c r="B169" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" t="s">
-        <v>6</v>
-      </c>
-      <c r="D169" t="s">
-        <v>5</v>
-      </c>
-      <c r="E169" t="s">
-        <v>4</v>
-      </c>
-      <c r="F169" t="s">
-        <v>62</v>
-      </c>
-      <c r="G169" t="s">
-        <v>3</v>
-      </c>
-      <c r="H169" t="str">
-        <f t="shared" si="2"/>
-        <v>A31-C20-D20-L31-E2-F1-I0-R0-</v>
-      </c>
-      <c r="I169" t="str">
-        <f>LOOKUP(A169,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv age</v>
-      </c>
-      <c r="J169" t="str">
-        <f>LOOKUP(B169,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K169" t="str">
-        <f>LOOKUP(C169,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
-      </c>
-      <c r="L169" t="str">
-        <f>LOOKUP(D169,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M169" t="str">
-        <f>LOOKUP(E169,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N169" t="str">
-        <f>LOOKUP(F169,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N169"/>
+  <autoFilter ref="A1:N127"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/lib/scenarios.xlsx
+++ b/lib/scenarios.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ss\estgrowth\lib\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenarios!$A$1:$N$127</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -33,9 +28,6 @@
   </si>
   <si>
     <t>surv calcomp</t>
-  </si>
-  <si>
-    <t>I0-R0</t>
   </si>
   <si>
     <t>E2</t>
@@ -229,6 +221,9 @@
   <si>
     <t>increase</t>
   </si>
+  <si>
+    <t>I0</t>
+  </si>
 </sst>
 </file>
 
@@ -335,7 +330,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,7 +365,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,8 +578,8 @@
   <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,73 +595,73 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(A2,"-",B2,"-",C2,"-",D2,"-",E2,"-",F2,"-",G2,"-")</f>
-        <v>A0-C0-D0-L10-E0-F0-I0-R0-</v>
+        <v>A0-C0-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I2" t="str">
         <f>LOOKUP(A2,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -695,29 +690,29 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H58" si="0">CONCATENATE(A3,"-",B3,"-",C3,"-",D3,"-",E3,"-",F3,"-",G3,"-")</f>
-        <v>A0-C0-D0-L30-E0-F0-I0-R0-</v>
+        <v>A0-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I3" t="str">
         <f>LOOKUP(A3,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -746,29 +741,29 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L31-E0-F0-I0-R0-</v>
+        <v>A0-C0-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I4" t="str">
         <f>LOOKUP(A4,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -797,29 +792,29 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L10-E1-F0-I0-R0-</v>
+        <v>A0-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I5" t="str">
         <f>LOOKUP(A5,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -848,29 +843,29 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L30-E1-F0-I0-R0-</v>
+        <v>A0-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I6" t="str">
         <f>LOOKUP(A6,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -899,29 +894,29 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L31-E1-F0-I0-R0-</v>
+        <v>A0-C0-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I7" t="str">
         <f>LOOKUP(A7,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -950,29 +945,29 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L10-E0-F1-I0-R0-</v>
+        <v>A0-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I8" t="str">
         <f>LOOKUP(A8,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1001,29 +996,29 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L30-E0-F1-I0-R0-</v>
+        <v>A0-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I9" t="str">
         <f>LOOKUP(A9,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1052,29 +1047,29 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L31-E0-F1-I0-R0-</v>
+        <v>A0-C0-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I10" t="str">
         <f>LOOKUP(A10,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1103,29 +1098,29 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L10-E1-F1-I0-R0-</v>
+        <v>A0-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I11" t="str">
         <f>LOOKUP(A11,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1154,29 +1149,29 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L30-E1-F1-I0-R0-</v>
+        <v>A0-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I12" t="str">
         <f>LOOKUP(A12,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1205,29 +1200,29 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L31-E1-F1-I0-R0-</v>
+        <v>A0-C0-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I13" t="str">
         <f>LOOKUP(A13,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1256,29 +1251,29 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E0-F0-I0-R0-</v>
+        <v>A10-C0-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I14" t="str">
         <f>LOOKUP(A14,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1307,29 +1302,29 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L30-E0-F0-I0-R0-</v>
+        <v>A10-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I15" t="str">
         <f>LOOKUP(A15,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1358,29 +1353,29 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L31-E0-F0-I0-R0-</v>
+        <v>A10-C0-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I16" t="str">
         <f>LOOKUP(A16,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1409,29 +1404,29 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E1-F0-I0-R0-</v>
+        <v>A10-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I17" t="str">
         <f>LOOKUP(A17,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1460,29 +1455,29 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L30-E1-F0-I0-R0-</v>
+        <v>A10-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I18" t="str">
         <f>LOOKUP(A18,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1511,29 +1506,29 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L31-E1-F0-I0-R0-</v>
+        <v>A10-C0-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I19" t="str">
         <f>LOOKUP(A19,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1562,29 +1557,29 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E0-F1-I0-R0-</v>
+        <v>A10-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I20" t="str">
         <f>LOOKUP(A20,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1613,29 +1608,29 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L30-E0-F1-I0-R0-</v>
+        <v>A10-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I21" t="str">
         <f>LOOKUP(A21,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1664,29 +1659,29 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L31-E0-F1-I0-R0-</v>
+        <v>A10-C0-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I22" t="str">
         <f>LOOKUP(A22,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1715,29 +1710,29 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E1-F1-I0-R0-</v>
+        <v>A10-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I23" t="str">
         <f>LOOKUP(A23,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1766,29 +1761,29 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L30-E1-F1-I0-R0-</v>
+        <v>A10-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I24" t="str">
         <f>LOOKUP(A24,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1817,29 +1812,29 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L31-E1-F1-I0-R0-</v>
+        <v>A10-C0-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I25" t="str">
         <f>LOOKUP(A25,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1868,29 +1863,29 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L10-E0-F0-I0-R0-</v>
+        <v>A10-C10-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I26" t="str">
         <f>LOOKUP(A26,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1919,29 +1914,29 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L30-E0-F0-I0-R0-</v>
+        <v>A10-C10-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I27" t="str">
         <f>LOOKUP(A27,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1970,29 +1965,29 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L31-E0-F0-I0-R0-</v>
+        <v>A10-C10-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I28" t="str">
         <f>LOOKUP(A28,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2021,29 +2016,29 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L10-E1-F0-I0-R0-</v>
+        <v>A10-C10-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I29" t="str">
         <f>LOOKUP(A29,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2072,29 +2067,29 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L30-E1-F0-I0-R0-</v>
+        <v>A10-C10-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I30" t="str">
         <f>LOOKUP(A30,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2123,29 +2118,29 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L31-E1-F0-I0-R0-</v>
+        <v>A10-C10-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I31" t="str">
         <f>LOOKUP(A31,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2174,29 +2169,29 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G32" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L10-E0-F1-I0-R0-</v>
+        <v>A10-C10-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I32" t="str">
         <f>LOOKUP(A32,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2225,29 +2220,29 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L30-E0-F1-I0-R0-</v>
+        <v>A10-C10-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I33" t="str">
         <f>LOOKUP(A33,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2276,29 +2271,29 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L31-E0-F1-I0-R0-</v>
+        <v>A10-C10-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I34" t="str">
         <f>LOOKUP(A34,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2327,29 +2322,29 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L10-E1-F1-I0-R0-</v>
+        <v>A10-C10-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I35" t="str">
         <f>LOOKUP(A35,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2378,29 +2373,29 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L30-E1-F1-I0-R0-</v>
+        <v>A10-C10-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I36" t="str">
         <f>LOOKUP(A36,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2429,29 +2424,29 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L31-E1-F1-I0-R0-</v>
+        <v>A10-C10-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I37" t="str">
         <f>LOOKUP(A37,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2480,29 +2475,29 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E2-F0-I0-R0-</v>
+        <v>A10-C0-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I38" t="str">
         <f>LOOKUP(A38,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2531,29 +2526,29 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E2-F1-I0-R0-</v>
+        <v>A10-C0-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I39" t="str">
         <f>LOOKUP(A39,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2582,29 +2577,29 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L30-E2-F0-I0-R0-</v>
+        <v>A10-C0-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I40" t="str">
         <f>LOOKUP(A40,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2633,29 +2628,29 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L30-E2-F1-I0-R0-</v>
+        <v>A10-C0-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I41" t="str">
         <f>LOOKUP(A41,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2684,29 +2679,29 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L31-E2-F0-I0-R0-</v>
+        <v>A10-C0-D10-L31-E2-F0-I0-</v>
       </c>
       <c r="I42" t="str">
         <f>LOOKUP(A42,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2735,29 +2730,29 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L31-E2-F1-I0-R0-</v>
+        <v>A10-C0-D10-L31-E2-F1-I0-</v>
       </c>
       <c r="I43" t="str">
         <f>LOOKUP(A43,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2786,29 +2781,29 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L10-E0-F0-I0-R0-</v>
+        <v>A30-C0-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I44" t="str">
         <f>LOOKUP(A44,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2837,29 +2832,29 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L30-E0-F0-I0-R0-</v>
+        <v>A30-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I45" t="str">
         <f>LOOKUP(A45,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2888,29 +2883,29 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L31-E0-F0-I0-R0-</v>
+        <v>A30-C0-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I46" t="str">
         <f>LOOKUP(A46,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2939,29 +2934,29 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L10-E0-F0-I0-R0-</v>
+        <v>A30-C10-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I47" t="str">
         <f>LOOKUP(A47,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2990,29 +2985,29 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L30-E0-F0-I0-R0-</v>
+        <v>A30-C10-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I48" t="str">
         <f>LOOKUP(A48,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3041,29 +3036,29 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G49" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L31-E0-F0-I0-R0-</v>
+        <v>A30-C10-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I49" t="str">
         <f>LOOKUP(A49,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3092,29 +3087,29 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L10-E1-F0-I0-R0-</v>
+        <v>A30-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I50" t="str">
         <f>LOOKUP(A50,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3143,29 +3138,29 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L30-E1-F0-I0-R0-</v>
+        <v>A30-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I51" t="str">
         <f>LOOKUP(A51,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3194,29 +3189,29 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L31-E1-F0-I0-R0-</v>
+        <v>A30-C0-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I52" t="str">
         <f>LOOKUP(A52,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3245,29 +3240,29 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L10-E1-F0-I0-R0-</v>
+        <v>A30-C10-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I53" t="str">
         <f>LOOKUP(A53,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3296,29 +3291,29 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G54" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L30-E1-F0-I0-R0-</v>
+        <v>A30-C10-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I54" t="str">
         <f>LOOKUP(A54,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3347,29 +3342,29 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G55" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L31-E1-F0-I0-R0-</v>
+        <v>A30-C10-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I55" t="str">
         <f>LOOKUP(A55,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3398,29 +3393,29 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D10-L10-E2-F0-I0-R0-</v>
+        <v>A30-C0-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I56" t="str">
         <f>LOOKUP(A56,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3449,29 +3444,29 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D10-L10-E2-F1-I0-R0-</v>
+        <v>A30-C0-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I57" t="str">
         <f>LOOKUP(A57,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3500,29 +3495,29 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G58" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D10-L30-E2-F0-I0-R0-</v>
+        <v>A30-C0-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I58" t="str">
         <f>LOOKUP(A58,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3551,29 +3546,29 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" ref="H59:H102" si="1">CONCATENATE(A59,"-",B59,"-",C59,"-",D59,"-",E59,"-",F59,"-",G59,"-")</f>
-        <v>A30-C20-D0-L30-E0-F0-I0-R0-</v>
+        <v>A30-C20-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I59" t="str">
         <f>LOOKUP(A59,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3602,29 +3597,29 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G60" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L30-E1-F0-I0-R0-</v>
+        <v>A30-C20-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I60" t="str">
         <f>LOOKUP(A60,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3653,29 +3648,29 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D20-L30-E2-F0-I0-R0-</v>
+        <v>A30-C0-D20-L30-E2-F0-I0-</v>
       </c>
       <c r="I61" t="str">
         <f>LOOKUP(A61,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3704,29 +3699,29 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D20-L31-E2-F0-I0-R0-</v>
+        <v>A30-C0-D20-L31-E2-F0-I0-</v>
       </c>
       <c r="I62" t="str">
         <f>LOOKUP(A62,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3755,29 +3750,29 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G63" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L30-E0-F1-I0-R0-</v>
+        <v>A30-C20-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I63" t="str">
         <f>LOOKUP(A63,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3806,29 +3801,29 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G64" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L10-E0-F1-I0-R0-</v>
+        <v>A30-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I64" t="str">
         <f>LOOKUP(A64,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3857,29 +3852,29 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G65" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L30-E0-F1-I0-R0-</v>
+        <v>A30-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I65" t="str">
         <f>LOOKUP(A65,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3908,29 +3903,29 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G66" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L31-E0-F1-I0-R0-</v>
+        <v>A30-C0-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I66" t="str">
         <f>LOOKUP(A66,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3959,29 +3954,29 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G67" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L10-E0-F1-I0-R0-</v>
+        <v>A30-C10-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I67" t="str">
         <f>LOOKUP(A67,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4010,29 +4005,29 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G68" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L30-E0-F1-I0-R0-</v>
+        <v>A30-C10-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I68" t="str">
         <f>LOOKUP(A68,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4061,29 +4056,29 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G69" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L31-E0-F1-I0-R0-</v>
+        <v>A30-C10-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I69" t="str">
         <f>LOOKUP(A69,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4112,29 +4107,29 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G70" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L30-E1-F1-I0-R0-</v>
+        <v>A30-C20-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I70" t="str">
         <f>LOOKUP(A70,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4163,29 +4158,29 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G71" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L10-E1-F1-I0-R0-</v>
+        <v>A30-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I71" t="str">
         <f>LOOKUP(A71,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4214,29 +4209,29 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G72" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L30-E1-F1-I0-R0-</v>
+        <v>A30-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I72" t="str">
         <f>LOOKUP(A72,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4265,29 +4260,29 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G73" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L31-E1-F1-I0-R0-</v>
+        <v>A30-C0-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I73" t="str">
         <f>LOOKUP(A73,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4316,29 +4311,29 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G74" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L10-E1-F1-I0-R0-</v>
+        <v>A30-C10-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I74" t="str">
         <f>LOOKUP(A74,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4367,29 +4362,29 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G75" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L30-E1-F1-I0-R0-</v>
+        <v>A30-C10-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I75" t="str">
         <f>LOOKUP(A75,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4418,29 +4413,29 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G76" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L31-E1-F1-I0-R0-</v>
+        <v>A30-C10-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I76" t="str">
         <f>LOOKUP(A76,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4469,29 +4464,29 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G77" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L31-E0-F0-I0-R0-</v>
+        <v>A30-C20-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I77" t="str">
         <f>LOOKUP(A77,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4520,29 +4515,29 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G78" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L31-E1-F0-I0-R0-</v>
+        <v>A30-C20-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I78" t="str">
         <f>LOOKUP(A78,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4571,29 +4566,29 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G79" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D10-L30-E2-F1-I0-R0-</v>
+        <v>A30-C0-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I79" t="str">
         <f>LOOKUP(A79,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4622,29 +4617,29 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G80" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D10-L31-E2-F0-I0-R0-</v>
+        <v>A30-C0-D10-L31-E2-F0-I0-</v>
       </c>
       <c r="I80" t="str">
         <f>LOOKUP(A80,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4673,29 +4668,29 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G81" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D10-L31-E2-F1-I0-R0-</v>
+        <v>A30-C0-D10-L31-E2-F1-I0-</v>
       </c>
       <c r="I81" t="str">
         <f>LOOKUP(A81,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4724,29 +4719,29 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G82" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L31-E0-F1-I0-R0-</v>
+        <v>A30-C20-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I82" t="str">
         <f>LOOKUP(A82,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4775,29 +4770,29 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G83" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L31-E1-F1-I0-R0-</v>
+        <v>A30-C20-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I83" t="str">
         <f>LOOKUP(A83,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4826,29 +4821,29 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G84" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D20-L30-E2-F1-I0-R0-</v>
+        <v>A30-C0-D20-L30-E2-F1-I0-</v>
       </c>
       <c r="I84" t="str">
         <f>LOOKUP(A84,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4877,29 +4872,29 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G85" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D20-L31-E2-F1-I0-R0-</v>
+        <v>A30-C0-D20-L31-E2-F1-I0-</v>
       </c>
       <c r="I85" t="str">
         <f>LOOKUP(A85,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4928,29 +4923,29 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D0-L10-E0-F0-I0-R0-</v>
+        <v>A31-C0-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I86" t="str">
         <f>LOOKUP(A86,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4979,29 +4974,29 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D0-L30-E0-F0-I0-R0-</v>
+        <v>A31-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I87" t="str">
         <f>LOOKUP(A87,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5030,29 +5025,29 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G88" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D0-L31-E0-F0-I0-R0-</v>
+        <v>A31-C0-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I88" t="str">
         <f>LOOKUP(A88,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5081,29 +5076,29 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G89" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D0-L10-E0-F0-I0-R0-</v>
+        <v>A31-C10-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I89" t="str">
         <f>LOOKUP(A89,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5132,29 +5127,29 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G90" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D0-L30-E0-F0-I0-R0-</v>
+        <v>A31-C10-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I90" t="str">
         <f>LOOKUP(A90,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5183,29 +5178,29 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G91" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D0-L31-E0-F0-I0-R0-</v>
+        <v>A31-C10-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I91" t="str">
         <f>LOOKUP(A91,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5234,29 +5229,29 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G92" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D0-L10-E1-F0-I0-R0-</v>
+        <v>A31-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I92" t="str">
         <f>LOOKUP(A92,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5285,29 +5280,29 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G93" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D0-L30-E1-F0-I0-R0-</v>
+        <v>A31-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I93" t="str">
         <f>LOOKUP(A93,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5336,29 +5331,29 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G94" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D0-L31-E1-F0-I0-R0-</v>
+        <v>A31-C0-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I94" t="str">
         <f>LOOKUP(A94,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5387,29 +5382,29 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G95" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D0-L10-E1-F0-I0-R0-</v>
+        <v>A31-C10-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I95" t="str">
         <f>LOOKUP(A95,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5438,29 +5433,29 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G96" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D0-L30-E1-F0-I0-R0-</v>
+        <v>A31-C10-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I96" t="str">
         <f>LOOKUP(A96,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5489,29 +5484,29 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G97" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D0-L31-E1-F0-I0-R0-</v>
+        <v>A31-C10-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I97" t="str">
         <f>LOOKUP(A97,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5540,29 +5535,29 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G98" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D10-L10-E2-F0-I0-R0-</v>
+        <v>A31-C0-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I98" t="str">
         <f>LOOKUP(A98,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5591,29 +5586,29 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G99" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D10-L10-E2-F1-I0-R0-</v>
+        <v>A31-C0-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I99" t="str">
         <f>LOOKUP(A99,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5642,29 +5637,29 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G100" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D10-L30-E2-F0-I0-R0-</v>
+        <v>A31-C0-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I100" t="str">
         <f>LOOKUP(A100,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5693,29 +5688,29 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G101" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C20-D0-L30-E0-F0-I0-R0-</v>
+        <v>A31-C20-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I101" t="str">
         <f>LOOKUP(A101,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5744,29 +5739,29 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G102" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C20-D0-L30-E1-F0-I0-R0-</v>
+        <v>A31-C20-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I102" t="str">
         <f>LOOKUP(A102,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5795,29 +5790,29 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G103" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" ref="H103:H127" si="2">CONCATENATE(A103,"-",B103,"-",C103,"-",D103,"-",E103,"-",F103,"-",G103,"-")</f>
-        <v>A31-C0-D20-L30-E2-F0-I0-R0-</v>
+        <v>A31-C0-D20-L30-E2-F0-I0-</v>
       </c>
       <c r="I103" t="str">
         <f>LOOKUP(A103,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5846,29 +5841,29 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G104" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D20-L31-E2-F0-I0-R0-</v>
+        <v>A31-C0-D20-L31-E2-F0-I0-</v>
       </c>
       <c r="I104" t="str">
         <f>LOOKUP(A104,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5897,29 +5892,29 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G105" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D0-L30-E0-F1-I0-R0-</v>
+        <v>A31-C20-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I105" t="str">
         <f>LOOKUP(A105,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5948,29 +5943,29 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G106" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D0-L10-E0-F1-I0-R0-</v>
+        <v>A31-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I106" t="str">
         <f>LOOKUP(A106,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5999,29 +5994,29 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G107" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D0-L30-E0-F1-I0-R0-</v>
+        <v>A31-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I107" t="str">
         <f>LOOKUP(A107,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6050,29 +6045,29 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G108" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D0-L31-E0-F1-I0-R0-</v>
+        <v>A31-C0-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I108" t="str">
         <f>LOOKUP(A108,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6101,29 +6096,29 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G109" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D0-L10-E0-F1-I0-R0-</v>
+        <v>A31-C10-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I109" t="str">
         <f>LOOKUP(A109,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6152,29 +6147,29 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F110" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G110" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D0-L30-E0-F1-I0-R0-</v>
+        <v>A31-C10-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I110" t="str">
         <f>LOOKUP(A110,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6203,29 +6198,29 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F111" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G111" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D0-L31-E0-F1-I0-R0-</v>
+        <v>A31-C10-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I111" t="str">
         <f>LOOKUP(A111,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6254,29 +6249,29 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F112" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G112" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D0-L30-E1-F1-I0-R0-</v>
+        <v>A31-C20-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I112" t="str">
         <f>LOOKUP(A112,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6305,29 +6300,29 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F113" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G113" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D0-L10-E1-F1-I0-R0-</v>
+        <v>A31-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I113" t="str">
         <f>LOOKUP(A113,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6356,29 +6351,29 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G114" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D0-L30-E1-F1-I0-R0-</v>
+        <v>A31-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I114" t="str">
         <f>LOOKUP(A114,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6407,29 +6402,29 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G115" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D0-L31-E1-F1-I0-R0-</v>
+        <v>A31-C0-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I115" t="str">
         <f>LOOKUP(A115,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6458,29 +6453,29 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F116" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G116" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D0-L10-E1-F1-I0-R0-</v>
+        <v>A31-C10-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I116" t="str">
         <f>LOOKUP(A116,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6509,29 +6504,29 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F117" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G117" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D0-L30-E1-F1-I0-R0-</v>
+        <v>A31-C10-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I117" t="str">
         <f>LOOKUP(A117,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6560,29 +6555,29 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G118" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D0-L31-E1-F1-I0-R0-</v>
+        <v>A31-C10-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I118" t="str">
         <f>LOOKUP(A118,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6611,29 +6606,29 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F119" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G119" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D0-L31-E0-F0-I0-R0-</v>
+        <v>A31-C20-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I119" t="str">
         <f>LOOKUP(A119,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6662,29 +6657,29 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F120" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G120" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D0-L31-E1-F0-I0-R0-</v>
+        <v>A31-C20-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I120" t="str">
         <f>LOOKUP(A120,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6713,29 +6708,29 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G121" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D10-L30-E2-F1-I0-R0-</v>
+        <v>A31-C0-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I121" t="str">
         <f>LOOKUP(A121,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6764,29 +6759,29 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G122" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D10-L31-E2-F0-I0-R0-</v>
+        <v>A31-C0-D10-L31-E2-F0-I0-</v>
       </c>
       <c r="I122" t="str">
         <f>LOOKUP(A122,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6815,29 +6810,29 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G123" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D10-L31-E2-F1-I0-R0-</v>
+        <v>A31-C0-D10-L31-E2-F1-I0-</v>
       </c>
       <c r="I123" t="str">
         <f>LOOKUP(A123,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6866,29 +6861,29 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F124" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G124" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D0-L31-E0-F1-I0-R0-</v>
+        <v>A31-C20-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I124" t="str">
         <f>LOOKUP(A124,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6917,29 +6912,29 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G125" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D0-L31-E1-F1-I0-R0-</v>
+        <v>A31-C20-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I125" t="str">
         <f>LOOKUP(A125,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6968,29 +6963,29 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F126" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G126" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D20-L30-E2-F1-I0-R0-</v>
+        <v>A31-C0-D20-L30-E2-F1-I0-</v>
       </c>
       <c r="I126" t="str">
         <f>LOOKUP(A126,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7019,29 +7014,29 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F127" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G127" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D20-L31-E2-F1-I0-R0-</v>
+        <v>A31-C0-D20-L31-E2-F1-I0-</v>
       </c>
       <c r="I127" t="str">
         <f>LOOKUP(A127,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7087,24 +7082,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7114,12 +7109,12 @@
         <v>A0</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -7129,12 +7124,12 @@
         <v>A10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -7144,12 +7139,12 @@
         <v>A30</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>31</v>
@@ -7159,12 +7154,12 @@
         <v>A31</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7174,12 +7169,12 @@
         <v>C0</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -7189,12 +7184,12 @@
         <v>C10</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -7209,7 +7204,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7219,12 +7214,12 @@
         <v>D0</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -7234,12 +7229,12 @@
         <v>D10</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -7254,7 +7249,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7264,12 +7259,12 @@
         <v>E0</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -7279,12 +7274,12 @@
         <v>E1</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -7294,12 +7289,12 @@
         <v>E2</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7309,12 +7304,12 @@
         <v>F0</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7324,12 +7319,12 @@
         <v>F1</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -7339,12 +7334,12 @@
         <v>F2</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -7354,12 +7349,12 @@
         <v>L10</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>30</v>
@@ -7369,12 +7364,12 @@
         <v>L30</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>31</v>
@@ -7407,7 +7402,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7415,7 +7410,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7423,7 +7418,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7431,7 +7426,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7439,7 +7434,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/lib/scenarios.xlsx
+++ b/lib/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="91">
   <si>
     <t>fish &amp; surv length</t>
   </si>
@@ -223,6 +223,75 @@
   </si>
   <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>fixed - 1 forecast</t>
+  </si>
+  <si>
+    <t>internal - 1 forecast</t>
+  </si>
+  <si>
+    <t>No age comp data for any fleet</t>
+  </si>
+  <si>
+    <t>Age comp data for the fishery</t>
+  </si>
+  <si>
+    <t>Age comp data for the fishery and every other year of total survey years</t>
+  </si>
+  <si>
+    <t>Age comp data for the fishery and for every year of the total survey years</t>
+  </si>
+  <si>
+    <t>No conditional age at length data</t>
+  </si>
+  <si>
+    <t>Fishery conditional age at length data</t>
+  </si>
+  <si>
+    <t>No mean length at age data</t>
+  </si>
+  <si>
+    <t>Fishery mean length at age data</t>
+  </si>
+  <si>
+    <t>Survey conditional age at length data</t>
+  </si>
+  <si>
+    <t>Survey mean length at age data</t>
+  </si>
+  <si>
+    <t>all growth parameters fixed at their true values</t>
+  </si>
+  <si>
+    <t>all growth parameters are estimated internally</t>
+  </si>
+  <si>
+    <t>all growth parameters are estimated using Christine's external function</t>
+  </si>
+  <si>
+    <t>all growth parameters are fixed at their true values and one year of forecasting is done</t>
+  </si>
+  <si>
+    <t>all growth parameters are estimated internally and one year of forecasting is done</t>
+  </si>
+  <si>
+    <t>Constant fishing at  a percentage of FMSY</t>
+  </si>
+  <si>
+    <t>Two way trip</t>
+  </si>
+  <si>
+    <t>A one way trip fishing scenario</t>
+  </si>
+  <si>
+    <t>Fishery length composition data and every other year of composition data from the survey years</t>
+  </si>
+  <si>
+    <t>Fishery length composition data and every year of composition data from the survey years</t>
+  </si>
+  <si>
+    <t>Fishery length composition data</t>
   </si>
 </sst>
 </file>
@@ -574,7 +643,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
@@ -9211,10 +9280,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9250,6 +9319,9 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -9259,11 +9331,14 @@
         <v>10</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C20" si="0">CONCATENATE(A3,B3)</f>
+        <f t="shared" ref="C3:C22" si="0">CONCATENATE(A3,B3)</f>
         <v>A10</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9280,6 +9355,9 @@
       <c r="D4" t="s">
         <v>46</v>
       </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -9295,6 +9373,9 @@
       <c r="D5" t="s">
         <v>47</v>
       </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -9310,6 +9391,9 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -9325,6 +9409,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -9340,6 +9427,9 @@
       <c r="D8" t="s">
         <v>2</v>
       </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -9355,6 +9445,9 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -9370,6 +9463,9 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -9385,6 +9481,9 @@
       <c r="D11" t="s">
         <v>1</v>
       </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -9400,6 +9499,9 @@
       <c r="D12" t="s">
         <v>52</v>
       </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -9415,6 +9517,9 @@
       <c r="D13" t="s">
         <v>53</v>
       </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -9430,95 +9535,152 @@
       <c r="D14" t="s">
         <v>54</v>
       </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>F0</v>
+        <v>E990</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>991</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>F1</v>
+        <v>E991</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>F2</v>
+        <v>F0</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>L10</v>
+        <v>F1</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>L30</v>
+        <v>F2</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
       <c r="B20">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
+        <v>L10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>L30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
         <v>L31</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/lib/scenarios.xlsx
+++ b/lib/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>surv calcomp</t>
-  </si>
-  <si>
-    <t>I0-R0</t>
   </si>
   <si>
     <t>E2</t>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>Fishery length composition data</t>
+  </si>
+  <si>
+    <t>I0</t>
   </si>
 </sst>
 </file>
@@ -643,9 +643,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,73 +661,73 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(A2,"-",B2,"-",C2,"-",D2,"-",E2,"-",F2,"-",G2,"-")</f>
-        <v>A0-C0-D0-L10-E0-F0-I0-R0-</v>
+        <v>A0-C0-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I2" t="str">
         <f>LOOKUP(A2,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -756,29 +756,29 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="0">CONCATENATE(A3,"-",B3,"-",C3,"-",D3,"-",E3,"-",F3,"-",G3,"-")</f>
-        <v>A0-C0-D0-L30-E0-F0-I0-R0-</v>
+        <v>A0-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I3" t="str">
         <f>LOOKUP(A3,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -807,29 +807,29 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L31-E0-F0-I0-R0-</v>
+        <v>A0-C0-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I4" t="str">
         <f>LOOKUP(A4,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -858,29 +858,29 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L10-E1-F0-I0-R0-</v>
+        <v>A0-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I5" t="str">
         <f>LOOKUP(A5,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -909,29 +909,29 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L30-E1-F0-I0-R0-</v>
+        <v>A0-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I6" t="str">
         <f>LOOKUP(A6,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -960,29 +960,29 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L31-E1-F0-I0-R0-</v>
+        <v>A0-C0-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I7" t="str">
         <f>LOOKUP(A7,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1011,29 +1011,29 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L10-E0-F1-I0-R0-</v>
+        <v>A0-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I8" t="str">
         <f>LOOKUP(A8,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1062,29 +1062,29 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L30-E0-F1-I0-R0-</v>
+        <v>A0-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I9" t="str">
         <f>LOOKUP(A9,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1113,29 +1113,29 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L31-E0-F1-I0-R0-</v>
+        <v>A0-C0-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I10" t="str">
         <f>LOOKUP(A10,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1164,29 +1164,29 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L10-E1-F1-I0-R0-</v>
+        <v>A0-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I11" t="str">
         <f>LOOKUP(A11,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1215,29 +1215,29 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L30-E1-F1-I0-R0-</v>
+        <v>A0-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I12" t="str">
         <f>LOOKUP(A12,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1266,29 +1266,29 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L31-E1-F1-I0-R0-</v>
+        <v>A0-C0-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I13" t="str">
         <f>LOOKUP(A13,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1317,29 +1317,29 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E0-F0-I0-R0-</v>
+        <v>A10-C0-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I14" t="str">
         <f>LOOKUP(A14,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1368,29 +1368,29 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L30-E0-F0-I0-R0-</v>
+        <v>A10-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I15" t="str">
         <f>LOOKUP(A15,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1419,29 +1419,29 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L31-E0-F0-I0-R0-</v>
+        <v>A10-C0-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I16" t="str">
         <f>LOOKUP(A16,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1470,29 +1470,29 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E1-F0-I0-R0-</v>
+        <v>A10-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I17" t="str">
         <f>LOOKUP(A17,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1521,29 +1521,29 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L30-E1-F0-I0-R0-</v>
+        <v>A10-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I18" t="str">
         <f>LOOKUP(A18,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1572,29 +1572,29 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L31-E1-F0-I0-R0-</v>
+        <v>A10-C0-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I19" t="str">
         <f>LOOKUP(A19,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1623,29 +1623,29 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E0-F1-I0-R0-</v>
+        <v>A10-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I20" t="str">
         <f>LOOKUP(A20,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1674,29 +1674,29 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L30-E0-F1-I0-R0-</v>
+        <v>A10-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I21" t="str">
         <f>LOOKUP(A21,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1725,29 +1725,29 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L31-E0-F1-I0-R0-</v>
+        <v>A10-C0-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I22" t="str">
         <f>LOOKUP(A22,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1776,29 +1776,29 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E1-F1-I0-R0-</v>
+        <v>A10-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I23" t="str">
         <f>LOOKUP(A23,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1827,29 +1827,29 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L30-E1-F1-I0-R0-</v>
+        <v>A10-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I24" t="str">
         <f>LOOKUP(A24,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1878,29 +1878,29 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L31-E1-F1-I0-R0-</v>
+        <v>A10-C0-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I25" t="str">
         <f>LOOKUP(A25,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1929,29 +1929,29 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L10-E0-F0-I0-R0-</v>
+        <v>A10-C10-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I26" t="str">
         <f>LOOKUP(A26,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1980,29 +1980,29 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L30-E0-F0-I0-R0-</v>
+        <v>A10-C10-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I27" t="str">
         <f>LOOKUP(A27,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2031,29 +2031,29 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L31-E0-F0-I0-R0-</v>
+        <v>A10-C10-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I28" t="str">
         <f>LOOKUP(A28,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2082,29 +2082,29 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L10-E1-F0-I0-R0-</v>
+        <v>A10-C10-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I29" t="str">
         <f>LOOKUP(A29,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2133,29 +2133,29 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L30-E1-F0-I0-R0-</v>
+        <v>A10-C10-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I30" t="str">
         <f>LOOKUP(A30,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2184,29 +2184,29 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L31-E1-F0-I0-R0-</v>
+        <v>A10-C10-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I31" t="str">
         <f>LOOKUP(A31,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2235,29 +2235,29 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G32" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L10-E0-F1-I0-R0-</v>
+        <v>A10-C10-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I32" t="str">
         <f>LOOKUP(A32,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2286,29 +2286,29 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L30-E0-F1-I0-R0-</v>
+        <v>A10-C10-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I33" t="str">
         <f>LOOKUP(A33,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2337,29 +2337,29 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L31-E0-F1-I0-R0-</v>
+        <v>A10-C10-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I34" t="str">
         <f>LOOKUP(A34,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2388,29 +2388,29 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L10-E1-F1-I0-R0-</v>
+        <v>A10-C10-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I35" t="str">
         <f>LOOKUP(A35,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2439,29 +2439,29 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L30-E1-F1-I0-R0-</v>
+        <v>A10-C10-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I36" t="str">
         <f>LOOKUP(A36,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2490,29 +2490,29 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D0-L31-E1-F1-I0-R0-</v>
+        <v>A10-C10-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I37" t="str">
         <f>LOOKUP(A37,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2541,29 +2541,29 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E2-F0-I0-R0-</v>
+        <v>A10-C0-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I38" t="str">
         <f>LOOKUP(A38,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2592,29 +2592,29 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E2-F1-I0-R0-</v>
+        <v>A10-C0-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I39" t="str">
         <f>LOOKUP(A39,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2643,29 +2643,29 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L30-E2-F0-I0-R0-</v>
+        <v>A10-C0-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I40" t="str">
         <f>LOOKUP(A40,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2694,29 +2694,29 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L30-E2-F1-I0-R0-</v>
+        <v>A10-C0-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I41" t="str">
         <f>LOOKUP(A41,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2745,29 +2745,29 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L31-E2-F0-I0-R0-</v>
+        <v>A10-C0-D10-L31-E2-F0-I0-</v>
       </c>
       <c r="I42" t="str">
         <f>LOOKUP(A42,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2796,29 +2796,29 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L31-E2-F1-I0-R0-</v>
+        <v>A10-C0-D10-L31-E2-F1-I0-</v>
       </c>
       <c r="I43" t="str">
         <f>LOOKUP(A43,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2847,29 +2847,29 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D10-L10-E2-F0-I0-R0-</v>
+        <v>A10-C10-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I44" t="str">
         <f>LOOKUP(A44,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2898,29 +2898,29 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D10-L10-E2-F1-I0-R0-</v>
+        <v>A10-C10-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I45" t="str">
         <f>LOOKUP(A45,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2949,29 +2949,29 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D10-L30-E2-F0-I0-R0-</v>
+        <v>A10-C10-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I46" t="str">
         <f>LOOKUP(A46,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3000,29 +3000,29 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G47" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D10-L30-E2-F1-I0-R0-</v>
+        <v>A10-C10-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I47" t="str">
         <f>LOOKUP(A47,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3051,29 +3051,29 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D10-L31-E2-F0-I0-R0-</v>
+        <v>A10-C10-D10-L31-E2-F0-I0-</v>
       </c>
       <c r="I48" t="str">
         <f>LOOKUP(A48,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3102,29 +3102,29 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G49" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C10-D10-L31-E2-F1-I0-R0-</v>
+        <v>A10-C10-D10-L31-E2-F1-I0-</v>
       </c>
       <c r="I49" t="str">
         <f>LOOKUP(A49,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3153,29 +3153,29 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L10-E0-F0-I0-R0-</v>
+        <v>A30-C0-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I50" t="str">
         <f>LOOKUP(A50,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3204,29 +3204,29 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L30-E0-F0-I0-R0-</v>
+        <v>A30-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I51" t="str">
         <f>LOOKUP(A51,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3255,29 +3255,29 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L31-E0-F0-I0-R0-</v>
+        <v>A30-C0-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I52" t="str">
         <f>LOOKUP(A52,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3306,29 +3306,29 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L10-E0-F0-I0-R0-</v>
+        <v>A30-C10-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I53" t="str">
         <f>LOOKUP(A53,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3357,29 +3357,29 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G54" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L30-E0-F0-I0-R0-</v>
+        <v>A30-C10-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I54" t="str">
         <f>LOOKUP(A54,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3408,29 +3408,29 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G55" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L31-E0-F0-I0-R0-</v>
+        <v>A30-C10-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I55" t="str">
         <f>LOOKUP(A55,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3459,29 +3459,29 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L10-E1-F0-I0-R0-</v>
+        <v>A30-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I56" t="str">
         <f>LOOKUP(A56,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3510,29 +3510,29 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G57" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L30-E1-F0-I0-R0-</v>
+        <v>A30-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I57" t="str">
         <f>LOOKUP(A57,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3561,29 +3561,29 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G58" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D0-L31-E1-F0-I0-R0-</v>
+        <v>A30-C0-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I58" t="str">
         <f>LOOKUP(A58,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3612,29 +3612,29 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L10-E1-F0-I0-R0-</v>
+        <v>A30-C10-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I59" t="str">
         <f>LOOKUP(A59,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3663,29 +3663,29 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G60" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L30-E1-F0-I0-R0-</v>
+        <v>A30-C10-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I60" t="str">
         <f>LOOKUP(A60,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3714,29 +3714,29 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D0-L31-E1-F0-I0-R0-</v>
+        <v>A30-C10-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I61" t="str">
         <f>LOOKUP(A61,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3765,29 +3765,29 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D10-L10-E2-F0-I0-R0-</v>
+        <v>A30-C0-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I62" t="str">
         <f>LOOKUP(A62,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3816,29 +3816,29 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G63" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D10-L10-E2-F0-I0-R0-</v>
+        <v>A30-C10-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I63" t="str">
         <f>LOOKUP(A63,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3867,29 +3867,29 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G64" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D10-L10-E2-F1-I0-R0-</v>
+        <v>A30-C0-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I64" t="str">
         <f>LOOKUP(A64,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3918,29 +3918,29 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G65" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C10-D10-L10-E2-F1-I0-R0-</v>
+        <v>A30-C10-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I65" t="str">
         <f>LOOKUP(A65,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3969,29 +3969,29 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G66" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
-        <v>A30-C0-D10-L30-E2-F0-I0-R0-</v>
+        <v>A30-C0-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I66" t="str">
         <f>LOOKUP(A66,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4020,29 +4020,29 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G67" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H130" si="1">CONCATENATE(A67,"-",B67,"-",C67,"-",D67,"-",E67,"-",F67,"-",G67,"-")</f>
-        <v>A30-C10-D10-L30-E2-F0-I0-R0-</v>
+        <v>A30-C10-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I67" t="str">
         <f>LOOKUP(A67,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4071,29 +4071,29 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G68" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L30-E0-F0-I0-R0-</v>
+        <v>A30-C20-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I68" t="str">
         <f>LOOKUP(A68,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4122,29 +4122,29 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G69" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L30-E1-F0-I0-R0-</v>
+        <v>A30-C20-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I69" t="str">
         <f>LOOKUP(A69,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4173,29 +4173,29 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G70" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D10-L30-E2-F0-I0-R0-</v>
+        <v>A30-C20-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I70" t="str">
         <f>LOOKUP(A70,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4224,29 +4224,29 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G71" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D20-L30-E2-F0-I0-R0-</v>
+        <v>A30-C0-D20-L30-E2-F0-I0-</v>
       </c>
       <c r="I71" t="str">
         <f>LOOKUP(A71,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4275,29 +4275,29 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G72" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D20-L31-E2-F0-I0-R0-</v>
+        <v>A30-C0-D20-L31-E2-F0-I0-</v>
       </c>
       <c r="I72" t="str">
         <f>LOOKUP(A72,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4326,29 +4326,29 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G73" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D20-L30-E2-F0-I0-R0-</v>
+        <v>A30-C10-D20-L30-E2-F0-I0-</v>
       </c>
       <c r="I73" t="str">
         <f>LOOKUP(A73,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4377,29 +4377,29 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G74" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D20-L31-E2-F0-I0-R0-</v>
+        <v>A30-C10-D20-L31-E2-F0-I0-</v>
       </c>
       <c r="I74" t="str">
         <f>LOOKUP(A74,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4428,29 +4428,29 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G75" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D20-L30-E2-F0-I0-R0-</v>
+        <v>A30-C20-D20-L30-E2-F0-I0-</v>
       </c>
       <c r="I75" t="str">
         <f>LOOKUP(A75,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4479,29 +4479,29 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G76" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L30-E0-F1-I0-R0-</v>
+        <v>A30-C20-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I76" t="str">
         <f>LOOKUP(A76,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4530,29 +4530,29 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G77" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L10-E0-F1-I0-R0-</v>
+        <v>A30-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I77" t="str">
         <f>LOOKUP(A77,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4581,29 +4581,29 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G78" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L30-E0-F1-I0-R0-</v>
+        <v>A30-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I78" t="str">
         <f>LOOKUP(A78,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4632,29 +4632,29 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G79" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L31-E0-F1-I0-R0-</v>
+        <v>A30-C0-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I79" t="str">
         <f>LOOKUP(A79,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4683,29 +4683,29 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G80" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L10-E0-F1-I0-R0-</v>
+        <v>A30-C10-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I80" t="str">
         <f>LOOKUP(A80,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4734,29 +4734,29 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G81" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L30-E0-F1-I0-R0-</v>
+        <v>A30-C10-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I81" t="str">
         <f>LOOKUP(A81,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4785,29 +4785,29 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G82" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L31-E0-F1-I0-R0-</v>
+        <v>A30-C10-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I82" t="str">
         <f>LOOKUP(A82,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4836,29 +4836,29 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G83" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L30-E1-F1-I0-R0-</v>
+        <v>A30-C20-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I83" t="str">
         <f>LOOKUP(A83,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4887,29 +4887,29 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G84" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D10-L30-E2-F1-I0-R0-</v>
+        <v>A30-C20-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I84" t="str">
         <f>LOOKUP(A84,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4938,29 +4938,29 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G85" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D20-L30-E2-F1-I0-R0-</v>
+        <v>A30-C20-D20-L30-E2-F1-I0-</v>
       </c>
       <c r="I85" t="str">
         <f>LOOKUP(A85,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -4989,29 +4989,29 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G86" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L10-E1-F1-I0-R0-</v>
+        <v>A30-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I86" t="str">
         <f>LOOKUP(A86,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5040,29 +5040,29 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G87" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L30-E1-F1-I0-R0-</v>
+        <v>A30-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I87" t="str">
         <f>LOOKUP(A87,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5091,29 +5091,29 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G88" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D0-L31-E1-F1-I0-R0-</v>
+        <v>A30-C0-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I88" t="str">
         <f>LOOKUP(A88,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5142,29 +5142,29 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G89" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L10-E1-F1-I0-R0-</v>
+        <v>A30-C10-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I89" t="str">
         <f>LOOKUP(A89,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5193,29 +5193,29 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G90" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L30-E1-F1-I0-R0-</v>
+        <v>A30-C10-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I90" t="str">
         <f>LOOKUP(A90,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5244,29 +5244,29 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G91" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D0-L31-E1-F1-I0-R0-</v>
+        <v>A30-C10-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I91" t="str">
         <f>LOOKUP(A91,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5295,29 +5295,29 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G92" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L31-E0-F0-I0-R0-</v>
+        <v>A30-C20-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I92" t="str">
         <f>LOOKUP(A92,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5346,29 +5346,29 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G93" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L31-E1-F0-I0-R0-</v>
+        <v>A30-C20-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I93" t="str">
         <f>LOOKUP(A93,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5397,29 +5397,29 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G94" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D10-L30-E2-F1-I0-R0-</v>
+        <v>A30-C0-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I94" t="str">
         <f>LOOKUP(A94,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5448,29 +5448,29 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G95" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D10-L30-E2-F1-I0-R0-</v>
+        <v>A30-C10-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I95" t="str">
         <f>LOOKUP(A95,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5499,29 +5499,29 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G96" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D10-L31-E2-F0-I0-R0-</v>
+        <v>A30-C0-D10-L31-E2-F0-I0-</v>
       </c>
       <c r="I96" t="str">
         <f>LOOKUP(A96,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5550,29 +5550,29 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G97" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D10-L31-E2-F0-I0-R0-</v>
+        <v>A30-C10-D10-L31-E2-F0-I0-</v>
       </c>
       <c r="I97" t="str">
         <f>LOOKUP(A97,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5601,29 +5601,29 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G98" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D10-L31-E2-F0-I0-R0-</v>
+        <v>A30-C20-D10-L31-E2-F0-I0-</v>
       </c>
       <c r="I98" t="str">
         <f>LOOKUP(A98,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5652,29 +5652,29 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G99" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D10-L31-E2-F1-I0-R0-</v>
+        <v>A30-C0-D10-L31-E2-F1-I0-</v>
       </c>
       <c r="I99" t="str">
         <f>LOOKUP(A99,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5703,29 +5703,29 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G100" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D10-L31-E2-F1-I0-R0-</v>
+        <v>A30-C10-D10-L31-E2-F1-I0-</v>
       </c>
       <c r="I100" t="str">
         <f>LOOKUP(A100,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5754,29 +5754,29 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G101" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D20-L31-E2-F0-I0-R0-</v>
+        <v>A30-C20-D20-L31-E2-F0-I0-</v>
       </c>
       <c r="I101" t="str">
         <f>LOOKUP(A101,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5805,29 +5805,29 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G102" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L31-E0-F1-I0-R0-</v>
+        <v>A30-C20-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I102" t="str">
         <f>LOOKUP(A102,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5856,29 +5856,29 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G103" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D0-L31-E1-F1-I0-R0-</v>
+        <v>A30-C20-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I103" t="str">
         <f>LOOKUP(A103,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5907,29 +5907,29 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G104" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D20-L30-E2-F1-I0-R0-</v>
+        <v>A30-C0-D20-L30-E2-F1-I0-</v>
       </c>
       <c r="I104" t="str">
         <f>LOOKUP(A104,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -5958,29 +5958,29 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G105" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C0-D20-L31-E2-F1-I0-R0-</v>
+        <v>A30-C0-D20-L31-E2-F1-I0-</v>
       </c>
       <c r="I105" t="str">
         <f>LOOKUP(A105,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6009,29 +6009,29 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G106" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D20-L30-E2-F1-I0-R0-</v>
+        <v>A30-C10-D20-L30-E2-F1-I0-</v>
       </c>
       <c r="I106" t="str">
         <f>LOOKUP(A106,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6060,29 +6060,29 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G107" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C10-D20-L31-E2-F1-I0-R0-</v>
+        <v>A30-C10-D20-L31-E2-F1-I0-</v>
       </c>
       <c r="I107" t="str">
         <f>LOOKUP(A107,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6111,29 +6111,29 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G108" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D10-L31-E2-F1-I0-R0-</v>
+        <v>A30-C20-D10-L31-E2-F1-I0-</v>
       </c>
       <c r="I108" t="str">
         <f>LOOKUP(A108,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6162,29 +6162,29 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G109" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="1"/>
-        <v>A30-C20-D20-L31-E2-F1-I0-R0-</v>
+        <v>A30-C20-D20-L31-E2-F1-I0-</v>
       </c>
       <c r="I109" t="str">
         <f>LOOKUP(A109,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6213,29 +6213,29 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G110" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D0-L10-E0-F0-I0-R0-</v>
+        <v>A31-C0-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I110" t="str">
         <f>LOOKUP(A110,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6264,29 +6264,29 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G111" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D0-L30-E0-F0-I0-R0-</v>
+        <v>A31-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I111" t="str">
         <f>LOOKUP(A111,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6315,29 +6315,29 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G112" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D0-L31-E0-F0-I0-R0-</v>
+        <v>A31-C0-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I112" t="str">
         <f>LOOKUP(A112,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6366,29 +6366,29 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G113" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D0-L10-E0-F0-I0-R0-</v>
+        <v>A31-C10-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I113" t="str">
         <f>LOOKUP(A113,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6417,29 +6417,29 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F114" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G114" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D0-L30-E0-F0-I0-R0-</v>
+        <v>A31-C10-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I114" t="str">
         <f>LOOKUP(A114,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6468,29 +6468,29 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G115" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D0-L31-E0-F0-I0-R0-</v>
+        <v>A31-C10-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I115" t="str">
         <f>LOOKUP(A115,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6519,29 +6519,29 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G116" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D0-L10-E1-F0-I0-R0-</v>
+        <v>A31-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I116" t="str">
         <f>LOOKUP(A116,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6570,29 +6570,29 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G117" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D0-L30-E1-F0-I0-R0-</v>
+        <v>A31-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I117" t="str">
         <f>LOOKUP(A117,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6621,29 +6621,29 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G118" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D0-L31-E1-F0-I0-R0-</v>
+        <v>A31-C0-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I118" t="str">
         <f>LOOKUP(A118,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6672,29 +6672,29 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F119" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G119" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D0-L10-E1-F0-I0-R0-</v>
+        <v>A31-C10-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I119" t="str">
         <f>LOOKUP(A119,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6723,29 +6723,29 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F120" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G120" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D0-L30-E1-F0-I0-R0-</v>
+        <v>A31-C10-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I120" t="str">
         <f>LOOKUP(A120,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6774,29 +6774,29 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F121" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G121" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D0-L31-E1-F0-I0-R0-</v>
+        <v>A31-C10-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I121" t="str">
         <f>LOOKUP(A121,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6825,29 +6825,29 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G122" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D10-L10-E2-F0-I0-R0-</v>
+        <v>A31-C0-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I122" t="str">
         <f>LOOKUP(A122,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6876,29 +6876,29 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G123" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D10-L10-E2-F0-I0-R0-</v>
+        <v>A31-C10-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I123" t="str">
         <f>LOOKUP(A123,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6927,29 +6927,29 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F124" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G124" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D10-L10-E2-F1-I0-R0-</v>
+        <v>A31-C0-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I124" t="str">
         <f>LOOKUP(A124,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -6978,29 +6978,29 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F125" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G125" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D10-L10-E2-F1-I0-R0-</v>
+        <v>A31-C10-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I125" t="str">
         <f>LOOKUP(A125,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7029,29 +7029,29 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F126" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G126" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C0-D10-L30-E2-F0-I0-R0-</v>
+        <v>A31-C0-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I126" t="str">
         <f>LOOKUP(A126,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7080,29 +7080,29 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G127" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C10-D10-L30-E2-F0-I0-R0-</v>
+        <v>A31-C10-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I127" t="str">
         <f>LOOKUP(A127,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7131,29 +7131,29 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G128" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C20-D0-L30-E0-F0-I0-R0-</v>
+        <v>A31-C20-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I128" t="str">
         <f>LOOKUP(A128,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7182,29 +7182,29 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G129" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C20-D0-L30-E1-F0-I0-R0-</v>
+        <v>A31-C20-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I129" t="str">
         <f>LOOKUP(A129,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7233,29 +7233,29 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F130" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G130" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="1"/>
-        <v>A31-C20-D10-L30-E2-F0-I0-R0-</v>
+        <v>A31-C20-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I130" t="str">
         <f>LOOKUP(A130,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7284,29 +7284,29 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F131" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G131" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131:H169" si="2">CONCATENATE(A131,"-",B131,"-",C131,"-",D131,"-",E131,"-",F131,"-",G131,"-")</f>
-        <v>A31-C0-D20-L30-E2-F0-I0-R0-</v>
+        <v>A31-C0-D20-L30-E2-F0-I0-</v>
       </c>
       <c r="I131" t="str">
         <f>LOOKUP(A131,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7335,29 +7335,29 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F132" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G132" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D20-L31-E2-F0-I0-R0-</v>
+        <v>A31-C0-D20-L31-E2-F0-I0-</v>
       </c>
       <c r="I132" t="str">
         <f>LOOKUP(A132,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7386,29 +7386,29 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G133" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D20-L30-E2-F0-I0-R0-</v>
+        <v>A31-C10-D20-L30-E2-F0-I0-</v>
       </c>
       <c r="I133" t="str">
         <f>LOOKUP(A133,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7437,29 +7437,29 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G134" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D20-L31-E2-F0-I0-R0-</v>
+        <v>A31-C10-D20-L31-E2-F0-I0-</v>
       </c>
       <c r="I134" t="str">
         <f>LOOKUP(A134,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7488,29 +7488,29 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F135" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G135" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D20-L30-E2-F0-I0-R0-</v>
+        <v>A31-C20-D20-L30-E2-F0-I0-</v>
       </c>
       <c r="I135" t="str">
         <f>LOOKUP(A135,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7539,29 +7539,29 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F136" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G136" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D0-L30-E0-F1-I0-R0-</v>
+        <v>A31-C20-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I136" t="str">
         <f>LOOKUP(A136,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7590,29 +7590,29 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E137" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G137" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D0-L10-E0-F1-I0-R0-</v>
+        <v>A31-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I137" t="str">
         <f>LOOKUP(A137,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7641,29 +7641,29 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F138" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G138" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D0-L30-E0-F1-I0-R0-</v>
+        <v>A31-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I138" t="str">
         <f>LOOKUP(A138,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7692,29 +7692,29 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G139" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D0-L31-E0-F1-I0-R0-</v>
+        <v>A31-C0-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I139" t="str">
         <f>LOOKUP(A139,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7743,29 +7743,29 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E140" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G140" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D0-L10-E0-F1-I0-R0-</v>
+        <v>A31-C10-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I140" t="str">
         <f>LOOKUP(A140,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7794,29 +7794,29 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E141" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F141" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G141" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D0-L30-E0-F1-I0-R0-</v>
+        <v>A31-C10-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I141" t="str">
         <f>LOOKUP(A141,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7845,29 +7845,29 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F142" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G142" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D0-L31-E0-F1-I0-R0-</v>
+        <v>A31-C10-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I142" t="str">
         <f>LOOKUP(A142,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7896,29 +7896,29 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F143" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G143" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D0-L30-E1-F1-I0-R0-</v>
+        <v>A31-C20-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I143" t="str">
         <f>LOOKUP(A143,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7947,29 +7947,29 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F144" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G144" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D10-L30-E2-F1-I0-R0-</v>
+        <v>A31-C20-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I144" t="str">
         <f>LOOKUP(A144,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -7998,29 +7998,29 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F145" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G145" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D20-L30-E2-F1-I0-R0-</v>
+        <v>A31-C20-D20-L30-E2-F1-I0-</v>
       </c>
       <c r="I145" t="str">
         <f>LOOKUP(A145,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8049,29 +8049,29 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F146" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G146" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D0-L10-E1-F1-I0-R0-</v>
+        <v>A31-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I146" t="str">
         <f>LOOKUP(A146,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8100,29 +8100,29 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F147" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G147" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D0-L30-E1-F1-I0-R0-</v>
+        <v>A31-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I147" t="str">
         <f>LOOKUP(A147,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8151,29 +8151,29 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F148" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G148" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D0-L31-E1-F1-I0-R0-</v>
+        <v>A31-C0-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I148" t="str">
         <f>LOOKUP(A148,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8202,29 +8202,29 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F149" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G149" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D0-L10-E1-F1-I0-R0-</v>
+        <v>A31-C10-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I149" t="str">
         <f>LOOKUP(A149,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8253,29 +8253,29 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F150" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G150" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D0-L30-E1-F1-I0-R0-</v>
+        <v>A31-C10-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I150" t="str">
         <f>LOOKUP(A150,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8304,29 +8304,29 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F151" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G151" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D0-L31-E1-F1-I0-R0-</v>
+        <v>A31-C10-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I151" t="str">
         <f>LOOKUP(A151,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8355,29 +8355,29 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F152" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G152" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D0-L31-E0-F0-I0-R0-</v>
+        <v>A31-C20-D0-L31-E0-F0-I0-</v>
       </c>
       <c r="I152" t="str">
         <f>LOOKUP(A152,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8406,29 +8406,29 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F153" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G153" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D0-L31-E1-F0-I0-R0-</v>
+        <v>A31-C20-D0-L31-E1-F0-I0-</v>
       </c>
       <c r="I153" t="str">
         <f>LOOKUP(A153,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8457,29 +8457,29 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F154" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G154" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D10-L30-E2-F1-I0-R0-</v>
+        <v>A31-C0-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I154" t="str">
         <f>LOOKUP(A154,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8508,29 +8508,29 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F155" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G155" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D10-L30-E2-F1-I0-R0-</v>
+        <v>A31-C10-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I155" t="str">
         <f>LOOKUP(A155,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8559,29 +8559,29 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E156" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G156" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D10-L31-E2-F0-I0-R0-</v>
+        <v>A31-C0-D10-L31-E2-F0-I0-</v>
       </c>
       <c r="I156" t="str">
         <f>LOOKUP(A156,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8610,29 +8610,29 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D157" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E157" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F157" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G157" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D10-L31-E2-F0-I0-R0-</v>
+        <v>A31-C10-D10-L31-E2-F0-I0-</v>
       </c>
       <c r="I157" t="str">
         <f>LOOKUP(A157,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8661,29 +8661,29 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E158" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F158" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G158" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D10-L31-E2-F0-I0-R0-</v>
+        <v>A31-C20-D10-L31-E2-F0-I0-</v>
       </c>
       <c r="I158" t="str">
         <f>LOOKUP(A158,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8712,29 +8712,29 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E159" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F159" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G159" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D10-L31-E2-F1-I0-R0-</v>
+        <v>A31-C0-D10-L31-E2-F1-I0-</v>
       </c>
       <c r="I159" t="str">
         <f>LOOKUP(A159,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8763,29 +8763,29 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E160" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F160" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G160" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D10-L31-E2-F1-I0-R0-</v>
+        <v>A31-C10-D10-L31-E2-F1-I0-</v>
       </c>
       <c r="I160" t="str">
         <f>LOOKUP(A160,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8814,29 +8814,29 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F161" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G161" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D20-L31-E2-F0-I0-R0-</v>
+        <v>A31-C20-D20-L31-E2-F0-I0-</v>
       </c>
       <c r="I161" t="str">
         <f>LOOKUP(A161,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8865,29 +8865,29 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E162" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F162" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G162" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D0-L31-E0-F1-I0-R0-</v>
+        <v>A31-C20-D0-L31-E0-F1-I0-</v>
       </c>
       <c r="I162" t="str">
         <f>LOOKUP(A162,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8916,29 +8916,29 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D163" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E163" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F163" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G163" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D0-L31-E1-F1-I0-R0-</v>
+        <v>A31-C20-D0-L31-E1-F1-I0-</v>
       </c>
       <c r="I163" t="str">
         <f>LOOKUP(A163,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -8967,29 +8967,29 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E164" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F164" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G164" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D20-L30-E2-F1-I0-R0-</v>
+        <v>A31-C0-D20-L30-E2-F1-I0-</v>
       </c>
       <c r="I164" t="str">
         <f>LOOKUP(A164,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -9018,29 +9018,29 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F165" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G165" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C0-D20-L31-E2-F1-I0-R0-</v>
+        <v>A31-C0-D20-L31-E2-F1-I0-</v>
       </c>
       <c r="I165" t="str">
         <f>LOOKUP(A165,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -9069,29 +9069,29 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E166" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F166" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G166" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D20-L30-E2-F1-I0-R0-</v>
+        <v>A31-C10-D20-L30-E2-F1-I0-</v>
       </c>
       <c r="I166" t="str">
         <f>LOOKUP(A166,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -9120,29 +9120,29 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E167" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F167" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G167" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C10-D20-L31-E2-F1-I0-R0-</v>
+        <v>A31-C10-D20-L31-E2-F1-I0-</v>
       </c>
       <c r="I167" t="str">
         <f>LOOKUP(A167,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -9171,29 +9171,29 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D168" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E168" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F168" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G168" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D10-L31-E2-F1-I0-R0-</v>
+        <v>A31-C20-D10-L31-E2-F1-I0-</v>
       </c>
       <c r="I168" t="str">
         <f>LOOKUP(A168,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -9222,29 +9222,29 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D169" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E169" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F169" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G169" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="2"/>
-        <v>A31-C20-D20-L31-E2-F1-I0-R0-</v>
+        <v>A31-C20-D20-L31-E2-F1-I0-</v>
       </c>
       <c r="I169" t="str">
         <f>LOOKUP(A169,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -9282,7 +9282,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -9290,24 +9290,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -9317,15 +9317,15 @@
         <v>A0</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -9335,15 +9335,15 @@
         <v>A10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -9353,15 +9353,15 @@
         <v>A30</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>31</v>
@@ -9371,15 +9371,15 @@
         <v>A31</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9389,15 +9389,15 @@
         <v>C0</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -9407,15 +9407,15 @@
         <v>C10</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -9428,12 +9428,12 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9443,15 +9443,15 @@
         <v>D0</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -9461,15 +9461,15 @@
         <v>D10</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -9482,12 +9482,12 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9497,15 +9497,15 @@
         <v>E0</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -9515,15 +9515,15 @@
         <v>E1</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -9533,15 +9533,15 @@
         <v>E2</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>990</v>
@@ -9551,15 +9551,15 @@
         <v>E990</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>991</v>
@@ -9569,15 +9569,15 @@
         <v>E991</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -9587,15 +9587,15 @@
         <v>F0</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -9605,15 +9605,15 @@
         <v>F1</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -9623,15 +9623,15 @@
         <v>F2</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -9641,15 +9641,15 @@
         <v>L10</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -9659,15 +9659,15 @@
         <v>L30</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>31</v>
@@ -9680,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -9703,7 +9703,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9711,7 +9711,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9719,7 +9719,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9727,7 +9727,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9735,7 +9735,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/lib/scenarios.xlsx
+++ b/lib/scenarios.xlsx
@@ -579,7 +579,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lib/scenarios.xlsx
+++ b/lib/scenarios.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine Stawitz\Documents\GitHub\estgrowth\lib\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenarios!$A$1:$N$39</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="63">
   <si>
     <t>fish &amp; surv length</t>
   </si>
@@ -150,12 +145,6 @@
   </si>
   <si>
     <t>descriptionlong</t>
-  </si>
-  <si>
-    <t>fish &amp; .5surv age</t>
-  </si>
-  <si>
-    <t>fish &amp; surv age</t>
   </si>
   <si>
     <t>C</t>
@@ -326,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,21 +564,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -606,7 +595,7 @@
         <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -630,10 +619,10 @@
         <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -650,10 +639,10 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(A2,"-",B2,"-",C2,"-",D2,"-",E2,"-",F2,"-",G2,"-")</f>
@@ -684,7 +673,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -701,10 +690,10 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H28" si="0">CONCATENATE(A3,"-",B3,"-",C3,"-",D3,"-",E3,"-",F3,"-",G3,"-")</f>
@@ -724,7 +713,7 @@
       </c>
       <c r="L3" t="str">
         <f>LOOKUP(D3,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M3" t="str">
         <f>LOOKUP(E3,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -735,7 +724,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -752,10 +741,10 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -786,7 +775,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -803,10 +792,10 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -826,7 +815,7 @@
       </c>
       <c r="L5" t="str">
         <f>LOOKUP(D5,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M5" t="str">
         <f>LOOKUP(E5,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -837,7 +826,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -854,10 +843,10 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -888,7 +877,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -905,10 +894,10 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -928,7 +917,7 @@
       </c>
       <c r="L7" t="str">
         <f>LOOKUP(D7,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M7" t="str">
         <f>LOOKUP(E7,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -939,7 +928,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -956,10 +945,10 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -990,7 +979,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1007,10 +996,10 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -1030,7 +1019,7 @@
       </c>
       <c r="L9" t="str">
         <f>LOOKUP(D9,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M9" t="str">
         <f>LOOKUP(E9,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1041,7 +1030,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1058,10 +1047,10 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -1092,7 +1081,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1109,10 +1098,10 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -1132,7 +1121,7 @@
       </c>
       <c r="L11" t="str">
         <f>LOOKUP(D11,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M11" t="str">
         <f>LOOKUP(E11,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1143,7 +1132,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1160,10 +1149,10 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -1194,7 +1183,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1211,10 +1200,10 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -1234,7 +1223,7 @@
       </c>
       <c r="L13" t="str">
         <f>LOOKUP(D13,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M13" t="str">
         <f>LOOKUP(E13,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1245,7 +1234,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1262,10 +1251,10 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -1296,7 +1285,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1313,10 +1302,10 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -1336,7 +1325,7 @@
       </c>
       <c r="L15" t="str">
         <f>LOOKUP(D15,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M15" t="str">
         <f>LOOKUP(E15,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1347,7 +1336,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1364,10 +1353,10 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -1398,7 +1387,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1415,10 +1404,10 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -1438,7 +1427,7 @@
       </c>
       <c r="L17" t="str">
         <f>LOOKUP(D17,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M17" t="str">
         <f>LOOKUP(E17,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1449,7 +1438,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1466,10 +1455,10 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -1500,7 +1489,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1517,10 +1506,10 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -1551,7 +1540,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1568,10 +1557,10 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -1591,7 +1580,7 @@
       </c>
       <c r="L20" t="str">
         <f>LOOKUP(D20,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M20" t="str">
         <f>LOOKUP(E20,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1602,7 +1591,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1619,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -1642,7 +1631,7 @@
       </c>
       <c r="L21" t="str">
         <f>LOOKUP(D21,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M21" t="str">
         <f>LOOKUP(E21,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1653,7 +1642,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1670,10 +1659,10 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -1681,7 +1670,7 @@
       </c>
       <c r="I22" t="str">
         <f>LOOKUP(A22,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J22" t="str">
         <f>LOOKUP(B22,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1704,7 +1693,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1721,10 +1710,10 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -1732,7 +1721,7 @@
       </c>
       <c r="I23" t="str">
         <f>LOOKUP(A23,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J23" t="str">
         <f>LOOKUP(B23,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1744,7 +1733,7 @@
       </c>
       <c r="L23" t="str">
         <f>LOOKUP(D23,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M23" t="str">
         <f>LOOKUP(E23,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1755,7 +1744,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1772,10 +1761,10 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -1783,7 +1772,7 @@
       </c>
       <c r="I24" t="str">
         <f>LOOKUP(A24,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J24" t="str">
         <f>LOOKUP(B24,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1806,7 +1795,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1823,10 +1812,10 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -1834,7 +1823,7 @@
       </c>
       <c r="I25" t="str">
         <f>LOOKUP(A25,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J25" t="str">
         <f>LOOKUP(B25,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1846,7 +1835,7 @@
       </c>
       <c r="L25" t="str">
         <f>LOOKUP(D25,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M25" t="str">
         <f>LOOKUP(E25,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1857,7 +1846,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1874,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -1885,7 +1874,7 @@
       </c>
       <c r="I26" t="str">
         <f>LOOKUP(A26,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J26" t="str">
         <f>LOOKUP(B26,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1908,7 +1897,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1925,10 +1914,10 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -1936,7 +1925,7 @@
       </c>
       <c r="I27" t="str">
         <f>LOOKUP(A27,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J27" t="str">
         <f>LOOKUP(B27,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1959,7 +1948,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1976,10 +1965,10 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -1987,7 +1976,7 @@
       </c>
       <c r="I28" t="str">
         <f>LOOKUP(A28,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J28" t="str">
         <f>LOOKUP(B28,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1999,7 +1988,7 @@
       </c>
       <c r="L28" t="str">
         <f>LOOKUP(D28,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M28" t="str">
         <f>LOOKUP(E28,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2010,7 +1999,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2027,10 +2016,10 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" ref="H29:H39" si="1">CONCATENATE(A29,"-",B29,"-",C29,"-",D29,"-",E29,"-",F29,"-",G29,"-")</f>
@@ -2038,7 +2027,7 @@
       </c>
       <c r="I29" t="str">
         <f>LOOKUP(A29,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J29" t="str">
         <f>LOOKUP(B29,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2050,7 +2039,7 @@
       </c>
       <c r="L29" t="str">
         <f>LOOKUP(D29,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M29" t="str">
         <f>LOOKUP(E29,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2061,7 +2050,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2078,10 +2067,10 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
@@ -2089,7 +2078,7 @@
       </c>
       <c r="I30" t="str">
         <f>LOOKUP(A30,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J30" t="str">
         <f>LOOKUP(B30,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2101,7 +2090,7 @@
       </c>
       <c r="L30" t="str">
         <f>LOOKUP(D30,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M30" t="str">
         <f>LOOKUP(E30,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2112,7 +2101,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2129,10 +2118,10 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
@@ -2140,7 +2129,7 @@
       </c>
       <c r="I31" t="str">
         <f>LOOKUP(A31,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J31" t="str">
         <f>LOOKUP(B31,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2152,7 +2141,7 @@
       </c>
       <c r="L31" t="str">
         <f>LOOKUP(D31,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M31" t="str">
         <f>LOOKUP(E31,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2163,7 +2152,7 @@
         <v>constant</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2180,10 +2169,10 @@
         <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
@@ -2191,7 +2180,7 @@
       </c>
       <c r="I32" t="str">
         <f>LOOKUP(A32,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J32" t="str">
         <f>LOOKUP(B32,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2203,7 +2192,7 @@
       </c>
       <c r="L32" t="str">
         <f>LOOKUP(D32,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M32" t="str">
         <f>LOOKUP(E32,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2214,7 +2203,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2231,10 +2220,10 @@
         <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
@@ -2242,7 +2231,7 @@
       </c>
       <c r="I33" t="str">
         <f>LOOKUP(A33,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J33" t="str">
         <f>LOOKUP(B33,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2265,7 +2254,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2282,10 +2271,10 @@
         <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
@@ -2293,7 +2282,7 @@
       </c>
       <c r="I34" t="str">
         <f>LOOKUP(A34,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J34" t="str">
         <f>LOOKUP(B34,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2305,7 +2294,7 @@
       </c>
       <c r="L34" t="str">
         <f>LOOKUP(D34,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M34" t="str">
         <f>LOOKUP(E34,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2316,7 +2305,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2333,10 +2322,10 @@
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
@@ -2344,7 +2333,7 @@
       </c>
       <c r="I35" t="str">
         <f>LOOKUP(A35,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J35" t="str">
         <f>LOOKUP(B35,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2356,7 +2345,7 @@
       </c>
       <c r="L35" t="str">
         <f>LOOKUP(D35,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M35" t="str">
         <f>LOOKUP(E35,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2367,7 +2356,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2384,10 +2373,10 @@
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
@@ -2395,7 +2384,7 @@
       </c>
       <c r="I36" t="str">
         <f>LOOKUP(A36,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J36" t="str">
         <f>LOOKUP(B36,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2418,7 +2407,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2435,10 +2424,10 @@
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
@@ -2446,7 +2435,7 @@
       </c>
       <c r="I37" t="str">
         <f>LOOKUP(A37,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J37" t="str">
         <f>LOOKUP(B37,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2458,7 +2447,7 @@
       </c>
       <c r="L37" t="str">
         <f>LOOKUP(D37,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M37" t="str">
         <f>LOOKUP(E37,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2469,7 +2458,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2486,10 +2475,10 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
@@ -2497,7 +2486,7 @@
       </c>
       <c r="I38" t="str">
         <f>LOOKUP(A38,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J38" t="str">
         <f>LOOKUP(B38,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2509,7 +2498,7 @@
       </c>
       <c r="L38" t="str">
         <f>LOOKUP(D38,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M38" t="str">
         <f>LOOKUP(E38,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2520,7 +2509,7 @@
         <v>contrast</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2537,10 +2526,10 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
@@ -2548,7 +2537,7 @@
       </c>
       <c r="I39" t="str">
         <f>LOOKUP(A39,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J39" t="str">
         <f>LOOKUP(B39,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2560,7 +2549,7 @@
       </c>
       <c r="L39" t="str">
         <f>LOOKUP(D39,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; .5surv length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M39" t="str">
         <f>LOOKUP(E39,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2583,10 +2572,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2647,7 +2636,7 @@
         <v>A30</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2662,12 +2651,12 @@
         <v>A31</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2682,7 +2671,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -2697,7 +2686,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -2712,7 +2701,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2727,7 +2716,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -2742,7 +2731,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -2757,7 +2746,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2767,12 +2756,12 @@
         <v>E0</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2782,12 +2771,12 @@
         <v>E1</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2797,12 +2786,12 @@
         <v>E2</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2812,12 +2801,12 @@
         <v>F0</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2827,12 +2816,12 @@
         <v>F1</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -2842,12 +2831,12 @@
         <v>F2</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -2862,7 +2851,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>30</v>
@@ -2872,12 +2861,12 @@
         <v>L30</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>31</v>
@@ -2887,7 +2876,7 @@
         <v>L31</v>
       </c>
       <c r="D20" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2903,14 +2892,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2918,7 +2907,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2926,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2934,7 +2923,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2942,7 +2931,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/lib/scenarios.xlsx
+++ b/lib/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -177,9 +177,6 @@
     <t>Save scenarios.xlsx</t>
   </si>
   <si>
-    <t>Save as scenarios.csv</t>
-  </si>
-  <si>
     <t>Exit</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>I0</t>
+  </si>
+  <si>
+    <t>Run make</t>
   </si>
 </sst>
 </file>
@@ -562,9 +562,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,7 @@
         <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -619,7 +619,7 @@
         <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -639,10 +639,10 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(A2,"-",B2,"-",C2,"-",D2,"-",E2,"-",F2,"-",G2,"-")</f>
@@ -690,10 +690,10 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H28" si="0">CONCATENATE(A3,"-",B3,"-",C3,"-",D3,"-",E3,"-",F3,"-",G3,"-")</f>
@@ -741,10 +741,10 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -792,10 +792,10 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -843,10 +843,10 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -894,10 +894,10 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -945,10 +945,10 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -996,10 +996,10 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -1047,10 +1047,10 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -1098,10 +1098,10 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -1149,10 +1149,10 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -1200,10 +1200,10 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -1251,10 +1251,10 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -1302,10 +1302,10 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -1353,10 +1353,10 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -1404,10 +1404,10 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -1455,10 +1455,10 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -1506,10 +1506,10 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -1557,10 +1557,10 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -1608,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -1659,10 +1659,10 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -1710,10 +1710,10 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -1761,10 +1761,10 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -1812,10 +1812,10 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -1863,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -1914,10 +1914,10 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -1965,10 +1965,10 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -2016,10 +2016,10 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" ref="H29:H39" si="1">CONCATENATE(A29,"-",B29,"-",C29,"-",D29,"-",E29,"-",F29,"-",G29,"-")</f>
@@ -2067,10 +2067,10 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
@@ -2118,10 +2118,10 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
@@ -2169,10 +2169,10 @@
         <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
@@ -2220,10 +2220,10 @@
         <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
@@ -2271,10 +2271,10 @@
         <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
@@ -2322,10 +2322,10 @@
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
@@ -2373,10 +2373,10 @@
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
@@ -2424,10 +2424,10 @@
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
@@ -2475,10 +2475,10 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
@@ -2526,10 +2526,10 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
@@ -2561,7 +2561,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N39"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2791,7 +2790,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2801,12 +2800,12 @@
         <v>F0</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2816,12 +2815,12 @@
         <v>F1</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -2831,7 +2830,7 @@
         <v>F2</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2888,8 +2887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,7 +2922,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2931,7 +2930,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/lib/scenarios.xlsx
+++ b/lib/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="74">
   <si>
     <t>fish &amp; surv length</t>
   </si>
@@ -208,6 +208,39 @@
   </si>
   <si>
     <t>Run make</t>
+  </si>
+  <si>
+    <t>A10-C0-D10-L10-E2-F0-I0-</t>
+  </si>
+  <si>
+    <t>A10-C0-D10-L10-E2-F1-I0-</t>
+  </si>
+  <si>
+    <t>A10-C0-D10-L30-E2-F0-I0-</t>
+  </si>
+  <si>
+    <t>A10-C0-D10-L30-E2-F1-I0-</t>
+  </si>
+  <si>
+    <t>A30-C0-D10-L10-E2-F0-I0-</t>
+  </si>
+  <si>
+    <t>A30-C0-D10-L10-E2-F1-I0-</t>
+  </si>
+  <si>
+    <t>A30-C0-D10-L30-E2-F0-I0-</t>
+  </si>
+  <si>
+    <t>A30-C0-D20-L30-E2-F0-I0-</t>
+  </si>
+  <si>
+    <t>A30-C0-D10-L30-E2-F1-I0-</t>
+  </si>
+  <si>
+    <t>A30-C0-D20-L30-E2-F1-I0-</t>
+  </si>
+  <si>
+    <t>E3</t>
   </si>
 </sst>
 </file>
@@ -560,9 +593,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
@@ -684,10 +717,10 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -696,8 +729,8 @@
         <v>61</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H28" si="0">CONCATENATE(A3,"-",B3,"-",C3,"-",D3,"-",E3,"-",F3,"-",G3,"-")</f>
-        <v>A0-C0-D0-L30-E0-F0-I0-</v>
+        <f>CONCATENATE(A3,"-",B3,"-",C3,"-",D3,"-",E3,"-",F3,"-",G3,"-")</f>
+        <v>A0-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I3" t="str">
         <f>LOOKUP(A3,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -713,11 +746,11 @@
       </c>
       <c r="L3" t="str">
         <f>LOOKUP(D3,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M3" t="str">
         <f>LOOKUP(E3,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N3" t="str">
         <f>LOOKUP(F3,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -726,7 +759,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -738,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -747,12 +780,12 @@
         <v>61</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>A0-C0-D0-L10-E1-F0-I0-</v>
+        <f>CONCATENATE(A4,"-",B4,"-",C4,"-",D4,"-",E4,"-",F4,"-",G4,"-")</f>
+        <v>A10-C0-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I4" t="str">
         <f>LOOKUP(A4,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no age</v>
+        <v>fish age</v>
       </c>
       <c r="J4" t="str">
         <f>LOOKUP(B4,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -768,7 +801,7 @@
       </c>
       <c r="M4" t="str">
         <f>LOOKUP(E4,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N4" t="str">
         <f>LOOKUP(F4,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -777,7 +810,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -786,7 +819,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -798,12 +831,12 @@
         <v>61</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>A0-C0-D0-L30-E1-F0-I0-</v>
+        <f>CONCATENATE(A5,"-",B5,"-",C5,"-",D5,"-",E5,"-",F5,"-",G5,"-")</f>
+        <v>A10-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I5" t="str">
         <f>LOOKUP(A5,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no age</v>
+        <v>fish age</v>
       </c>
       <c r="J5" t="str">
         <f>LOOKUP(B5,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -815,7 +848,7 @@
       </c>
       <c r="L5" t="str">
         <f>LOOKUP(D5,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M5" t="str">
         <f>LOOKUP(E5,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -828,33 +861,33 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
         <v>61</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>A0-C0-D0-L10-E0-F1-I0-</v>
+        <f>CONCATENATE(A6,"-",B6,"-",C6,"-",D6,"-",E6,"-",F6,"-",G6,"-")</f>
+        <v>A10-C0-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I6" t="str">
         <f>LOOKUP(A6,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no age</v>
+        <v>fish age</v>
       </c>
       <c r="J6" t="str">
         <f>LOOKUP(B6,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -862,7 +895,7 @@
       </c>
       <c r="K6" t="str">
         <f>LOOKUP(C6,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L6" t="str">
         <f>LOOKUP(D6,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -870,67 +903,60 @@
       </c>
       <c r="M6" t="str">
         <f>LOOKUP(E6,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>external</v>
       </c>
       <c r="N6" t="str">
         <f>LOOKUP(F6,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
         <v>61</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>A0-C0-D0-L30-E0-F1-I0-</v>
-      </c>
-      <c r="I7" t="str">
-        <f>LOOKUP(A7,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no age</v>
-      </c>
-      <c r="J7" t="str">
-        <f>LOOKUP(B7,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K7" t="str">
-        <f>LOOKUP(C7,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L7" t="str">
-        <f>LOOKUP(D7,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M7" t="str">
-        <f>LOOKUP(E7,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
-      </c>
-      <c r="N7" t="str">
-        <f>LOOKUP(F7,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -942,21 +968,21 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
         <v>61</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>A0-C0-D0-L10-E1-F1-I0-</v>
+        <f>CONCATENATE(A8,"-",B8,"-",C8,"-",D8,"-",E8,"-",F8,"-",G8,"-")</f>
+        <v>A30-C0-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I8" t="str">
         <f>LOOKUP(A8,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J8" t="str">
         <f>LOOKUP(B8,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -972,16 +998,16 @@
       </c>
       <c r="M8" t="str">
         <f>LOOKUP(E8,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N8" t="str">
         <f>LOOKUP(F8,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -990,24 +1016,24 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
         <v>61</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>A0-C0-D0-L30-E1-F1-I0-</v>
+        <f>CONCATENATE(A9,"-",B9,"-",C9,"-",D9,"-",E9,"-",F9,"-",G9,"-")</f>
+        <v>A30-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I9" t="str">
         <f>LOOKUP(A9,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J9" t="str">
         <f>LOOKUP(B9,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1019,7 +1045,7 @@
       </c>
       <c r="L9" t="str">
         <f>LOOKUP(D9,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M9" t="str">
         <f>LOOKUP(E9,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1027,24 +1053,24 @@
       </c>
       <c r="N9" t="str">
         <f>LOOKUP(F9,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>54</v>
@@ -1053,12 +1079,12 @@
         <v>61</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E0-F0-I0-</v>
+        <f>CONCATENATE(A10,"-",B10,"-",C10,"-",D10,"-",E10,"-",F10,"-",G10,"-")</f>
+        <v>A30-C0-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I10" t="str">
         <f>LOOKUP(A10,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J10" t="str">
         <f>LOOKUP(B10,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1066,7 +1092,7 @@
       </c>
       <c r="K10" t="str">
         <f>LOOKUP(C10,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L10" t="str">
         <f>LOOKUP(D10,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1074,7 +1100,7 @@
       </c>
       <c r="M10" t="str">
         <f>LOOKUP(E10,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>external</v>
       </c>
       <c r="N10" t="str">
         <f>LOOKUP(F10,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1083,19 +1109,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -1103,38 +1129,31 @@
       <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L30-E0-F0-I0-</v>
-      </c>
-      <c r="I11" t="str">
-        <f>LOOKUP(A11,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
-      </c>
-      <c r="J11" t="str">
-        <f>LOOKUP(B11,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K11" t="str">
-        <f>LOOKUP(C11,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L11" t="str">
-        <f>LOOKUP(D11,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M11" t="str">
-        <f>LOOKUP(E11,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
-      </c>
-      <c r="N11" t="str">
-        <f>LOOKUP(F11,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1143,10 +1162,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
@@ -1155,12 +1174,12 @@
         <v>61</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E1-F0-I0-</v>
+        <f>CONCATENATE(A12,"-",B12,"-",C12,"-",D12,"-",E12,"-",F12,"-",G12,"-")</f>
+        <v>A0-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I12" t="str">
         <f>LOOKUP(A12,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>no age</v>
       </c>
       <c r="J12" t="str">
         <f>LOOKUP(B12,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1172,11 +1191,11 @@
       </c>
       <c r="L12" t="str">
         <f>LOOKUP(D12,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M12" t="str">
         <f>LOOKUP(E12,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N12" t="str">
         <f>LOOKUP(F12,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1185,7 +1204,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1206,12 +1225,12 @@
         <v>61</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L30-E1-F0-I0-</v>
+        <f>CONCATENATE(A13,"-",B13,"-",C13,"-",D13,"-",E13,"-",F13,"-",G13,"-")</f>
+        <v>A0-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I13" t="str">
         <f>LOOKUP(A13,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>no age</v>
       </c>
       <c r="J13" t="str">
         <f>LOOKUP(B13,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1245,20 +1264,20 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>61</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E0-F1-I0-</v>
+        <f>CONCATENATE(A14,"-",B14,"-",C14,"-",D14,"-",E14,"-",F14,"-",G14,"-")</f>
+        <v>A10-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I14" t="str">
         <f>LOOKUP(A14,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1274,7 +1293,7 @@
       </c>
       <c r="L14" t="str">
         <f>LOOKUP(D14,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M14" t="str">
         <f>LOOKUP(E14,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1282,7 +1301,7 @@
       </c>
       <c r="N14" t="str">
         <f>LOOKUP(F14,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1299,17 +1318,17 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
         <v>61</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L30-E0-F1-I0-</v>
+        <f>CONCATENATE(A15,"-",B15,"-",C15,"-",D15,"-",E15,"-",F15,"-",G15,"-")</f>
+        <v>A10-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I15" t="str">
         <f>LOOKUP(A15,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1329,11 +1348,11 @@
       </c>
       <c r="M15" t="str">
         <f>LOOKUP(E15,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N15" t="str">
         <f>LOOKUP(F15,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1344,23 +1363,23 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
         <v>61</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E1-F1-I0-</v>
+        <f>CONCATENATE(A16,"-",B16,"-",C16,"-",D16,"-",E16,"-",F16,"-",G16,"-")</f>
+        <v>A10-C0-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I16" t="str">
         <f>LOOKUP(A16,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1372,19 +1391,19 @@
       </c>
       <c r="K16" t="str">
         <f>LOOKUP(C16,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L16" t="str">
         <f>LOOKUP(D16,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M16" t="str">
         <f>LOOKUP(E16,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>external</v>
       </c>
       <c r="N16" t="str">
         <f>LOOKUP(F16,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1395,64 +1414,57 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
         <v>61</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L30-E1-F1-I0-</v>
-      </c>
-      <c r="I17" t="str">
-        <f>LOOKUP(A17,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
-      </c>
-      <c r="J17" t="str">
-        <f>LOOKUP(B17,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K17" t="str">
-        <f>LOOKUP(C17,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L17" t="str">
-        <f>LOOKUP(D17,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M17" t="str">
-        <f>LOOKUP(E17,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
-      </c>
-      <c r="N17" t="str">
-        <f>LOOKUP(F17,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
         <v>54</v>
@@ -1461,12 +1473,12 @@
         <v>61</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E2-F0-I0-</v>
+        <f>CONCATENATE(A18,"-",B18,"-",C18,"-",D18,"-",E18,"-",F18,"-",G18,"-")</f>
+        <v>A30-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I18" t="str">
         <f>LOOKUP(A18,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J18" t="str">
         <f>LOOKUP(B18,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1474,15 +1486,15 @@
       </c>
       <c r="K18" t="str">
         <f>LOOKUP(C18,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L18" t="str">
         <f>LOOKUP(D18,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M18" t="str">
         <f>LOOKUP(E18,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N18" t="str">
         <f>LOOKUP(F18,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1491,33 +1503,33 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
         <v>61</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E2-F1-I0-</v>
+        <f>CONCATENATE(A19,"-",B19,"-",C19,"-",D19,"-",E19,"-",F19,"-",G19,"-")</f>
+        <v>A30-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I19" t="str">
         <f>LOOKUP(A19,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J19" t="str">
         <f>LOOKUP(B19,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1525,36 +1537,36 @@
       </c>
       <c r="K19" t="str">
         <f>LOOKUP(C19,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L19" t="str">
         <f>LOOKUP(D19,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M19" t="str">
         <f>LOOKUP(E19,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N19" t="str">
         <f>LOOKUP(F19,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
         <v>54</v>
@@ -1563,20 +1575,20 @@
         <v>61</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D10-L30-E2-F0-I0-</v>
+        <f>CONCATENATE(A20,"-",B20,"-",C20,"-",D20,"-",E20,"-",F20,"-",G20,"-")</f>
+        <v>A30-C20-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I20" t="str">
         <f>LOOKUP(A20,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J20" t="str">
         <f>LOOKUP(B20,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K20" t="str">
         <f>LOOKUP(C20,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L20" t="str">
         <f>LOOKUP(D20,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1584,7 +1596,7 @@
       </c>
       <c r="M20" t="str">
         <f>LOOKUP(E20,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N20" t="str">
         <f>LOOKUP(F20,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1593,41 +1605,41 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
         <v>61</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D10-L30-E2-F1-I0-</v>
+        <f>CONCATENATE(A21,"-",B21,"-",C21,"-",D21,"-",E21,"-",F21,"-",G21,"-")</f>
+        <v>A30-C20-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I21" t="str">
         <f>LOOKUP(A21,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J21" t="str">
         <f>LOOKUP(B21,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K21" t="str">
         <f>LOOKUP(C21,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L21" t="str">
         <f>LOOKUP(D21,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1635,11 +1647,11 @@
       </c>
       <c r="M21" t="str">
         <f>LOOKUP(E21,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N21" t="str">
         <f>LOOKUP(F21,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+        <v>constant</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1650,13 +1662,13 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>54</v>
@@ -1665,8 +1677,8 @@
         <v>61</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C0-D0-L10-E0-F0-I0-</v>
+        <f>CONCATENATE(A22,"-",B22,"-",C22,"-",D22,"-",E22,"-",F22,"-",G22,"-")</f>
+        <v>A30-C0-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I22" t="str">
         <f>LOOKUP(A22,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1678,15 +1690,15 @@
       </c>
       <c r="K22" t="str">
         <f>LOOKUP(C22,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L22" t="str">
         <f>LOOKUP(D22,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M22" t="str">
         <f>LOOKUP(E22,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>external</v>
       </c>
       <c r="N22" t="str">
         <f>LOOKUP(F22,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1701,13 +1713,13 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
@@ -1715,33 +1727,26 @@
       <c r="G23" t="s">
         <v>61</v>
       </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C0-D0-L30-E0-F0-I0-</v>
-      </c>
-      <c r="I23" t="str">
-        <f>LOOKUP(A23,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="J23" t="str">
-        <f>LOOKUP(B23,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K23" t="str">
-        <f>LOOKUP(C23,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L23" t="str">
-        <f>LOOKUP(D23,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M23" t="str">
-        <f>LOOKUP(E23,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
-      </c>
-      <c r="N23" t="str">
-        <f>LOOKUP(F23,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1752,13 +1757,13 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>54</v>
@@ -1767,8 +1772,8 @@
         <v>61</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C0-D0-L10-E1-F0-I0-</v>
+        <f>CONCATENATE(A24,"-",B24,"-",C24,"-",D24,"-",E24,"-",F24,"-",G24,"-")</f>
+        <v>A30-C0-D20-L30-E2-F0-I0-</v>
       </c>
       <c r="I24" t="str">
         <f>LOOKUP(A24,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1780,15 +1785,15 @@
       </c>
       <c r="K24" t="str">
         <f>LOOKUP(C24,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>surv mlacomp</v>
       </c>
       <c r="L24" t="str">
         <f>LOOKUP(D24,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M24" t="str">
         <f>LOOKUP(E24,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>external</v>
       </c>
       <c r="N24" t="str">
         <f>LOOKUP(F24,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1803,13 +1808,13 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
         <v>54</v>
@@ -1817,64 +1822,57 @@
       <c r="G25" t="s">
         <v>61</v>
       </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C0-D0-L30-E1-F0-I0-</v>
-      </c>
-      <c r="I25" t="str">
-        <f>LOOKUP(A25,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="J25" t="str">
-        <f>LOOKUP(B25,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K25" t="str">
-        <f>LOOKUP(C25,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L25" t="str">
-        <f>LOOKUP(D25,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M25" t="str">
-        <f>LOOKUP(E25,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
-      </c>
-      <c r="N25" t="str">
-        <f>LOOKUP(F25,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+      <c r="H25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
         <v>61</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C0-D10-L10-E2-F0-I0-</v>
+        <f>CONCATENATE(A26,"-",B26,"-",C26,"-",D26,"-",E26,"-",F26,"-",G26,"-")</f>
+        <v>A0-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I26" t="str">
         <f>LOOKUP(A26,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>no age</v>
       </c>
       <c r="J26" t="str">
         <f>LOOKUP(B26,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1882,7 +1880,7 @@
       </c>
       <c r="K26" t="str">
         <f>LOOKUP(C26,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L26" t="str">
         <f>LOOKUP(D26,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1890,28 +1888,28 @@
       </c>
       <c r="M26" t="str">
         <f>LOOKUP(E26,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N26" t="str">
         <f>LOOKUP(F26,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
         <v>55</v>
@@ -1920,12 +1918,12 @@
         <v>61</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C0-D10-L10-E2-F1-I0-</v>
+        <f>CONCATENATE(A27,"-",B27,"-",C27,"-",D27,"-",E27,"-",F27,"-",G27,"-")</f>
+        <v>A0-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I27" t="str">
         <f>LOOKUP(A27,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>no age</v>
       </c>
       <c r="J27" t="str">
         <f>LOOKUP(B27,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1933,7 +1931,7 @@
       </c>
       <c r="K27" t="str">
         <f>LOOKUP(C27,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L27" t="str">
         <f>LOOKUP(D27,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1941,7 +1939,7 @@
       </c>
       <c r="M27" t="str">
         <f>LOOKUP(E27,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N27" t="str">
         <f>LOOKUP(F27,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1950,33 +1948,33 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
         <v>61</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>A30-C0-D10-L30-E2-F0-I0-</v>
+        <f>CONCATENATE(A28,"-",B28,"-",C28,"-",D28,"-",E28,"-",F28,"-",G28,"-")</f>
+        <v>A10-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I28" t="str">
         <f>LOOKUP(A28,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish age</v>
       </c>
       <c r="J28" t="str">
         <f>LOOKUP(B28,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1984,54 +1982,54 @@
       </c>
       <c r="K28" t="str">
         <f>LOOKUP(C28,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L28" t="str">
         <f>LOOKUP(D28,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M28" t="str">
         <f>LOOKUP(E28,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N28" t="str">
         <f>LOOKUP(F28,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
         <v>61</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" ref="H29:H39" si="1">CONCATENATE(A29,"-",B29,"-",C29,"-",D29,"-",E29,"-",F29,"-",G29,"-")</f>
-        <v>A30-C20-D0-L30-E0-F0-I0-</v>
+        <f>CONCATENATE(A29,"-",B29,"-",C29,"-",D29,"-",E29,"-",F29,"-",G29,"-")</f>
+        <v>A10-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I29" t="str">
         <f>LOOKUP(A29,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish age</v>
       </c>
       <c r="J29" t="str">
         <f>LOOKUP(B29,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K29" t="str">
         <f>LOOKUP(C29,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2039,117 +2037,110 @@
       </c>
       <c r="L29" t="str">
         <f>LOOKUP(D29,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M29" t="str">
         <f>LOOKUP(E29,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N29" t="str">
         <f>LOOKUP(F29,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
         <v>61</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C20-D0-L30-E1-F0-I0-</v>
+        <f>CONCATENATE(A30,"-",B30,"-",C30,"-",D30,"-",E30,"-",F30,"-",G30,"-")</f>
+        <v>A10-C0-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I30" t="str">
         <f>LOOKUP(A30,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish age</v>
       </c>
       <c r="J30" t="str">
         <f>LOOKUP(B30,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K30" t="str">
         <f>LOOKUP(C30,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L30" t="str">
         <f>LOOKUP(D30,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M30" t="str">
         <f>LOOKUP(E30,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>external</v>
       </c>
       <c r="N30" t="str">
         <f>LOOKUP(F30,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+        <v>contrast</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
         <v>61</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C0-D20-L30-E2-F0-I0-</v>
-      </c>
-      <c r="I31" t="str">
-        <f>LOOKUP(A31,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="J31" t="str">
-        <f>LOOKUP(B31,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K31" t="str">
-        <f>LOOKUP(C31,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
-      </c>
-      <c r="L31" t="str">
-        <f>LOOKUP(D31,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M31" t="str">
-        <f>LOOKUP(E31,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
-      </c>
-      <c r="N31" t="str">
-        <f>LOOKUP(F31,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2157,13 +2148,13 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
         <v>23</v>
@@ -2175,8 +2166,8 @@
         <v>61</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C20-D0-L30-E0-F1-I0-</v>
+        <f>CONCATENATE(A32,"-",B32,"-",C32,"-",D32,"-",E32,"-",F32,"-",G32,"-")</f>
+        <v>A30-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I32" t="str">
         <f>LOOKUP(A32,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2184,7 +2175,7 @@
       </c>
       <c r="J32" t="str">
         <f>LOOKUP(B32,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K32" t="str">
         <f>LOOKUP(C32,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2192,7 +2183,7 @@
       </c>
       <c r="L32" t="str">
         <f>LOOKUP(D32,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M32" t="str">
         <f>LOOKUP(E32,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2217,7 +2208,7 @@
         <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
         <v>55</v>
@@ -2226,8 +2217,8 @@
         <v>61</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C0-D0-L10-E0-F1-I0-</v>
+        <f>CONCATENATE(A33,"-",B33,"-",C33,"-",D33,"-",E33,"-",F33,"-",G33,"-")</f>
+        <v>A30-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I33" t="str">
         <f>LOOKUP(A33,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2247,7 +2238,7 @@
       </c>
       <c r="M33" t="str">
         <f>LOOKUP(E33,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N33" t="str">
         <f>LOOKUP(F33,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2262,13 +2253,13 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>55</v>
@@ -2277,8 +2268,8 @@
         <v>61</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C0-D0-L30-E0-F1-I0-</v>
+        <f>CONCATENATE(A34,"-",B34,"-",C34,"-",D34,"-",E34,"-",F34,"-",G34,"-")</f>
+        <v>A30-C0-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I34" t="str">
         <f>LOOKUP(A34,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2290,15 +2281,15 @@
       </c>
       <c r="K34" t="str">
         <f>LOOKUP(C34,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L34" t="str">
         <f>LOOKUP(D34,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M34" t="str">
         <f>LOOKUP(E34,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>external</v>
       </c>
       <c r="N34" t="str">
         <f>LOOKUP(F34,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2310,16 +2301,16 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
@@ -2327,38 +2318,31 @@
       <c r="G35" t="s">
         <v>61</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C20-D0-L30-E1-F1-I0-</v>
-      </c>
-      <c r="I35" t="str">
-        <f>LOOKUP(A35,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="J35" t="str">
-        <f>LOOKUP(B35,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K35" t="str">
-        <f>LOOKUP(C35,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L35" t="str">
-        <f>LOOKUP(D35,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M35" t="str">
-        <f>LOOKUP(E35,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
-      </c>
-      <c r="N35" t="str">
-        <f>LOOKUP(F35,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N35" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -2367,10 +2351,10 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
         <v>55</v>
@@ -2379,12 +2363,12 @@
         <v>61</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C0-D0-L10-E1-F1-I0-</v>
+        <f>CONCATENATE(A36,"-",B36,"-",C36,"-",D36,"-",E36,"-",F36,"-",G36,"-")</f>
+        <v>A0-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I36" t="str">
         <f>LOOKUP(A36,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>no age</v>
       </c>
       <c r="J36" t="str">
         <f>LOOKUP(B36,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2396,11 +2380,11 @@
       </c>
       <c r="L36" t="str">
         <f>LOOKUP(D36,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M36" t="str">
         <f>LOOKUP(E36,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N36" t="str">
         <f>LOOKUP(F36,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2409,7 +2393,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -2430,12 +2414,12 @@
         <v>61</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C0-D0-L30-E1-F1-I0-</v>
+        <f>CONCATENATE(A37,"-",B37,"-",C37,"-",D37,"-",E37,"-",F37,"-",G37,"-")</f>
+        <v>A0-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I37" t="str">
         <f>LOOKUP(A37,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>no age</v>
       </c>
       <c r="J37" t="str">
         <f>LOOKUP(B37,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2460,19 +2444,19 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
         <v>55</v>
@@ -2481,12 +2465,12 @@
         <v>61</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C0-D10-L30-E2-F1-I0-</v>
+        <f>CONCATENATE(A38,"-",B38,"-",C38,"-",D38,"-",E38,"-",F38,"-",G38,"-")</f>
+        <v>A10-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I38" t="str">
         <f>LOOKUP(A38,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish age</v>
       </c>
       <c r="J38" t="str">
         <f>LOOKUP(B38,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2494,7 +2478,7 @@
       </c>
       <c r="K38" t="str">
         <f>LOOKUP(C38,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L38" t="str">
         <f>LOOKUP(D38,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2502,7 +2486,7 @@
       </c>
       <c r="M38" t="str">
         <f>LOOKUP(E38,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>fixed</v>
       </c>
       <c r="N38" t="str">
         <f>LOOKUP(F38,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2511,19 +2495,19 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
         <v>55</v>
@@ -2532,12 +2516,12 @@
         <v>61</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="1"/>
-        <v>A30-C0-D20-L30-E2-F1-I0-</v>
+        <f>CONCATENATE(A39,"-",B39,"-",C39,"-",D39,"-",E39,"-",F39,"-",G39,"-")</f>
+        <v>A10-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I39" t="str">
         <f>LOOKUP(A39,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish age</v>
       </c>
       <c r="J39" t="str">
         <f>LOOKUP(B39,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2545,7 +2529,7 @@
       </c>
       <c r="K39" t="str">
         <f>LOOKUP(C39,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L39" t="str">
         <f>LOOKUP(D39,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2553,14 +2537,511 @@
       </c>
       <c r="M39" t="str">
         <f>LOOKUP(E39,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>internal</v>
       </c>
       <c r="N39" t="str">
         <f>LOOKUP(F39,descriptions!$C:$C,descriptions!$D:$D)</f>
         <v>contrast</v>
       </c>
     </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" t="str">
+        <f>CONCATENATE(A40,"-",B40,"-",C40,"-",D40,"-",E40,"-",F40,"-",G40,"-")</f>
+        <v>A10-C0-D10-L30-E2-F1-I0-</v>
+      </c>
+      <c r="I40" t="str">
+        <f>LOOKUP(A40,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J40" t="str">
+        <f>LOOKUP(B40,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K40" t="str">
+        <f>LOOKUP(C40,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L40" t="str">
+        <f>LOOKUP(D40,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="M40" t="str">
+        <f>LOOKUP(E40,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>external</v>
+      </c>
+      <c r="N40" t="str">
+        <f>LOOKUP(F40,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>48</v>
+      </c>
+      <c r="N41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" t="str">
+        <f>CONCATENATE(A42,"-",B42,"-",C42,"-",D42,"-",E42,"-",F42,"-",G42,"-")</f>
+        <v>A30-C0-D0-L30-E0-F1-I0-</v>
+      </c>
+      <c r="I42" t="str">
+        <f>LOOKUP(A42,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="J42" t="str">
+        <f>LOOKUP(B42,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K42" t="str">
+        <f>LOOKUP(C42,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L42" t="str">
+        <f>LOOKUP(D42,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="M42" t="str">
+        <f>LOOKUP(E42,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fixed</v>
+      </c>
+      <c r="N42" t="str">
+        <f>LOOKUP(F42,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" t="str">
+        <f>CONCATENATE(A43,"-",B43,"-",C43,"-",D43,"-",E43,"-",F43,"-",G43,"-")</f>
+        <v>A30-C0-D0-L30-E1-F1-I0-</v>
+      </c>
+      <c r="I43" t="str">
+        <f>LOOKUP(A43,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="J43" t="str">
+        <f>LOOKUP(B43,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K43" t="str">
+        <f>LOOKUP(C43,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L43" t="str">
+        <f>LOOKUP(D43,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="M43" t="str">
+        <f>LOOKUP(E43,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>internal</v>
+      </c>
+      <c r="N43" t="str">
+        <f>LOOKUP(F43,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" t="str">
+        <f>CONCATENATE(A44,"-",B44,"-",C44,"-",D44,"-",E44,"-",F44,"-",G44,"-")</f>
+        <v>A30-C20-D0-L30-E0-F1-I0-</v>
+      </c>
+      <c r="I44" t="str">
+        <f>LOOKUP(A44,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="J44" t="str">
+        <f>LOOKUP(B44,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>surv calcomp</v>
+      </c>
+      <c r="K44" t="str">
+        <f>LOOKUP(C44,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L44" t="str">
+        <f>LOOKUP(D44,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="M44" t="str">
+        <f>LOOKUP(E44,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fixed</v>
+      </c>
+      <c r="N44" t="str">
+        <f>LOOKUP(F44,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" t="str">
+        <f>CONCATENATE(A45,"-",B45,"-",C45,"-",D45,"-",E45,"-",F45,"-",G45,"-")</f>
+        <v>A30-C20-D0-L30-E1-F1-I0-</v>
+      </c>
+      <c r="I45" t="str">
+        <f>LOOKUP(A45,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="J45" t="str">
+        <f>LOOKUP(B45,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>surv calcomp</v>
+      </c>
+      <c r="K45" t="str">
+        <f>LOOKUP(C45,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L45" t="str">
+        <f>LOOKUP(D45,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="M45" t="str">
+        <f>LOOKUP(E45,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>internal</v>
+      </c>
+      <c r="N45" t="str">
+        <f>LOOKUP(F45,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" t="str">
+        <f>CONCATENATE(A46,"-",B46,"-",C46,"-",D46,"-",E46,"-",F46,"-",G46,"-")</f>
+        <v>A30-C0-D10-L30-E2-F1-I0-</v>
+      </c>
+      <c r="I46" t="str">
+        <f>LOOKUP(A46,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="J46" t="str">
+        <f>LOOKUP(B46,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K46" t="str">
+        <f>LOOKUP(C46,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L46" t="str">
+        <f>LOOKUP(D46,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="M46" t="str">
+        <f>LOOKUP(E46,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>external</v>
+      </c>
+      <c r="N46" t="str">
+        <f>LOOKUP(F46,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>48</v>
+      </c>
+      <c r="N47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" t="str">
+        <f>CONCATENATE(A48,"-",B48,"-",C48,"-",D48,"-",E48,"-",F48,"-",G48,"-")</f>
+        <v>A30-C0-D20-L30-E2-F1-I0-</v>
+      </c>
+      <c r="I48" t="str">
+        <f>LOOKUP(A48,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="J48" t="str">
+        <f>LOOKUP(B48,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K48" t="str">
+        <f>LOOKUP(C48,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>surv mlacomp</v>
+      </c>
+      <c r="L48" t="str">
+        <f>LOOKUP(D48,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="M48" t="str">
+        <f>LOOKUP(E48,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>external</v>
+      </c>
+      <c r="N48" t="str">
+        <f>LOOKUP(F48,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N49" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:N49">
+    <sortCondition ref="F2:F49"/>
+    <sortCondition ref="D2:D49"/>
+    <sortCondition ref="A2:A49"/>
+    <sortCondition ref="C2:C49"/>
+    <sortCondition ref="B2:B49"/>
+    <sortCondition ref="E2:E49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2887,7 +3368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/lib/scenarios.xlsx
+++ b/lib/scenarios.xlsx
@@ -12,14 +12,14 @@
     <sheet name="readme" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenarios!$A$1:$N$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenarios!$A$1:$N$49</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="95">
   <si>
     <t>fish &amp; surv length</t>
   </si>
@@ -241,6 +241,69 @@
   </si>
   <si>
     <t>E3</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>internalCV</t>
+  </si>
+  <si>
+    <t>M60</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>M50</t>
+  </si>
+  <si>
+    <t>M70</t>
+  </si>
+  <si>
+    <t>M90</t>
+  </si>
+  <si>
+    <t>M110</t>
+  </si>
+  <si>
+    <t>M120</t>
+  </si>
+  <si>
+    <t>M130</t>
+  </si>
+  <si>
+    <t>M140</t>
+  </si>
+  <si>
+    <t>M150</t>
   </si>
 </sst>
 </file>
@@ -593,11 +656,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +966,7 @@
       </c>
       <c r="M6" t="str">
         <f>LOOKUP(E6,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>M150</v>
       </c>
       <c r="N6" t="str">
         <f>LOOKUP(F6,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1100,7 +1163,7 @@
       </c>
       <c r="M10" t="str">
         <f>LOOKUP(E10,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>M150</v>
       </c>
       <c r="N10" t="str">
         <f>LOOKUP(F10,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1399,7 +1462,7 @@
       </c>
       <c r="M16" t="str">
         <f>LOOKUP(E16,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>M150</v>
       </c>
       <c r="N16" t="str">
         <f>LOOKUP(F16,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1698,7 +1761,7 @@
       </c>
       <c r="M22" t="str">
         <f>LOOKUP(E22,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>M150</v>
       </c>
       <c r="N22" t="str">
         <f>LOOKUP(F22,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1793,7 +1856,7 @@
       </c>
       <c r="M24" t="str">
         <f>LOOKUP(E24,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>M150</v>
       </c>
       <c r="N24" t="str">
         <f>LOOKUP(F24,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2092,7 +2155,7 @@
       </c>
       <c r="M30" t="str">
         <f>LOOKUP(E30,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>M150</v>
       </c>
       <c r="N30" t="str">
         <f>LOOKUP(F30,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2289,7 +2352,7 @@
       </c>
       <c r="M34" t="str">
         <f>LOOKUP(E34,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>M150</v>
       </c>
       <c r="N34" t="str">
         <f>LOOKUP(F34,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2588,7 +2651,7 @@
       </c>
       <c r="M40" t="str">
         <f>LOOKUP(E40,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>M150</v>
       </c>
       <c r="N40" t="str">
         <f>LOOKUP(F40,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2887,7 +2950,7 @@
       </c>
       <c r="M46" t="str">
         <f>LOOKUP(E46,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>M150</v>
       </c>
       <c r="N46" t="str">
         <f>LOOKUP(F46,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2982,7 +3045,7 @@
       </c>
       <c r="M48" t="str">
         <f>LOOKUP(E48,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>external</v>
+        <v>M150</v>
       </c>
       <c r="N48" t="str">
         <f>LOOKUP(F48,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3033,7 +3096,1028 @@
         <v>59</v>
       </c>
     </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" t="str">
+        <f>CONCATENATE(A50,"-",B50,"-",C50,"-",D50,"-",E50,"-",F50,"-",G50,"-")</f>
+        <v>A10-C0-D0-L10-E10-F1-I0-</v>
+      </c>
+      <c r="I50" t="str">
+        <f>LOOKUP(A50,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J50" t="str">
+        <f>LOOKUP(B50,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K50" t="str">
+        <f>LOOKUP(C50,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L50" t="str">
+        <f>LOOKUP(D50,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M50" t="str">
+        <f>LOOKUP(E50,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M50</v>
+      </c>
+      <c r="N50" t="str">
+        <f>LOOKUP(F50,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" t="str">
+        <f>CONCATENATE(A51,"-",B51,"-",C51,"-",D51,"-",E51,"-",F51,"-",G51,"-")</f>
+        <v>A10-C0-D10-L10-E10-F1-I0-</v>
+      </c>
+      <c r="I51" t="str">
+        <f>LOOKUP(A51,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J51" t="str">
+        <f>LOOKUP(B51,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K51" t="str">
+        <f>LOOKUP(C51,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L51" t="str">
+        <f>LOOKUP(D51,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M51" t="str">
+        <f>LOOKUP(E51,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M50</v>
+      </c>
+      <c r="N51" t="str">
+        <f>LOOKUP(F51,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" t="str">
+        <f>CONCATENATE(A52,"-",B52,"-",C52,"-",D52,"-",E52,"-",F52,"-",G52,"-")</f>
+        <v>A10-C0-D0-L10-E11-F1-I0-</v>
+      </c>
+      <c r="I52" t="str">
+        <f>LOOKUP(A52,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J52" t="str">
+        <f>LOOKUP(B52,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K52" t="str">
+        <f>LOOKUP(C52,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L52" t="str">
+        <f>LOOKUP(D52,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M52" t="str">
+        <f>LOOKUP(E52,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M60</v>
+      </c>
+      <c r="N52" t="str">
+        <f>LOOKUP(F52,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" t="str">
+        <f>CONCATENATE(A53,"-",B53,"-",C53,"-",D53,"-",E53,"-",F53,"-",G53,"-")</f>
+        <v>A10-C0-D10-L10-E11-F1-I0-</v>
+      </c>
+      <c r="I53" t="str">
+        <f>LOOKUP(A53,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J53" t="str">
+        <f>LOOKUP(B53,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K53" t="str">
+        <f>LOOKUP(C53,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L53" t="str">
+        <f>LOOKUP(D53,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M53" t="str">
+        <f>LOOKUP(E53,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M60</v>
+      </c>
+      <c r="N53" t="str">
+        <f>LOOKUP(F53,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" ref="H54:H69" si="0">CONCATENATE(A54,"-",B54,"-",C54,"-",D54,"-",E54,"-",F54,"-",G54,"-")</f>
+        <v>A10-C0-D0-L10-E12-F1-I0-</v>
+      </c>
+      <c r="I54" t="str">
+        <f>LOOKUP(A54,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J54" t="str">
+        <f>LOOKUP(B54,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K54" t="str">
+        <f>LOOKUP(C54,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L54" t="str">
+        <f>LOOKUP(D54,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M54" t="str">
+        <f>LOOKUP(E54,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M70</v>
+      </c>
+      <c r="N54" t="str">
+        <f>LOOKUP(F54,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D10-L10-E12-F1-I0-</v>
+      </c>
+      <c r="I55" t="str">
+        <f>LOOKUP(A55,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J55" t="str">
+        <f>LOOKUP(B55,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K55" t="str">
+        <f>LOOKUP(C55,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L55" t="str">
+        <f>LOOKUP(D55,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M55" t="str">
+        <f>LOOKUP(E55,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M70</v>
+      </c>
+      <c r="N55" t="str">
+        <f>LOOKUP(F55,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D0-L10-E13-F1-I0-</v>
+      </c>
+      <c r="I56" t="str">
+        <f>LOOKUP(A56,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J56" t="str">
+        <f>LOOKUP(B56,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K56" t="str">
+        <f>LOOKUP(C56,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L56" t="str">
+        <f>LOOKUP(D56,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M56" t="str">
+        <f>LOOKUP(E56,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M80</v>
+      </c>
+      <c r="N56" t="str">
+        <f>LOOKUP(F56,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D10-L10-E13-F1-I0-</v>
+      </c>
+      <c r="I57" t="str">
+        <f>LOOKUP(A57,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J57" t="str">
+        <f>LOOKUP(B57,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K57" t="str">
+        <f>LOOKUP(C57,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L57" t="str">
+        <f>LOOKUP(D57,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M57" t="str">
+        <f>LOOKUP(E57,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M80</v>
+      </c>
+      <c r="N57" t="str">
+        <f>LOOKUP(F57,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D0-L10-E14-F1-I0-</v>
+      </c>
+      <c r="I58" t="str">
+        <f>LOOKUP(A58,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J58" t="str">
+        <f>LOOKUP(B58,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K58" t="str">
+        <f>LOOKUP(C58,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L58" t="str">
+        <f>LOOKUP(D58,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M58" t="str">
+        <f>LOOKUP(E58,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M90</v>
+      </c>
+      <c r="N58" t="str">
+        <f>LOOKUP(F58,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D10-L10-E14-F1-I0-</v>
+      </c>
+      <c r="I59" t="str">
+        <f>LOOKUP(A59,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J59" t="str">
+        <f>LOOKUP(B59,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K59" t="str">
+        <f>LOOKUP(C59,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L59" t="str">
+        <f>LOOKUP(D59,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M59" t="str">
+        <f>LOOKUP(E59,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M90</v>
+      </c>
+      <c r="N59" t="str">
+        <f>LOOKUP(F59,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D0-L10-E15-F1-I0-</v>
+      </c>
+      <c r="I60" t="str">
+        <f>LOOKUP(A60,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J60" t="str">
+        <f>LOOKUP(B60,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K60" t="str">
+        <f>LOOKUP(C60,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L60" t="str">
+        <f>LOOKUP(D60,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M60" t="str">
+        <f>LOOKUP(E60,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M110</v>
+      </c>
+      <c r="N60" t="str">
+        <f>LOOKUP(F60,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D10-L10-E15-F1-I0-</v>
+      </c>
+      <c r="I61" t="str">
+        <f>LOOKUP(A61,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J61" t="str">
+        <f>LOOKUP(B61,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K61" t="str">
+        <f>LOOKUP(C61,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L61" t="str">
+        <f>LOOKUP(D61,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M61" t="str">
+        <f>LOOKUP(E61,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M110</v>
+      </c>
+      <c r="N61" t="str">
+        <f>LOOKUP(F61,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D0-L10-E16-F1-I0-</v>
+      </c>
+      <c r="I62" t="str">
+        <f>LOOKUP(A62,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J62" t="str">
+        <f>LOOKUP(B62,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K62" t="str">
+        <f>LOOKUP(C62,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L62" t="str">
+        <f>LOOKUP(D62,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M62" t="str">
+        <f>LOOKUP(E62,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M120</v>
+      </c>
+      <c r="N62" t="str">
+        <f>LOOKUP(F62,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D10-L10-E16-F1-I0-</v>
+      </c>
+      <c r="I63" t="str">
+        <f>LOOKUP(A63,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J63" t="str">
+        <f>LOOKUP(B63,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K63" t="str">
+        <f>LOOKUP(C63,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L63" t="str">
+        <f>LOOKUP(D63,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M63" t="str">
+        <f>LOOKUP(E63,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M120</v>
+      </c>
+      <c r="N63" t="str">
+        <f>LOOKUP(F63,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" t="s">
+        <v>61</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D0-L10-E17-F1-I0-</v>
+      </c>
+      <c r="I64" t="str">
+        <f>LOOKUP(A64,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J64" t="str">
+        <f>LOOKUP(B64,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K64" t="str">
+        <f>LOOKUP(C64,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L64" t="str">
+        <f>LOOKUP(D64,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M64" t="str">
+        <f>LOOKUP(E64,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M130</v>
+      </c>
+      <c r="N64" t="str">
+        <f>LOOKUP(F64,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" t="s">
+        <v>61</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D10-L10-E17-F1-I0-</v>
+      </c>
+      <c r="I65" t="str">
+        <f>LOOKUP(A65,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J65" t="str">
+        <f>LOOKUP(B65,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K65" t="str">
+        <f>LOOKUP(C65,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L65" t="str">
+        <f>LOOKUP(D65,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M65" t="str">
+        <f>LOOKUP(E65,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M130</v>
+      </c>
+      <c r="N65" t="str">
+        <f>LOOKUP(F65,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" t="s">
+        <v>61</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D0-L10-E18-F1-I0-</v>
+      </c>
+      <c r="I66" t="str">
+        <f>LOOKUP(A66,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J66" t="str">
+        <f>LOOKUP(B66,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K66" t="str">
+        <f>LOOKUP(C66,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L66" t="str">
+        <f>LOOKUP(D66,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M66" t="str">
+        <f>LOOKUP(E66,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M140</v>
+      </c>
+      <c r="N66" t="str">
+        <f>LOOKUP(F66,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" t="s">
+        <v>61</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D10-L10-E18-F1-I0-</v>
+      </c>
+      <c r="I67" t="str">
+        <f>LOOKUP(A67,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J67" t="str">
+        <f>LOOKUP(B67,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K67" t="str">
+        <f>LOOKUP(C67,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L67" t="str">
+        <f>LOOKUP(D67,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M67" t="str">
+        <f>LOOKUP(E67,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M140</v>
+      </c>
+      <c r="N67" t="str">
+        <f>LOOKUP(F67,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" t="s">
+        <v>61</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D0-L10-E19-F1-I0-</v>
+      </c>
+      <c r="I68" t="str">
+        <f>LOOKUP(A68,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J68" t="str">
+        <f>LOOKUP(B68,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K68" t="str">
+        <f>LOOKUP(C68,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L68" t="str">
+        <f>LOOKUP(D68,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M68" t="str">
+        <f>LOOKUP(E68,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M150</v>
+      </c>
+      <c r="N68" t="str">
+        <f>LOOKUP(F68,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" t="s">
+        <v>61</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D10-L10-E19-F1-I0-</v>
+      </c>
+      <c r="I69" t="str">
+        <f>LOOKUP(A69,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J69" t="str">
+        <f>LOOKUP(B69,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K69" t="str">
+        <f>LOOKUP(C69,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L69" t="str">
+        <f>LOOKUP(D69,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M69" t="str">
+        <f>LOOKUP(E69,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M150</v>
+      </c>
+      <c r="N69" t="str">
+        <f>LOOKUP(F69,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:N49"/>
   <sortState ref="A2:N49">
     <sortCondition ref="F2:F49"/>
     <sortCondition ref="D2:D49"/>
@@ -3049,10 +4133,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3097,7 +4181,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C20" si="0">CONCATENATE(A3,B3)</f>
+        <f t="shared" ref="C3:C31" si="0">CONCATENATE(A3,B3)</f>
         <v>A10</v>
       </c>
       <c r="D3" t="s">
@@ -3271,91 +4355,256 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>F0</v>
+        <v>E3</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>F1</v>
+        <v>E10</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>F2</v>
+        <v>E11</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>L10</v>
+        <v>E12</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>L30</v>
+        <v>E13</v>
       </c>
       <c r="D19" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
+        <v>E14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>E15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>E16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>E17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>E18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>19</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>E19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>F0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>F1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>F2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>L10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>L30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
         <v>L31</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D31" t="s">
         <v>6</v>
       </c>
     </row>

--- a/lib/scenarios.xlsx
+++ b/lib/scenarios.xlsx
@@ -12,14 +12,14 @@
     <sheet name="readme" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenarios!$A$1:$N$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenarios!$A$1:$N$69</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="105">
   <si>
     <t>fish &amp; surv length</t>
   </si>
@@ -304,6 +304,36 @@
   </si>
   <si>
     <t>M150</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>E26</t>
+  </si>
+  <si>
+    <t>E27</t>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>E29</t>
   </si>
 </sst>
 </file>
@@ -659,8 +689,8 @@
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N63" sqref="N63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,10 +810,10 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -793,7 +823,7 @@
       </c>
       <c r="H3" t="str">
         <f>CONCATENATE(A3,"-",B3,"-",C3,"-",D3,"-",E3,"-",F3,"-",G3,"-")</f>
-        <v>A0-C0-D0-L10-E1-F0-I0-</v>
+        <v>A0-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I3" t="str">
         <f>LOOKUP(A3,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -809,11 +839,11 @@
       </c>
       <c r="L3" t="str">
         <f>LOOKUP(D3,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M3" t="str">
         <f>LOOKUP(E3,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N3" t="str">
         <f>LOOKUP(F3,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -882,10 +912,10 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -895,7 +925,7 @@
       </c>
       <c r="H5" t="str">
         <f>CONCATENATE(A5,"-",B5,"-",C5,"-",D5,"-",E5,"-",F5,"-",G5,"-")</f>
-        <v>A10-C0-D0-L10-E1-F0-I0-</v>
+        <v>A10-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I5" t="str">
         <f>LOOKUP(A5,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -911,11 +941,11 @@
       </c>
       <c r="L5" t="str">
         <f>LOOKUP(D5,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M5" t="str">
         <f>LOOKUP(E5,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N5" t="str">
         <f>LOOKUP(F5,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -924,19 +954,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -946,11 +976,11 @@
       </c>
       <c r="H6" t="str">
         <f>CONCATENATE(A6,"-",B6,"-",C6,"-",D6,"-",E6,"-",F6,"-",G6,"-")</f>
-        <v>A10-C0-D10-L10-E2-F0-I0-</v>
+        <v>A30-C0-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I6" t="str">
         <f>LOOKUP(A6,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J6" t="str">
         <f>LOOKUP(B6,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -958,7 +988,7 @@
       </c>
       <c r="K6" t="str">
         <f>LOOKUP(C6,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L6" t="str">
         <f>LOOKUP(D6,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -966,7 +996,7 @@
       </c>
       <c r="M6" t="str">
         <f>LOOKUP(E6,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>fixed</v>
       </c>
       <c r="N6" t="str">
         <f>LOOKUP(F6,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -975,19 +1005,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -995,26 +1025,33 @@
       <c r="G7" t="s">
         <v>61</v>
       </c>
-      <c r="H7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" t="s">
-        <v>58</v>
+      <c r="H7" t="str">
+        <f>CONCATENATE(A7,"-",B7,"-",C7,"-",D7,"-",E7,"-",F7,"-",G7,"-")</f>
+        <v>A30-C0-D0-L30-E0-F0-I0-</v>
+      </c>
+      <c r="I7" t="str">
+        <f>LOOKUP(A7,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="J7" t="str">
+        <f>LOOKUP(B7,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K7" t="str">
+        <f>LOOKUP(C7,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L7" t="str">
+        <f>LOOKUP(D7,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="M7" t="str">
+        <f>LOOKUP(E7,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fixed</v>
+      </c>
+      <c r="N7" t="str">
+        <f>LOOKUP(F7,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>constant</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1022,13 +1059,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -1041,7 +1078,7 @@
       </c>
       <c r="H8" t="str">
         <f>CONCATENATE(A8,"-",B8,"-",C8,"-",D8,"-",E8,"-",F8,"-",G8,"-")</f>
-        <v>A30-C0-D0-L10-E0-F0-I0-</v>
+        <v>A30-C20-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I8" t="str">
         <f>LOOKUP(A8,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1049,7 +1086,7 @@
       </c>
       <c r="J8" t="str">
         <f>LOOKUP(B8,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K8" t="str">
         <f>LOOKUP(C8,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1057,7 +1094,7 @@
       </c>
       <c r="L8" t="str">
         <f>LOOKUP(D8,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M8" t="str">
         <f>LOOKUP(E8,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1070,7 +1107,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1092,11 +1129,11 @@
       </c>
       <c r="H9" t="str">
         <f>CONCATENATE(A9,"-",B9,"-",C9,"-",D9,"-",E9,"-",F9,"-",G9,"-")</f>
-        <v>A30-C0-D0-L10-E1-F0-I0-</v>
+        <v>A0-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I9" t="str">
         <f>LOOKUP(A9,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>no age</v>
       </c>
       <c r="J9" t="str">
         <f>LOOKUP(B9,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1121,19 +1158,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
         <v>54</v>
@@ -1143,11 +1180,11 @@
       </c>
       <c r="H10" t="str">
         <f>CONCATENATE(A10,"-",B10,"-",C10,"-",D10,"-",E10,"-",F10,"-",G10,"-")</f>
-        <v>A30-C0-D10-L10-E2-F0-I0-</v>
+        <v>A0-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I10" t="str">
         <f>LOOKUP(A10,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>no age</v>
       </c>
       <c r="J10" t="str">
         <f>LOOKUP(B10,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1155,15 +1192,15 @@
       </c>
       <c r="K10" t="str">
         <f>LOOKUP(C10,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L10" t="str">
         <f>LOOKUP(D10,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M10" t="str">
         <f>LOOKUP(E10,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>internal</v>
       </c>
       <c r="N10" t="str">
         <f>LOOKUP(F10,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1172,19 +1209,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -1192,31 +1229,38 @@
       <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" t="s">
-        <v>58</v>
+      <c r="H11" t="str">
+        <f>CONCATENATE(A11,"-",B11,"-",C11,"-",D11,"-",E11,"-",F11,"-",G11,"-")</f>
+        <v>A10-C0-D0-L10-E1-F0-I0-</v>
+      </c>
+      <c r="I11" t="str">
+        <f>LOOKUP(A11,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J11" t="str">
+        <f>LOOKUP(B11,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K11" t="str">
+        <f>LOOKUP(C11,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L11" t="str">
+        <f>LOOKUP(D11,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M11" t="str">
+        <f>LOOKUP(E11,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>internal</v>
+      </c>
+      <c r="N11" t="str">
+        <f>LOOKUP(F11,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>constant</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1228,7 +1272,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
@@ -1238,11 +1282,11 @@
       </c>
       <c r="H12" t="str">
         <f>CONCATENATE(A12,"-",B12,"-",C12,"-",D12,"-",E12,"-",F12,"-",G12,"-")</f>
-        <v>A0-C0-D0-L30-E0-F0-I0-</v>
+        <v>A10-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I12" t="str">
         <f>LOOKUP(A12,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no age</v>
+        <v>fish age</v>
       </c>
       <c r="J12" t="str">
         <f>LOOKUP(B12,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1258,7 +1302,7 @@
       </c>
       <c r="M12" t="str">
         <f>LOOKUP(E12,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N12" t="str">
         <f>LOOKUP(F12,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1267,7 +1311,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1276,7 +1320,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -1289,11 +1333,11 @@
       </c>
       <c r="H13" t="str">
         <f>CONCATENATE(A13,"-",B13,"-",C13,"-",D13,"-",E13,"-",F13,"-",G13,"-")</f>
-        <v>A0-C0-D0-L30-E1-F0-I0-</v>
+        <v>A30-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I13" t="str">
         <f>LOOKUP(A13,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J13" t="str">
         <f>LOOKUP(B13,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1305,7 +1349,7 @@
       </c>
       <c r="L13" t="str">
         <f>LOOKUP(D13,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M13" t="str">
         <f>LOOKUP(E13,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1318,7 +1362,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1330,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>54</v>
@@ -1340,11 +1384,11 @@
       </c>
       <c r="H14" t="str">
         <f>CONCATENATE(A14,"-",B14,"-",C14,"-",D14,"-",E14,"-",F14,"-",G14,"-")</f>
-        <v>A10-C0-D0-L30-E0-F0-I0-</v>
+        <v>A30-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I14" t="str">
         <f>LOOKUP(A14,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J14" t="str">
         <f>LOOKUP(B14,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1360,7 +1404,7 @@
       </c>
       <c r="M14" t="str">
         <f>LOOKUP(E14,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N14" t="str">
         <f>LOOKUP(F14,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1369,10 +1413,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -1391,15 +1435,15 @@
       </c>
       <c r="H15" t="str">
         <f>CONCATENATE(A15,"-",B15,"-",C15,"-",D15,"-",E15,"-",F15,"-",G15,"-")</f>
-        <v>A10-C0-D0-L30-E1-F0-I0-</v>
+        <v>A30-C20-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I15" t="str">
         <f>LOOKUP(A15,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J15" t="str">
         <f>LOOKUP(B15,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K15" t="str">
         <f>LOOKUP(C15,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1429,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
@@ -1442,7 +1486,7 @@
       </c>
       <c r="H16" t="str">
         <f>CONCATENATE(A16,"-",B16,"-",C16,"-",D16,"-",E16,"-",F16,"-",G16,"-")</f>
-        <v>A10-C0-D10-L30-E2-F0-I0-</v>
+        <v>A10-C0-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I16" t="str">
         <f>LOOKUP(A16,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1458,7 +1502,7 @@
       </c>
       <c r="L16" t="str">
         <f>LOOKUP(D16,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M16" t="str">
         <f>LOOKUP(E16,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1483,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>54</v>
@@ -1491,26 +1535,33 @@
       <c r="G17" t="s">
         <v>61</v>
       </c>
-      <c r="H17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" t="s">
-        <v>58</v>
+      <c r="H17" t="str">
+        <f>CONCATENATE(A17,"-",B17,"-",C17,"-",D17,"-",E17,"-",F17,"-",G17,"-")</f>
+        <v>A10-C0-D10-L30-E2-F0-I0-</v>
+      </c>
+      <c r="I17" t="str">
+        <f>LOOKUP(A17,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J17" t="str">
+        <f>LOOKUP(B17,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K17" t="str">
+        <f>LOOKUP(C17,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L17" t="str">
+        <f>LOOKUP(D17,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="M17" t="str">
+        <f>LOOKUP(E17,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M150</v>
+      </c>
+      <c r="N17" t="str">
+        <f>LOOKUP(F17,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>constant</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1521,13 +1572,13 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>54</v>
@@ -1537,7 +1588,7 @@
       </c>
       <c r="H18" t="str">
         <f>CONCATENATE(A18,"-",B18,"-",C18,"-",D18,"-",E18,"-",F18,"-",G18,"-")</f>
-        <v>A30-C0-D0-L30-E0-F0-I0-</v>
+        <v>A30-C0-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I18" t="str">
         <f>LOOKUP(A18,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1549,15 +1600,15 @@
       </c>
       <c r="K18" t="str">
         <f>LOOKUP(C18,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L18" t="str">
         <f>LOOKUP(D18,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M18" t="str">
         <f>LOOKUP(E18,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>M150</v>
       </c>
       <c r="N18" t="str">
         <f>LOOKUP(F18,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1572,13 +1623,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>54</v>
@@ -1588,7 +1639,7 @@
       </c>
       <c r="H19" t="str">
         <f>CONCATENATE(A19,"-",B19,"-",C19,"-",D19,"-",E19,"-",F19,"-",G19,"-")</f>
-        <v>A30-C0-D0-L30-E1-F0-I0-</v>
+        <v>A30-C0-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I19" t="str">
         <f>LOOKUP(A19,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1600,7 +1651,7 @@
       </c>
       <c r="K19" t="str">
         <f>LOOKUP(C19,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L19" t="str">
         <f>LOOKUP(D19,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1608,7 +1659,7 @@
       </c>
       <c r="M19" t="str">
         <f>LOOKUP(E19,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>M150</v>
       </c>
       <c r="N19" t="str">
         <f>LOOKUP(F19,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1620,16 +1671,16 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>54</v>
@@ -1639,7 +1690,7 @@
       </c>
       <c r="H20" t="str">
         <f>CONCATENATE(A20,"-",B20,"-",C20,"-",D20,"-",E20,"-",F20,"-",G20,"-")</f>
-        <v>A30-C20-D0-L30-E0-F0-I0-</v>
+        <v>A30-C0-D20-L30-E2-F0-I0-</v>
       </c>
       <c r="I20" t="str">
         <f>LOOKUP(A20,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1647,11 +1698,11 @@
       </c>
       <c r="J20" t="str">
         <f>LOOKUP(B20,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K20" t="str">
         <f>LOOKUP(C20,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>surv mlacomp</v>
       </c>
       <c r="L20" t="str">
         <f>LOOKUP(D20,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1659,7 +1710,7 @@
       </c>
       <c r="M20" t="str">
         <f>LOOKUP(E20,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>M150</v>
       </c>
       <c r="N20" t="str">
         <f>LOOKUP(F20,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1668,19 +1719,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
         <v>54</v>
@@ -1688,38 +1739,31 @@
       <c r="G21" t="s">
         <v>61</v>
       </c>
-      <c r="H21" t="str">
-        <f>CONCATENATE(A21,"-",B21,"-",C21,"-",D21,"-",E21,"-",F21,"-",G21,"-")</f>
-        <v>A30-C20-D0-L30-E1-F0-I0-</v>
-      </c>
-      <c r="I21" t="str">
-        <f>LOOKUP(A21,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="J21" t="str">
-        <f>LOOKUP(B21,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
-      </c>
-      <c r="K21" t="str">
-        <f>LOOKUP(C21,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L21" t="str">
-        <f>LOOKUP(D21,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M21" t="str">
-        <f>LOOKUP(E21,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
-      </c>
-      <c r="N21" t="str">
-        <f>LOOKUP(F21,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -1731,7 +1775,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
         <v>54</v>
@@ -1739,33 +1783,26 @@
       <c r="G22" t="s">
         <v>61</v>
       </c>
-      <c r="H22" t="str">
-        <f>CONCATENATE(A22,"-",B22,"-",C22,"-",D22,"-",E22,"-",F22,"-",G22,"-")</f>
-        <v>A30-C0-D10-L30-E2-F0-I0-</v>
-      </c>
-      <c r="I22" t="str">
-        <f>LOOKUP(A22,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="J22" t="str">
-        <f>LOOKUP(B22,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K22" t="str">
-        <f>LOOKUP(C22,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
-      </c>
-      <c r="L22" t="str">
-        <f>LOOKUP(D22,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M22" t="str">
-        <f>LOOKUP(E22,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
-      </c>
-      <c r="N22" t="str">
-        <f>LOOKUP(F22,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+      <c r="H22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1779,7 +1816,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
         <v>73</v>
@@ -1791,7 +1828,7 @@
         <v>61</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I23" t="s">
         <v>0</v>
@@ -1803,7 +1840,7 @@
         <v>14</v>
       </c>
       <c r="L23" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M23" t="s">
         <v>48</v>
@@ -1820,13 +1857,13 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
         <v>54</v>
@@ -1834,33 +1871,26 @@
       <c r="G24" t="s">
         <v>61</v>
       </c>
-      <c r="H24" t="str">
-        <f>CONCATENATE(A24,"-",B24,"-",C24,"-",D24,"-",E24,"-",F24,"-",G24,"-")</f>
-        <v>A30-C0-D20-L30-E2-F0-I0-</v>
-      </c>
-      <c r="I24" t="str">
-        <f>LOOKUP(A24,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="J24" t="str">
-        <f>LOOKUP(B24,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K24" t="str">
-        <f>LOOKUP(C24,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
-      </c>
-      <c r="L24" t="str">
-        <f>LOOKUP(D24,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
-      </c>
-      <c r="M24" t="str">
-        <f>LOOKUP(E24,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
-      </c>
-      <c r="N24" t="str">
-        <f>LOOKUP(F24,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>constant</v>
+      <c r="H24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1969,10 +1999,10 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
         <v>55</v>
@@ -1982,7 +2012,7 @@
       </c>
       <c r="H27" t="str">
         <f>CONCATENATE(A27,"-",B27,"-",C27,"-",D27,"-",E27,"-",F27,"-",G27,"-")</f>
-        <v>A0-C0-D0-L10-E1-F1-I0-</v>
+        <v>A0-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I27" t="str">
         <f>LOOKUP(A27,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1998,11 +2028,11 @@
       </c>
       <c r="L27" t="str">
         <f>LOOKUP(D27,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M27" t="str">
         <f>LOOKUP(E27,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N27" t="str">
         <f>LOOKUP(F27,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2071,10 +2101,10 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
         <v>55</v>
@@ -2084,7 +2114,7 @@
       </c>
       <c r="H29" t="str">
         <f>CONCATENATE(A29,"-",B29,"-",C29,"-",D29,"-",E29,"-",F29,"-",G29,"-")</f>
-        <v>A10-C0-D0-L10-E1-F1-I0-</v>
+        <v>A10-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I29" t="str">
         <f>LOOKUP(A29,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2100,11 +2130,11 @@
       </c>
       <c r="L29" t="str">
         <f>LOOKUP(D29,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M29" t="str">
         <f>LOOKUP(E29,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>fixed</v>
       </c>
       <c r="N29" t="str">
         <f>LOOKUP(F29,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2113,19 +2143,19 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
         <v>55</v>
@@ -2135,11 +2165,11 @@
       </c>
       <c r="H30" t="str">
         <f>CONCATENATE(A30,"-",B30,"-",C30,"-",D30,"-",E30,"-",F30,"-",G30,"-")</f>
-        <v>A10-C0-D10-L10-E2-F1-I0-</v>
+        <v>A30-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I30" t="str">
         <f>LOOKUP(A30,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J30" t="str">
         <f>LOOKUP(B30,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2147,7 +2177,7 @@
       </c>
       <c r="K30" t="str">
         <f>LOOKUP(C30,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L30" t="str">
         <f>LOOKUP(D30,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2155,7 +2185,7 @@
       </c>
       <c r="M30" t="str">
         <f>LOOKUP(E30,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>fixed</v>
       </c>
       <c r="N30" t="str">
         <f>LOOKUP(F30,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2164,19 +2194,19 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
         <v>55</v>
@@ -2184,26 +2214,33 @@
       <c r="G31" t="s">
         <v>61</v>
       </c>
-      <c r="H31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31" t="s">
-        <v>48</v>
-      </c>
-      <c r="N31" t="s">
-        <v>59</v>
+      <c r="H31" t="str">
+        <f>CONCATENATE(A31,"-",B31,"-",C31,"-",D31,"-",E31,"-",F31,"-",G31,"-")</f>
+        <v>A30-C0-D0-L30-E0-F1-I0-</v>
+      </c>
+      <c r="I31" t="str">
+        <f>LOOKUP(A31,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="J31" t="str">
+        <f>LOOKUP(B31,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K31" t="str">
+        <f>LOOKUP(C31,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L31" t="str">
+        <f>LOOKUP(D31,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish &amp; surv length</v>
+      </c>
+      <c r="M31" t="str">
+        <f>LOOKUP(E31,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fixed</v>
+      </c>
+      <c r="N31" t="str">
+        <f>LOOKUP(F31,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2211,13 +2248,13 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
         <v>23</v>
@@ -2230,7 +2267,7 @@
       </c>
       <c r="H32" t="str">
         <f>CONCATENATE(A32,"-",B32,"-",C32,"-",D32,"-",E32,"-",F32,"-",G32,"-")</f>
-        <v>A30-C0-D0-L10-E0-F1-I0-</v>
+        <v>A30-C20-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I32" t="str">
         <f>LOOKUP(A32,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2238,7 +2275,7 @@
       </c>
       <c r="J32" t="str">
         <f>LOOKUP(B32,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K32" t="str">
         <f>LOOKUP(C32,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2246,7 +2283,7 @@
       </c>
       <c r="L32" t="str">
         <f>LOOKUP(D32,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M32" t="str">
         <f>LOOKUP(E32,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2259,7 +2296,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -2281,11 +2318,11 @@
       </c>
       <c r="H33" t="str">
         <f>CONCATENATE(A33,"-",B33,"-",C33,"-",D33,"-",E33,"-",F33,"-",G33,"-")</f>
-        <v>A30-C0-D0-L10-E1-F1-I0-</v>
+        <v>A0-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I33" t="str">
         <f>LOOKUP(A33,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>no age</v>
       </c>
       <c r="J33" t="str">
         <f>LOOKUP(B33,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2310,19 +2347,19 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>55</v>
@@ -2332,11 +2369,11 @@
       </c>
       <c r="H34" t="str">
         <f>CONCATENATE(A34,"-",B34,"-",C34,"-",D34,"-",E34,"-",F34,"-",G34,"-")</f>
-        <v>A30-C0-D10-L10-E2-F1-I0-</v>
+        <v>A0-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I34" t="str">
         <f>LOOKUP(A34,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>no age</v>
       </c>
       <c r="J34" t="str">
         <f>LOOKUP(B34,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2344,15 +2381,15 @@
       </c>
       <c r="K34" t="str">
         <f>LOOKUP(C34,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L34" t="str">
         <f>LOOKUP(D34,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M34" t="str">
         <f>LOOKUP(E34,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>internal</v>
       </c>
       <c r="N34" t="str">
         <f>LOOKUP(F34,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2361,19 +2398,19 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
@@ -2381,31 +2418,38 @@
       <c r="G35" t="s">
         <v>61</v>
       </c>
-      <c r="H35" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" t="s">
-        <v>16</v>
-      </c>
-      <c r="M35" t="s">
-        <v>48</v>
-      </c>
-      <c r="N35" t="s">
-        <v>59</v>
+      <c r="H35" t="str">
+        <f>CONCATENATE(A35,"-",B35,"-",C35,"-",D35,"-",E35,"-",F35,"-",G35,"-")</f>
+        <v>A10-C0-D0-L10-E1-F1-I0-</v>
+      </c>
+      <c r="I35" t="str">
+        <f>LOOKUP(A35,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J35" t="str">
+        <f>LOOKUP(B35,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K35" t="str">
+        <f>LOOKUP(C35,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no mlacomp</v>
+      </c>
+      <c r="L35" t="str">
+        <f>LOOKUP(D35,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M35" t="str">
+        <f>LOOKUP(E35,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>internal</v>
+      </c>
+      <c r="N35" t="str">
+        <f>LOOKUP(F35,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -2417,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s">
         <v>55</v>
@@ -2427,11 +2471,11 @@
       </c>
       <c r="H36" t="str">
         <f>CONCATENATE(A36,"-",B36,"-",C36,"-",D36,"-",E36,"-",F36,"-",G36,"-")</f>
-        <v>A0-C0-D0-L30-E0-F1-I0-</v>
+        <v>A10-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I36" t="str">
         <f>LOOKUP(A36,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no age</v>
+        <v>fish age</v>
       </c>
       <c r="J36" t="str">
         <f>LOOKUP(B36,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2447,7 +2491,7 @@
       </c>
       <c r="M36" t="str">
         <f>LOOKUP(E36,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N36" t="str">
         <f>LOOKUP(F36,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2456,7 +2500,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -2465,7 +2509,7 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -2478,11 +2522,11 @@
       </c>
       <c r="H37" t="str">
         <f>CONCATENATE(A37,"-",B37,"-",C37,"-",D37,"-",E37,"-",F37,"-",G37,"-")</f>
-        <v>A0-C0-D0-L30-E1-F1-I0-</v>
+        <v>A30-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I37" t="str">
         <f>LOOKUP(A37,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J37" t="str">
         <f>LOOKUP(B37,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2494,7 +2538,7 @@
       </c>
       <c r="L37" t="str">
         <f>LOOKUP(D37,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M37" t="str">
         <f>LOOKUP(E37,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2507,7 +2551,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -2519,7 +2563,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>55</v>
@@ -2529,11 +2573,11 @@
       </c>
       <c r="H38" t="str">
         <f>CONCATENATE(A38,"-",B38,"-",C38,"-",D38,"-",E38,"-",F38,"-",G38,"-")</f>
-        <v>A10-C0-D0-L30-E0-F1-I0-</v>
+        <v>A30-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I38" t="str">
         <f>LOOKUP(A38,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J38" t="str">
         <f>LOOKUP(B38,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2549,7 +2593,7 @@
       </c>
       <c r="M38" t="str">
         <f>LOOKUP(E38,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>internal</v>
       </c>
       <c r="N38" t="str">
         <f>LOOKUP(F38,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2558,10 +2602,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>20</v>
@@ -2580,15 +2624,15 @@
       </c>
       <c r="H39" t="str">
         <f>CONCATENATE(A39,"-",B39,"-",C39,"-",D39,"-",E39,"-",F39,"-",G39,"-")</f>
-        <v>A10-C0-D0-L30-E1-F1-I0-</v>
+        <v>A30-C20-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I39" t="str">
         <f>LOOKUP(A39,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J39" t="str">
         <f>LOOKUP(B39,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
+        <v>surv calcomp</v>
       </c>
       <c r="K39" t="str">
         <f>LOOKUP(C39,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2618,10 +2662,10 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
         <v>55</v>
@@ -2631,7 +2675,7 @@
       </c>
       <c r="H40" t="str">
         <f>CONCATENATE(A40,"-",B40,"-",C40,"-",D40,"-",E40,"-",F40,"-",G40,"-")</f>
-        <v>A10-C0-D10-L30-E2-F1-I0-</v>
+        <v>A10-C0-D10-L10-E10-F1-I0-</v>
       </c>
       <c r="I40" t="str">
         <f>LOOKUP(A40,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2647,11 +2691,11 @@
       </c>
       <c r="L40" t="str">
         <f>LOOKUP(D40,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M40" t="str">
         <f>LOOKUP(E40,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>M50</v>
       </c>
       <c r="N40" t="str">
         <f>LOOKUP(F40,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2669,10 +2713,10 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
         <v>55</v>
@@ -2680,43 +2724,50 @@
       <c r="G41" t="s">
         <v>61</v>
       </c>
-      <c r="H41" t="s">
-        <v>66</v>
-      </c>
-      <c r="I41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
-        <v>48</v>
-      </c>
-      <c r="N41" t="s">
-        <v>59</v>
+      <c r="H41" t="str">
+        <f>CONCATENATE(A41,"-",B41,"-",C41,"-",D41,"-",E41,"-",F41,"-",G41,"-")</f>
+        <v>A10-C0-D10-L10-E11-F1-I0-</v>
+      </c>
+      <c r="I41" t="str">
+        <f>LOOKUP(A41,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J41" t="str">
+        <f>LOOKUP(B41,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K41" t="str">
+        <f>LOOKUP(C41,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L41" t="str">
+        <f>LOOKUP(D41,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M41" t="str">
+        <f>LOOKUP(E41,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M60</v>
+      </c>
+      <c r="N41" t="str">
+        <f>LOOKUP(F41,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s">
         <v>55</v>
@@ -2726,11 +2777,11 @@
       </c>
       <c r="H42" t="str">
         <f>CONCATENATE(A42,"-",B42,"-",C42,"-",D42,"-",E42,"-",F42,"-",G42,"-")</f>
-        <v>A30-C0-D0-L30-E0-F1-I0-</v>
+        <v>A10-C0-D10-L10-E12-F1-I0-</v>
       </c>
       <c r="I42" t="str">
         <f>LOOKUP(A42,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish age</v>
       </c>
       <c r="J42" t="str">
         <f>LOOKUP(B42,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2738,15 +2789,15 @@
       </c>
       <c r="K42" t="str">
         <f>LOOKUP(C42,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L42" t="str">
         <f>LOOKUP(D42,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M42" t="str">
         <f>LOOKUP(E42,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>M70</v>
       </c>
       <c r="N42" t="str">
         <f>LOOKUP(F42,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2755,19 +2806,19 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
         <v>55</v>
@@ -2777,11 +2828,11 @@
       </c>
       <c r="H43" t="str">
         <f>CONCATENATE(A43,"-",B43,"-",C43,"-",D43,"-",E43,"-",F43,"-",G43,"-")</f>
-        <v>A30-C0-D0-L30-E1-F1-I0-</v>
+        <v>A10-C0-D10-L10-E13-F1-I0-</v>
       </c>
       <c r="I43" t="str">
         <f>LOOKUP(A43,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish age</v>
       </c>
       <c r="J43" t="str">
         <f>LOOKUP(B43,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2789,15 +2840,15 @@
       </c>
       <c r="K43" t="str">
         <f>LOOKUP(C43,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L43" t="str">
         <f>LOOKUP(D43,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M43" t="str">
         <f>LOOKUP(E43,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>M80</v>
       </c>
       <c r="N43" t="str">
         <f>LOOKUP(F43,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2806,19 +2857,19 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s">
         <v>55</v>
@@ -2828,27 +2879,27 @@
       </c>
       <c r="H44" t="str">
         <f>CONCATENATE(A44,"-",B44,"-",C44,"-",D44,"-",E44,"-",F44,"-",G44,"-")</f>
-        <v>A30-C20-D0-L30-E0-F1-I0-</v>
+        <v>A10-C0-D10-L10-E14-F1-I0-</v>
       </c>
       <c r="I44" t="str">
         <f>LOOKUP(A44,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish age</v>
       </c>
       <c r="J44" t="str">
         <f>LOOKUP(B44,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K44" t="str">
         <f>LOOKUP(C44,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L44" t="str">
         <f>LOOKUP(D44,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M44" t="str">
         <f>LOOKUP(E44,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>M90</v>
       </c>
       <c r="N44" t="str">
         <f>LOOKUP(F44,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2857,19 +2908,19 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s">
         <v>55</v>
@@ -2879,27 +2930,27 @@
       </c>
       <c r="H45" t="str">
         <f>CONCATENATE(A45,"-",B45,"-",C45,"-",D45,"-",E45,"-",F45,"-",G45,"-")</f>
-        <v>A30-C20-D0-L30-E1-F1-I0-</v>
+        <v>A10-C0-D10-L10-E15-F1-I0-</v>
       </c>
       <c r="I45" t="str">
         <f>LOOKUP(A45,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish age</v>
       </c>
       <c r="J45" t="str">
         <f>LOOKUP(B45,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv calcomp</v>
+        <v>no calcomp</v>
       </c>
       <c r="K45" t="str">
         <f>LOOKUP(C45,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L45" t="str">
         <f>LOOKUP(D45,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M45" t="str">
         <f>LOOKUP(E45,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>M110</v>
       </c>
       <c r="N45" t="str">
         <f>LOOKUP(F45,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2908,7 +2959,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
@@ -2917,10 +2968,10 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s">
         <v>55</v>
@@ -2930,11 +2981,11 @@
       </c>
       <c r="H46" t="str">
         <f>CONCATENATE(A46,"-",B46,"-",C46,"-",D46,"-",E46,"-",F46,"-",G46,"-")</f>
-        <v>A30-C0-D10-L30-E2-F1-I0-</v>
+        <v>A10-C0-D10-L10-E16-F1-I0-</v>
       </c>
       <c r="I46" t="str">
         <f>LOOKUP(A46,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish age</v>
       </c>
       <c r="J46" t="str">
         <f>LOOKUP(B46,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2946,11 +2997,11 @@
       </c>
       <c r="L46" t="str">
         <f>LOOKUP(D46,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M46" t="str">
         <f>LOOKUP(E46,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>M120</v>
       </c>
       <c r="N46" t="str">
         <f>LOOKUP(F46,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2959,7 +3010,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -2968,10 +3019,10 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
         <v>55</v>
@@ -2979,43 +3030,50 @@
       <c r="G47" t="s">
         <v>61</v>
       </c>
-      <c r="H47" t="s">
-        <v>71</v>
-      </c>
-      <c r="I47" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s">
-        <v>12</v>
-      </c>
-      <c r="K47" t="s">
-        <v>14</v>
-      </c>
-      <c r="L47" t="s">
-        <v>0</v>
-      </c>
-      <c r="M47" t="s">
-        <v>48</v>
-      </c>
-      <c r="N47" t="s">
-        <v>59</v>
+      <c r="H47" t="str">
+        <f>CONCATENATE(A47,"-",B47,"-",C47,"-",D47,"-",E47,"-",F47,"-",G47,"-")</f>
+        <v>A10-C0-D10-L10-E17-F1-I0-</v>
+      </c>
+      <c r="I47" t="str">
+        <f>LOOKUP(A47,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J47" t="str">
+        <f>LOOKUP(B47,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K47" t="str">
+        <f>LOOKUP(C47,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L47" t="str">
+        <f>LOOKUP(D47,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M47" t="str">
+        <f>LOOKUP(E47,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M130</v>
+      </c>
+      <c r="N47" t="str">
+        <f>LOOKUP(F47,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="F48" t="s">
         <v>55</v>
@@ -3025,11 +3083,11 @@
       </c>
       <c r="H48" t="str">
         <f>CONCATENATE(A48,"-",B48,"-",C48,"-",D48,"-",E48,"-",F48,"-",G48,"-")</f>
-        <v>A30-C0-D20-L30-E2-F1-I0-</v>
+        <v>A10-C0-D10-L10-E18-F1-I0-</v>
       </c>
       <c r="I48" t="str">
         <f>LOOKUP(A48,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish age</v>
       </c>
       <c r="J48" t="str">
         <f>LOOKUP(B48,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3037,15 +3095,15 @@
       </c>
       <c r="K48" t="str">
         <f>LOOKUP(C48,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>surv mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L48" t="str">
         <f>LOOKUP(D48,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish &amp; surv length</v>
+        <v>fish length</v>
       </c>
       <c r="M48" t="str">
         <f>LOOKUP(E48,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>M140</v>
       </c>
       <c r="N48" t="str">
         <f>LOOKUP(F48,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3054,19 +3112,19 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s">
         <v>55</v>
@@ -3074,26 +3132,33 @@
       <c r="G49" t="s">
         <v>61</v>
       </c>
-      <c r="H49" t="s">
-        <v>72</v>
-      </c>
-      <c r="I49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" t="s">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
-        <v>48</v>
-      </c>
-      <c r="N49" t="s">
-        <v>59</v>
+      <c r="H49" t="str">
+        <f>CONCATENATE(A49,"-",B49,"-",C49,"-",D49,"-",E49,"-",F49,"-",G49,"-")</f>
+        <v>A10-C0-D10-L10-E19-F1-I0-</v>
+      </c>
+      <c r="I49" t="str">
+        <f>LOOKUP(A49,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish age</v>
+      </c>
+      <c r="J49" t="str">
+        <f>LOOKUP(B49,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>no calcomp</v>
+      </c>
+      <c r="K49" t="str">
+        <f>LOOKUP(C49,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish mlacomp</v>
+      </c>
+      <c r="L49" t="str">
+        <f>LOOKUP(D49,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>fish length</v>
+      </c>
+      <c r="M49" t="str">
+        <f>LOOKUP(E49,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>M150</v>
+      </c>
+      <c r="N49" t="str">
+        <f>LOOKUP(F49,descriptions!$C:$C,descriptions!$D:$D)</f>
+        <v>contrast</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3104,13 +3169,13 @@
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>55</v>
@@ -3120,7 +3185,7 @@
       </c>
       <c r="H50" t="str">
         <f>CONCATENATE(A50,"-",B50,"-",C50,"-",D50,"-",E50,"-",F50,"-",G50,"-")</f>
-        <v>A10-C0-D0-L10-E10-F1-I0-</v>
+        <v>A10-C0-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I50" t="str">
         <f>LOOKUP(A50,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3132,7 +3197,7 @@
       </c>
       <c r="K50" t="str">
         <f>LOOKUP(C50,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L50" t="str">
         <f>LOOKUP(D50,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3140,7 +3205,7 @@
       </c>
       <c r="M50" t="str">
         <f>LOOKUP(E50,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M50</v>
+        <v>M150</v>
       </c>
       <c r="N50" t="str">
         <f>LOOKUP(F50,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3158,10 +3223,10 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>55</v>
@@ -3171,7 +3236,7 @@
       </c>
       <c r="H51" t="str">
         <f>CONCATENATE(A51,"-",B51,"-",C51,"-",D51,"-",E51,"-",F51,"-",G51,"-")</f>
-        <v>A10-C0-D10-L10-E10-F1-I0-</v>
+        <v>A10-C0-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I51" t="str">
         <f>LOOKUP(A51,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3187,11 +3252,11 @@
       </c>
       <c r="L51" t="str">
         <f>LOOKUP(D51,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M51" t="str">
         <f>LOOKUP(E51,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M50</v>
+        <v>M150</v>
       </c>
       <c r="N51" t="str">
         <f>LOOKUP(F51,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3200,19 +3265,19 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>55</v>
@@ -3222,11 +3287,11 @@
       </c>
       <c r="H52" t="str">
         <f>CONCATENATE(A52,"-",B52,"-",C52,"-",D52,"-",E52,"-",F52,"-",G52,"-")</f>
-        <v>A10-C0-D0-L10-E11-F1-I0-</v>
+        <v>A30-C0-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I52" t="str">
         <f>LOOKUP(A52,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J52" t="str">
         <f>LOOKUP(B52,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3234,7 +3299,7 @@
       </c>
       <c r="K52" t="str">
         <f>LOOKUP(C52,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>fish mlacomp</v>
       </c>
       <c r="L52" t="str">
         <f>LOOKUP(D52,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3242,7 +3307,7 @@
       </c>
       <c r="M52" t="str">
         <f>LOOKUP(E52,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M60</v>
+        <v>M150</v>
       </c>
       <c r="N52" t="str">
         <f>LOOKUP(F52,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3251,7 +3316,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
@@ -3260,10 +3325,10 @@
         <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>55</v>
@@ -3273,11 +3338,11 @@
       </c>
       <c r="H53" t="str">
         <f>CONCATENATE(A53,"-",B53,"-",C53,"-",D53,"-",E53,"-",F53,"-",G53,"-")</f>
-        <v>A10-C0-D10-L10-E11-F1-I0-</v>
+        <v>A30-C0-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I53" t="str">
         <f>LOOKUP(A53,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J53" t="str">
         <f>LOOKUP(B53,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3289,11 +3354,11 @@
       </c>
       <c r="L53" t="str">
         <f>LOOKUP(D53,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M53" t="str">
         <f>LOOKUP(E53,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M60</v>
+        <v>M150</v>
       </c>
       <c r="N53" t="str">
         <f>LOOKUP(F53,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3302,19 +3367,19 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>55</v>
@@ -3323,12 +3388,12 @@
         <v>61</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" ref="H54:H69" si="0">CONCATENATE(A54,"-",B54,"-",C54,"-",D54,"-",E54,"-",F54,"-",G54,"-")</f>
-        <v>A10-C0-D0-L10-E12-F1-I0-</v>
+        <f>CONCATENATE(A54,"-",B54,"-",C54,"-",D54,"-",E54,"-",F54,"-",G54,"-")</f>
+        <v>A30-C0-D20-L30-E2-F1-I0-</v>
       </c>
       <c r="I54" t="str">
         <f>LOOKUP(A54,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J54" t="str">
         <f>LOOKUP(B54,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3336,15 +3401,15 @@
       </c>
       <c r="K54" t="str">
         <f>LOOKUP(C54,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
+        <v>surv mlacomp</v>
       </c>
       <c r="L54" t="str">
         <f>LOOKUP(D54,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M54" t="str">
         <f>LOOKUP(E54,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M70</v>
+        <v>M150</v>
       </c>
       <c r="N54" t="str">
         <f>LOOKUP(F54,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3359,13 +3424,13 @@
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F55" t="s">
         <v>55</v>
@@ -3374,8 +3439,8 @@
         <v>61</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E12-F1-I0-</v>
+        <f>CONCATENATE(A55,"-",B55,"-",C55,"-",D55,"-",E55,"-",F55,"-",G55,"-")</f>
+        <v>A10-C0-D0-L10-E20-F1-I0-</v>
       </c>
       <c r="I55" t="str">
         <f>LOOKUP(A55,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3387,7 +3452,7 @@
       </c>
       <c r="K55" t="str">
         <f>LOOKUP(C55,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L55" t="str">
         <f>LOOKUP(D55,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3395,7 +3460,7 @@
       </c>
       <c r="M55" t="str">
         <f>LOOKUP(E55,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M70</v>
+        <v>M150</v>
       </c>
       <c r="N55" t="str">
         <f>LOOKUP(F55,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3416,7 +3481,7 @@
         <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F56" t="s">
         <v>55</v>
@@ -3425,8 +3490,8 @@
         <v>61</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E13-F1-I0-</v>
+        <f>CONCATENATE(A56,"-",B56,"-",C56,"-",D56,"-",E56,"-",F56,"-",G56,"-")</f>
+        <v>A10-C0-D0-L10-E21-F1-I0-</v>
       </c>
       <c r="I56" t="str">
         <f>LOOKUP(A56,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3446,7 +3511,7 @@
       </c>
       <c r="M56" t="str">
         <f>LOOKUP(E56,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M80</v>
+        <v>M150</v>
       </c>
       <c r="N56" t="str">
         <f>LOOKUP(F56,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3461,13 +3526,13 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
@@ -3476,8 +3541,8 @@
         <v>61</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E13-F1-I0-</v>
+        <f>CONCATENATE(A57,"-",B57,"-",C57,"-",D57,"-",E57,"-",F57,"-",G57,"-")</f>
+        <v>A10-C0-D0-L10-E22-F1-I0-</v>
       </c>
       <c r="I57" t="str">
         <f>LOOKUP(A57,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3489,7 +3554,7 @@
       </c>
       <c r="K57" t="str">
         <f>LOOKUP(C57,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L57" t="str">
         <f>LOOKUP(D57,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3497,7 +3562,7 @@
       </c>
       <c r="M57" t="str">
         <f>LOOKUP(E57,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M80</v>
+        <v>M150</v>
       </c>
       <c r="N57" t="str">
         <f>LOOKUP(F57,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3518,7 +3583,7 @@
         <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F58" t="s">
         <v>55</v>
@@ -3527,8 +3592,8 @@
         <v>61</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E14-F1-I0-</v>
+        <f>CONCATENATE(A58,"-",B58,"-",C58,"-",D58,"-",E58,"-",F58,"-",G58,"-")</f>
+        <v>A10-C0-D0-L10-E23-F1-I0-</v>
       </c>
       <c r="I58" t="str">
         <f>LOOKUP(A58,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3548,7 +3613,7 @@
       </c>
       <c r="M58" t="str">
         <f>LOOKUP(E58,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M90</v>
+        <v>M150</v>
       </c>
       <c r="N58" t="str">
         <f>LOOKUP(F58,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3563,13 +3628,13 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F59" t="s">
         <v>55</v>
@@ -3578,8 +3643,8 @@
         <v>61</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E14-F1-I0-</v>
+        <f>CONCATENATE(A59,"-",B59,"-",C59,"-",D59,"-",E59,"-",F59,"-",G59,"-")</f>
+        <v>A10-C0-D0-L10-E24-F1-I0-</v>
       </c>
       <c r="I59" t="str">
         <f>LOOKUP(A59,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3591,7 +3656,7 @@
       </c>
       <c r="K59" t="str">
         <f>LOOKUP(C59,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L59" t="str">
         <f>LOOKUP(D59,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3599,7 +3664,7 @@
       </c>
       <c r="M59" t="str">
         <f>LOOKUP(E59,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M90</v>
+        <v>M150</v>
       </c>
       <c r="N59" t="str">
         <f>LOOKUP(F59,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3620,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="F60" t="s">
         <v>55</v>
@@ -3629,8 +3694,8 @@
         <v>61</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E15-F1-I0-</v>
+        <f>CONCATENATE(A60,"-",B60,"-",C60,"-",D60,"-",E60,"-",F60,"-",G60,"-")</f>
+        <v>A10-C0-D0-L10-E25-F1-I0-</v>
       </c>
       <c r="I60" t="str">
         <f>LOOKUP(A60,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3650,7 +3715,7 @@
       </c>
       <c r="M60" t="str">
         <f>LOOKUP(E60,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M110</v>
+        <v>M150</v>
       </c>
       <c r="N60" t="str">
         <f>LOOKUP(F60,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3665,13 +3730,13 @@
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F61" t="s">
         <v>55</v>
@@ -3680,8 +3745,8 @@
         <v>61</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E15-F1-I0-</v>
+        <f>CONCATENATE(A61,"-",B61,"-",C61,"-",D61,"-",E61,"-",F61,"-",G61,"-")</f>
+        <v>A10-C0-D0-L10-E26-F1-I0-</v>
       </c>
       <c r="I61" t="str">
         <f>LOOKUP(A61,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3693,7 +3758,7 @@
       </c>
       <c r="K61" t="str">
         <f>LOOKUP(C61,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L61" t="str">
         <f>LOOKUP(D61,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3701,7 +3766,7 @@
       </c>
       <c r="M61" t="str">
         <f>LOOKUP(E61,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M110</v>
+        <v>M150</v>
       </c>
       <c r="N61" t="str">
         <f>LOOKUP(F61,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3722,7 +3787,7 @@
         <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F62" t="s">
         <v>55</v>
@@ -3731,8 +3796,8 @@
         <v>61</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E16-F1-I0-</v>
+        <f>CONCATENATE(A62,"-",B62,"-",C62,"-",D62,"-",E62,"-",F62,"-",G62,"-")</f>
+        <v>A10-C0-D0-L10-E27-F1-I0-</v>
       </c>
       <c r="I62" t="str">
         <f>LOOKUP(A62,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3752,7 +3817,7 @@
       </c>
       <c r="M62" t="str">
         <f>LOOKUP(E62,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M120</v>
+        <v>M150</v>
       </c>
       <c r="N62" t="str">
         <f>LOOKUP(F62,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3767,13 +3832,13 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F63" t="s">
         <v>55</v>
@@ -3782,8 +3847,8 @@
         <v>61</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E16-F1-I0-</v>
+        <f>CONCATENATE(A63,"-",B63,"-",C63,"-",D63,"-",E63,"-",F63,"-",G63,"-")</f>
+        <v>A10-C0-D0-L10-E28-F1-I0-</v>
       </c>
       <c r="I63" t="str">
         <f>LOOKUP(A63,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3795,7 +3860,7 @@
       </c>
       <c r="K63" t="str">
         <f>LOOKUP(C63,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
+        <v>no mlacomp</v>
       </c>
       <c r="L63" t="str">
         <f>LOOKUP(D63,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3803,7 +3868,7 @@
       </c>
       <c r="M63" t="str">
         <f>LOOKUP(E63,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M120</v>
+        <v>M150</v>
       </c>
       <c r="N63" t="str">
         <f>LOOKUP(F63,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3824,7 +3889,7 @@
         <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F64" t="s">
         <v>55</v>
@@ -3833,8 +3898,8 @@
         <v>61</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E17-F1-I0-</v>
+        <f>CONCATENATE(A64,"-",B64,"-",C64,"-",D64,"-",E64,"-",F64,"-",G64,"-")</f>
+        <v>A10-C0-D0-L10-E29-F1-I0-</v>
       </c>
       <c r="I64" t="str">
         <f>LOOKUP(A64,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3854,7 +3919,7 @@
       </c>
       <c r="M64" t="str">
         <f>LOOKUP(E64,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M130</v>
+        <v>M150</v>
       </c>
       <c r="N64" t="str">
         <f>LOOKUP(F64,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3875,7 +3940,7 @@
         <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
         <v>55</v>
@@ -3883,33 +3948,26 @@
       <c r="G65" t="s">
         <v>61</v>
       </c>
-      <c r="H65" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E17-F1-I0-</v>
-      </c>
-      <c r="I65" t="str">
-        <f>LOOKUP(A65,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
-      </c>
-      <c r="J65" t="str">
-        <f>LOOKUP(B65,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K65" t="str">
-        <f>LOOKUP(C65,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
-      </c>
-      <c r="L65" t="str">
-        <f>LOOKUP(D65,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
-      </c>
-      <c r="M65" t="str">
-        <f>LOOKUP(E65,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M130</v>
-      </c>
-      <c r="N65" t="str">
-        <f>LOOKUP(F65,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+      <c r="H65" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" t="s">
+        <v>48</v>
+      </c>
+      <c r="N65" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -3920,13 +3978,13 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F66" t="s">
         <v>55</v>
@@ -3934,38 +3992,31 @@
       <c r="G66" t="s">
         <v>61</v>
       </c>
-      <c r="H66" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E18-F1-I0-</v>
-      </c>
-      <c r="I66" t="str">
-        <f>LOOKUP(A66,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
-      </c>
-      <c r="J66" t="str">
-        <f>LOOKUP(B66,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K66" t="str">
-        <f>LOOKUP(C66,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L66" t="str">
-        <f>LOOKUP(D66,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
-      </c>
-      <c r="M66" t="str">
-        <f>LOOKUP(E66,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M140</v>
-      </c>
-      <c r="N66" t="str">
-        <f>LOOKUP(F66,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+      <c r="H66" t="s">
+        <v>66</v>
+      </c>
+      <c r="I66" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" t="s">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>48</v>
+      </c>
+      <c r="N66" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
@@ -3977,7 +4028,7 @@
         <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F67" t="s">
         <v>55</v>
@@ -3985,50 +4036,43 @@
       <c r="G67" t="s">
         <v>61</v>
       </c>
-      <c r="H67" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E18-F1-I0-</v>
-      </c>
-      <c r="I67" t="str">
-        <f>LOOKUP(A67,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
-      </c>
-      <c r="J67" t="str">
-        <f>LOOKUP(B67,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K67" t="str">
-        <f>LOOKUP(C67,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
-      </c>
-      <c r="L67" t="str">
-        <f>LOOKUP(D67,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
-      </c>
-      <c r="M67" t="str">
-        <f>LOOKUP(E67,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M140</v>
-      </c>
-      <c r="N67" t="str">
-        <f>LOOKUP(F67,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+      <c r="H67" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" t="s">
+        <v>48</v>
+      </c>
+      <c r="N67" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F68" t="s">
         <v>55</v>
@@ -4036,50 +4080,43 @@
       <c r="G68" t="s">
         <v>61</v>
       </c>
-      <c r="H68" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E19-F1-I0-</v>
-      </c>
-      <c r="I68" t="str">
-        <f>LOOKUP(A68,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
-      </c>
-      <c r="J68" t="str">
-        <f>LOOKUP(B68,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K68" t="str">
-        <f>LOOKUP(C68,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no mlacomp</v>
-      </c>
-      <c r="L68" t="str">
-        <f>LOOKUP(D68,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
-      </c>
-      <c r="M68" t="str">
-        <f>LOOKUP(E68,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
-      </c>
-      <c r="N68" t="str">
-        <f>LOOKUP(F68,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+      <c r="H68" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" t="s">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>48</v>
+      </c>
+      <c r="N68" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F69" t="s">
         <v>55</v>
@@ -4087,37 +4124,39 @@
       <c r="G69" t="s">
         <v>61</v>
       </c>
-      <c r="H69" t="str">
-        <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E19-F1-I0-</v>
-      </c>
-      <c r="I69" t="str">
-        <f>LOOKUP(A69,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
-      </c>
-      <c r="J69" t="str">
-        <f>LOOKUP(B69,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>no calcomp</v>
-      </c>
-      <c r="K69" t="str">
-        <f>LOOKUP(C69,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish mlacomp</v>
-      </c>
-      <c r="L69" t="str">
-        <f>LOOKUP(D69,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
-      </c>
-      <c r="M69" t="str">
-        <f>LOOKUP(E69,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
-      </c>
-      <c r="N69" t="str">
-        <f>LOOKUP(F69,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>contrast</v>
+      <c r="H69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>12</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>48</v>
+      </c>
+      <c r="N69" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N49"/>
+  <autoFilter ref="A1:N69">
+    <sortState ref="A2:N69">
+      <sortCondition ref="F2:F69"/>
+      <sortCondition ref="E2:E69"/>
+      <sortCondition ref="B2:B69"/>
+      <sortCondition ref="C2:C69"/>
+      <sortCondition ref="A2:A69"/>
+      <sortCondition ref="D2:D69"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:N49">
     <sortCondition ref="F2:F49"/>
     <sortCondition ref="D2:D49"/>
@@ -4563,7 +4602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -4578,7 +4617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -4593,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>

--- a/lib/scenarios.xlsx
+++ b/lib/scenarios.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\estgrowth\lib\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -14,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenarios!$A$1:$N$69</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="95">
   <si>
     <t>fish &amp; surv length</t>
   </si>
@@ -208,36 +213,6 @@
   </si>
   <si>
     <t>Run make</t>
-  </si>
-  <si>
-    <t>A10-C0-D10-L10-E2-F0-I0-</t>
-  </si>
-  <si>
-    <t>A10-C0-D10-L10-E2-F1-I0-</t>
-  </si>
-  <si>
-    <t>A10-C0-D10-L30-E2-F0-I0-</t>
-  </si>
-  <si>
-    <t>A10-C0-D10-L30-E2-F1-I0-</t>
-  </si>
-  <si>
-    <t>A30-C0-D10-L10-E2-F0-I0-</t>
-  </si>
-  <si>
-    <t>A30-C0-D10-L10-E2-F1-I0-</t>
-  </si>
-  <si>
-    <t>A30-C0-D10-L30-E2-F0-I0-</t>
-  </si>
-  <si>
-    <t>A30-C0-D20-L30-E2-F0-I0-</t>
-  </si>
-  <si>
-    <t>A30-C0-D10-L30-E2-F1-I0-</t>
-  </si>
-  <si>
-    <t>A30-C0-D20-L30-E2-F1-I0-</t>
   </si>
   <si>
     <t>E3</t>
@@ -441,7 +416,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,7 +451,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -690,7 +665,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +746,7 @@
         <v>61</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE(A2,"-",B2,"-",C2,"-",D2,"-",E2,"-",F2,"-",G2,"-")</f>
+        <f t="shared" ref="H2:H65" si="0">CONCATENATE(A2,"-",B2,"-",C2,"-",D2,"-",E2,"-",F2,"-",G2,"-")</f>
         <v>A0-C0-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I2" t="str">
@@ -822,7 +797,7 @@
         <v>61</v>
       </c>
       <c r="H3" t="str">
-        <f>CONCATENATE(A3,"-",B3,"-",C3,"-",D3,"-",E3,"-",F3,"-",G3,"-")</f>
+        <f t="shared" si="0"/>
         <v>A0-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I3" t="str">
@@ -873,7 +848,7 @@
         <v>61</v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE(A4,"-",B4,"-",C4,"-",D4,"-",E4,"-",F4,"-",G4,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I4" t="str">
@@ -924,7 +899,7 @@
         <v>61</v>
       </c>
       <c r="H5" t="str">
-        <f>CONCATENATE(A5,"-",B5,"-",C5,"-",D5,"-",E5,"-",F5,"-",G5,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I5" t="str">
@@ -975,7 +950,7 @@
         <v>61</v>
       </c>
       <c r="H6" t="str">
-        <f>CONCATENATE(A6,"-",B6,"-",C6,"-",D6,"-",E6,"-",F6,"-",G6,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C0-D0-L10-E0-F0-I0-</v>
       </c>
       <c r="I6" t="str">
@@ -1026,7 +1001,7 @@
         <v>61</v>
       </c>
       <c r="H7" t="str">
-        <f>CONCATENATE(A7,"-",B7,"-",C7,"-",D7,"-",E7,"-",F7,"-",G7,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C0-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I7" t="str">
@@ -1077,7 +1052,7 @@
         <v>61</v>
       </c>
       <c r="H8" t="str">
-        <f>CONCATENATE(A8,"-",B8,"-",C8,"-",D8,"-",E8,"-",F8,"-",G8,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C20-D0-L30-E0-F0-I0-</v>
       </c>
       <c r="I8" t="str">
@@ -1128,7 +1103,7 @@
         <v>61</v>
       </c>
       <c r="H9" t="str">
-        <f>CONCATENATE(A9,"-",B9,"-",C9,"-",D9,"-",E9,"-",F9,"-",G9,"-")</f>
+        <f t="shared" si="0"/>
         <v>A0-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I9" t="str">
@@ -1179,7 +1154,7 @@
         <v>61</v>
       </c>
       <c r="H10" t="str">
-        <f>CONCATENATE(A10,"-",B10,"-",C10,"-",D10,"-",E10,"-",F10,"-",G10,"-")</f>
+        <f t="shared" si="0"/>
         <v>A0-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I10" t="str">
@@ -1230,7 +1205,7 @@
         <v>61</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE(A11,"-",B11,"-",C11,"-",D11,"-",E11,"-",F11,"-",G11,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I11" t="str">
@@ -1281,7 +1256,7 @@
         <v>61</v>
       </c>
       <c r="H12" t="str">
-        <f>CONCATENATE(A12,"-",B12,"-",C12,"-",D12,"-",E12,"-",F12,"-",G12,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I12" t="str">
@@ -1332,7 +1307,7 @@
         <v>61</v>
       </c>
       <c r="H13" t="str">
-        <f>CONCATENATE(A13,"-",B13,"-",C13,"-",D13,"-",E13,"-",F13,"-",G13,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C0-D0-L10-E1-F0-I0-</v>
       </c>
       <c r="I13" t="str">
@@ -1383,7 +1358,7 @@
         <v>61</v>
       </c>
       <c r="H14" t="str">
-        <f>CONCATENATE(A14,"-",B14,"-",C14,"-",D14,"-",E14,"-",F14,"-",G14,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C0-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I14" t="str">
@@ -1434,7 +1409,7 @@
         <v>61</v>
       </c>
       <c r="H15" t="str">
-        <f>CONCATENATE(A15,"-",B15,"-",C15,"-",D15,"-",E15,"-",F15,"-",G15,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C20-D0-L30-E1-F0-I0-</v>
       </c>
       <c r="I15" t="str">
@@ -1485,7 +1460,7 @@
         <v>61</v>
       </c>
       <c r="H16" t="str">
-        <f>CONCATENATE(A16,"-",B16,"-",C16,"-",D16,"-",E16,"-",F16,"-",G16,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I16" t="str">
@@ -1536,7 +1511,7 @@
         <v>61</v>
       </c>
       <c r="H17" t="str">
-        <f>CONCATENATE(A17,"-",B17,"-",C17,"-",D17,"-",E17,"-",F17,"-",G17,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I17" t="str">
@@ -1587,7 +1562,7 @@
         <v>61</v>
       </c>
       <c r="H18" t="str">
-        <f>CONCATENATE(A18,"-",B18,"-",C18,"-",D18,"-",E18,"-",F18,"-",G18,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C0-D10-L10-E2-F0-I0-</v>
       </c>
       <c r="I18" t="str">
@@ -1638,7 +1613,7 @@
         <v>61</v>
       </c>
       <c r="H19" t="str">
-        <f>CONCATENATE(A19,"-",B19,"-",C19,"-",D19,"-",E19,"-",F19,"-",G19,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C0-D10-L30-E2-F0-I0-</v>
       </c>
       <c r="I19" t="str">
@@ -1689,7 +1664,7 @@
         <v>61</v>
       </c>
       <c r="H20" t="str">
-        <f>CONCATENATE(A20,"-",B20,"-",C20,"-",D20,"-",E20,"-",F20,"-",G20,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C0-D20-L30-E2-F0-I0-</v>
       </c>
       <c r="I20" t="str">
@@ -1731,7 +1706,7 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
         <v>54</v>
@@ -1739,8 +1714,9 @@
       <c r="G21" t="s">
         <v>61</v>
       </c>
-      <c r="H21" t="s">
-        <v>63</v>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D10-L10-E3-F0-I0-</v>
       </c>
       <c r="I21" t="s">
         <v>9</v>
@@ -1775,7 +1751,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
         <v>54</v>
@@ -1783,8 +1759,9 @@
       <c r="G22" t="s">
         <v>61</v>
       </c>
-      <c r="H22" t="s">
-        <v>65</v>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D10-L30-E3-F0-I0-</v>
       </c>
       <c r="I22" t="s">
         <v>9</v>
@@ -1819,7 +1796,7 @@
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
@@ -1827,8 +1804,9 @@
       <c r="G23" t="s">
         <v>61</v>
       </c>
-      <c r="H23" t="s">
-        <v>67</v>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>A30-C0-D10-L10-E3-F0-I0-</v>
       </c>
       <c r="I23" t="s">
         <v>0</v>
@@ -1863,7 +1841,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
         <v>54</v>
@@ -1871,8 +1849,9 @@
       <c r="G24" t="s">
         <v>61</v>
       </c>
-      <c r="H24" t="s">
-        <v>69</v>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>A30-C0-D10-L30-E3-F0-I0-</v>
       </c>
       <c r="I24" t="s">
         <v>0</v>
@@ -1907,7 +1886,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
         <v>54</v>
@@ -1915,8 +1894,9 @@
       <c r="G25" t="s">
         <v>61</v>
       </c>
-      <c r="H25" t="s">
-        <v>70</v>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>A30-C0-D20-L30-E3-F0-I0-</v>
       </c>
       <c r="I25" t="s">
         <v>0</v>
@@ -1960,7 +1940,7 @@
         <v>61</v>
       </c>
       <c r="H26" t="str">
-        <f>CONCATENATE(A26,"-",B26,"-",C26,"-",D26,"-",E26,"-",F26,"-",G26,"-")</f>
+        <f t="shared" si="0"/>
         <v>A0-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I26" t="str">
@@ -2011,7 +1991,7 @@
         <v>61</v>
       </c>
       <c r="H27" t="str">
-        <f>CONCATENATE(A27,"-",B27,"-",C27,"-",D27,"-",E27,"-",F27,"-",G27,"-")</f>
+        <f t="shared" si="0"/>
         <v>A0-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I27" t="str">
@@ -2062,7 +2042,7 @@
         <v>61</v>
       </c>
       <c r="H28" t="str">
-        <f>CONCATENATE(A28,"-",B28,"-",C28,"-",D28,"-",E28,"-",F28,"-",G28,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I28" t="str">
@@ -2113,7 +2093,7 @@
         <v>61</v>
       </c>
       <c r="H29" t="str">
-        <f>CONCATENATE(A29,"-",B29,"-",C29,"-",D29,"-",E29,"-",F29,"-",G29,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I29" t="str">
@@ -2164,7 +2144,7 @@
         <v>61</v>
       </c>
       <c r="H30" t="str">
-        <f>CONCATENATE(A30,"-",B30,"-",C30,"-",D30,"-",E30,"-",F30,"-",G30,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C0-D0-L10-E0-F1-I0-</v>
       </c>
       <c r="I30" t="str">
@@ -2215,7 +2195,7 @@
         <v>61</v>
       </c>
       <c r="H31" t="str">
-        <f>CONCATENATE(A31,"-",B31,"-",C31,"-",D31,"-",E31,"-",F31,"-",G31,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C0-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I31" t="str">
@@ -2266,7 +2246,7 @@
         <v>61</v>
       </c>
       <c r="H32" t="str">
-        <f>CONCATENATE(A32,"-",B32,"-",C32,"-",D32,"-",E32,"-",F32,"-",G32,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C20-D0-L30-E0-F1-I0-</v>
       </c>
       <c r="I32" t="str">
@@ -2317,7 +2297,7 @@
         <v>61</v>
       </c>
       <c r="H33" t="str">
-        <f>CONCATENATE(A33,"-",B33,"-",C33,"-",D33,"-",E33,"-",F33,"-",G33,"-")</f>
+        <f t="shared" si="0"/>
         <v>A0-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I33" t="str">
@@ -2368,7 +2348,7 @@
         <v>61</v>
       </c>
       <c r="H34" t="str">
-        <f>CONCATENATE(A34,"-",B34,"-",C34,"-",D34,"-",E34,"-",F34,"-",G34,"-")</f>
+        <f t="shared" si="0"/>
         <v>A0-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I34" t="str">
@@ -2419,7 +2399,7 @@
         <v>61</v>
       </c>
       <c r="H35" t="str">
-        <f>CONCATENATE(A35,"-",B35,"-",C35,"-",D35,"-",E35,"-",F35,"-",G35,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I35" t="str">
@@ -2470,7 +2450,7 @@
         <v>61</v>
       </c>
       <c r="H36" t="str">
-        <f>CONCATENATE(A36,"-",B36,"-",C36,"-",D36,"-",E36,"-",F36,"-",G36,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I36" t="str">
@@ -2521,7 +2501,7 @@
         <v>61</v>
       </c>
       <c r="H37" t="str">
-        <f>CONCATENATE(A37,"-",B37,"-",C37,"-",D37,"-",E37,"-",F37,"-",G37,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C0-D0-L10-E1-F1-I0-</v>
       </c>
       <c r="I37" t="str">
@@ -2572,7 +2552,7 @@
         <v>61</v>
       </c>
       <c r="H38" t="str">
-        <f>CONCATENATE(A38,"-",B38,"-",C38,"-",D38,"-",E38,"-",F38,"-",G38,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C0-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I38" t="str">
@@ -2623,7 +2603,7 @@
         <v>61</v>
       </c>
       <c r="H39" t="str">
-        <f>CONCATENATE(A39,"-",B39,"-",C39,"-",D39,"-",E39,"-",F39,"-",G39,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C20-D0-L30-E1-F1-I0-</v>
       </c>
       <c r="I39" t="str">
@@ -2665,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F40" t="s">
         <v>55</v>
@@ -2674,7 +2654,7 @@
         <v>61</v>
       </c>
       <c r="H40" t="str">
-        <f>CONCATENATE(A40,"-",B40,"-",C40,"-",D40,"-",E40,"-",F40,"-",G40,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D10-L10-E10-F1-I0-</v>
       </c>
       <c r="I40" t="str">
@@ -2716,7 +2696,7 @@
         <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F41" t="s">
         <v>55</v>
@@ -2725,7 +2705,7 @@
         <v>61</v>
       </c>
       <c r="H41" t="str">
-        <f>CONCATENATE(A41,"-",B41,"-",C41,"-",D41,"-",E41,"-",F41,"-",G41,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D10-L10-E11-F1-I0-</v>
       </c>
       <c r="I41" t="str">
@@ -2767,7 +2747,7 @@
         <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F42" t="s">
         <v>55</v>
@@ -2776,7 +2756,7 @@
         <v>61</v>
       </c>
       <c r="H42" t="str">
-        <f>CONCATENATE(A42,"-",B42,"-",C42,"-",D42,"-",E42,"-",F42,"-",G42,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D10-L10-E12-F1-I0-</v>
       </c>
       <c r="I42" t="str">
@@ -2818,7 +2798,7 @@
         <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F43" t="s">
         <v>55</v>
@@ -2827,7 +2807,7 @@
         <v>61</v>
       </c>
       <c r="H43" t="str">
-        <f>CONCATENATE(A43,"-",B43,"-",C43,"-",D43,"-",E43,"-",F43,"-",G43,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D10-L10-E13-F1-I0-</v>
       </c>
       <c r="I43" t="str">
@@ -2869,7 +2849,7 @@
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F44" t="s">
         <v>55</v>
@@ -2878,7 +2858,7 @@
         <v>61</v>
       </c>
       <c r="H44" t="str">
-        <f>CONCATENATE(A44,"-",B44,"-",C44,"-",D44,"-",E44,"-",F44,"-",G44,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D10-L10-E14-F1-I0-</v>
       </c>
       <c r="I44" t="str">
@@ -2920,7 +2900,7 @@
         <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F45" t="s">
         <v>55</v>
@@ -2929,7 +2909,7 @@
         <v>61</v>
       </c>
       <c r="H45" t="str">
-        <f>CONCATENATE(A45,"-",B45,"-",C45,"-",D45,"-",E45,"-",F45,"-",G45,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D10-L10-E15-F1-I0-</v>
       </c>
       <c r="I45" t="str">
@@ -2971,7 +2951,7 @@
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F46" t="s">
         <v>55</v>
@@ -2980,7 +2960,7 @@
         <v>61</v>
       </c>
       <c r="H46" t="str">
-        <f>CONCATENATE(A46,"-",B46,"-",C46,"-",D46,"-",E46,"-",F46,"-",G46,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D10-L10-E16-F1-I0-</v>
       </c>
       <c r="I46" t="str">
@@ -3022,7 +3002,7 @@
         <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F47" t="s">
         <v>55</v>
@@ -3031,7 +3011,7 @@
         <v>61</v>
       </c>
       <c r="H47" t="str">
-        <f>CONCATENATE(A47,"-",B47,"-",C47,"-",D47,"-",E47,"-",F47,"-",G47,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D10-L10-E17-F1-I0-</v>
       </c>
       <c r="I47" t="str">
@@ -3073,7 +3053,7 @@
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
         <v>55</v>
@@ -3082,7 +3062,7 @@
         <v>61</v>
       </c>
       <c r="H48" t="str">
-        <f>CONCATENATE(A48,"-",B48,"-",C48,"-",D48,"-",E48,"-",F48,"-",G48,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D10-L10-E18-F1-I0-</v>
       </c>
       <c r="I48" t="str">
@@ -3124,7 +3104,7 @@
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F49" t="s">
         <v>55</v>
@@ -3133,7 +3113,7 @@
         <v>61</v>
       </c>
       <c r="H49" t="str">
-        <f>CONCATENATE(A49,"-",B49,"-",C49,"-",D49,"-",E49,"-",F49,"-",G49,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D10-L10-E19-F1-I0-</v>
       </c>
       <c r="I49" t="str">
@@ -3184,7 +3164,7 @@
         <v>61</v>
       </c>
       <c r="H50" t="str">
-        <f>CONCATENATE(A50,"-",B50,"-",C50,"-",D50,"-",E50,"-",F50,"-",G50,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I50" t="str">
@@ -3235,7 +3215,7 @@
         <v>61</v>
       </c>
       <c r="H51" t="str">
-        <f>CONCATENATE(A51,"-",B51,"-",C51,"-",D51,"-",E51,"-",F51,"-",G51,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I51" t="str">
@@ -3286,7 +3266,7 @@
         <v>61</v>
       </c>
       <c r="H52" t="str">
-        <f>CONCATENATE(A52,"-",B52,"-",C52,"-",D52,"-",E52,"-",F52,"-",G52,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C0-D10-L10-E2-F1-I0-</v>
       </c>
       <c r="I52" t="str">
@@ -3337,7 +3317,7 @@
         <v>61</v>
       </c>
       <c r="H53" t="str">
-        <f>CONCATENATE(A53,"-",B53,"-",C53,"-",D53,"-",E53,"-",F53,"-",G53,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C0-D10-L30-E2-F1-I0-</v>
       </c>
       <c r="I53" t="str">
@@ -3388,7 +3368,7 @@
         <v>61</v>
       </c>
       <c r="H54" t="str">
-        <f>CONCATENATE(A54,"-",B54,"-",C54,"-",D54,"-",E54,"-",F54,"-",G54,"-")</f>
+        <f t="shared" si="0"/>
         <v>A30-C0-D20-L30-E2-F1-I0-</v>
       </c>
       <c r="I54" t="str">
@@ -3430,7 +3410,7 @@
         <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F55" t="s">
         <v>55</v>
@@ -3439,7 +3419,7 @@
         <v>61</v>
       </c>
       <c r="H55" t="str">
-        <f>CONCATENATE(A55,"-",B55,"-",C55,"-",D55,"-",E55,"-",F55,"-",G55,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L10-E20-F1-I0-</v>
       </c>
       <c r="I55" t="str">
@@ -3481,7 +3461,7 @@
         <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F56" t="s">
         <v>55</v>
@@ -3490,7 +3470,7 @@
         <v>61</v>
       </c>
       <c r="H56" t="str">
-        <f>CONCATENATE(A56,"-",B56,"-",C56,"-",D56,"-",E56,"-",F56,"-",G56,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L10-E21-F1-I0-</v>
       </c>
       <c r="I56" t="str">
@@ -3532,7 +3512,7 @@
         <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
@@ -3541,7 +3521,7 @@
         <v>61</v>
       </c>
       <c r="H57" t="str">
-        <f>CONCATENATE(A57,"-",B57,"-",C57,"-",D57,"-",E57,"-",F57,"-",G57,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L10-E22-F1-I0-</v>
       </c>
       <c r="I57" t="str">
@@ -3583,7 +3563,7 @@
         <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s">
         <v>55</v>
@@ -3592,7 +3572,7 @@
         <v>61</v>
       </c>
       <c r="H58" t="str">
-        <f>CONCATENATE(A58,"-",B58,"-",C58,"-",D58,"-",E58,"-",F58,"-",G58,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L10-E23-F1-I0-</v>
       </c>
       <c r="I58" t="str">
@@ -3634,7 +3614,7 @@
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F59" t="s">
         <v>55</v>
@@ -3643,7 +3623,7 @@
         <v>61</v>
       </c>
       <c r="H59" t="str">
-        <f>CONCATENATE(A59,"-",B59,"-",C59,"-",D59,"-",E59,"-",F59,"-",G59,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L10-E24-F1-I0-</v>
       </c>
       <c r="I59" t="str">
@@ -3685,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s">
         <v>55</v>
@@ -3694,7 +3674,7 @@
         <v>61</v>
       </c>
       <c r="H60" t="str">
-        <f>CONCATENATE(A60,"-",B60,"-",C60,"-",D60,"-",E60,"-",F60,"-",G60,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L10-E25-F1-I0-</v>
       </c>
       <c r="I60" t="str">
@@ -3736,7 +3716,7 @@
         <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F61" t="s">
         <v>55</v>
@@ -3745,7 +3725,7 @@
         <v>61</v>
       </c>
       <c r="H61" t="str">
-        <f>CONCATENATE(A61,"-",B61,"-",C61,"-",D61,"-",E61,"-",F61,"-",G61,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L10-E26-F1-I0-</v>
       </c>
       <c r="I61" t="str">
@@ -3787,7 +3767,7 @@
         <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F62" t="s">
         <v>55</v>
@@ -3796,7 +3776,7 @@
         <v>61</v>
       </c>
       <c r="H62" t="str">
-        <f>CONCATENATE(A62,"-",B62,"-",C62,"-",D62,"-",E62,"-",F62,"-",G62,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L10-E27-F1-I0-</v>
       </c>
       <c r="I62" t="str">
@@ -3838,7 +3818,7 @@
         <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F63" t="s">
         <v>55</v>
@@ -3847,7 +3827,7 @@
         <v>61</v>
       </c>
       <c r="H63" t="str">
-        <f>CONCATENATE(A63,"-",B63,"-",C63,"-",D63,"-",E63,"-",F63,"-",G63,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L10-E28-F1-I0-</v>
       </c>
       <c r="I63" t="str">
@@ -3889,7 +3869,7 @@
         <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F64" t="s">
         <v>55</v>
@@ -3898,7 +3878,7 @@
         <v>61</v>
       </c>
       <c r="H64" t="str">
-        <f>CONCATENATE(A64,"-",B64,"-",C64,"-",D64,"-",E64,"-",F64,"-",G64,"-")</f>
+        <f t="shared" si="0"/>
         <v>A10-C0-D0-L10-E29-F1-I0-</v>
       </c>
       <c r="I64" t="str">
@@ -3940,7 +3920,7 @@
         <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F65" t="s">
         <v>55</v>
@@ -3948,8 +3928,9 @@
       <c r="G65" t="s">
         <v>61</v>
       </c>
-      <c r="H65" t="s">
-        <v>64</v>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>A10-C0-D10-L10-E3-F1-I0-</v>
       </c>
       <c r="I65" t="s">
         <v>9</v>
@@ -3984,7 +3965,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F66" t="s">
         <v>55</v>
@@ -3992,8 +3973,9 @@
       <c r="G66" t="s">
         <v>61</v>
       </c>
-      <c r="H66" t="s">
-        <v>66</v>
+      <c r="H66" t="str">
+        <f t="shared" ref="H66:H69" si="1">CONCATENATE(A66,"-",B66,"-",C66,"-",D66,"-",E66,"-",F66,"-",G66,"-")</f>
+        <v>A10-C0-D10-L30-E3-F1-I0-</v>
       </c>
       <c r="I66" t="s">
         <v>9</v>
@@ -4028,7 +4010,7 @@
         <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F67" t="s">
         <v>55</v>
@@ -4036,8 +4018,9 @@
       <c r="G67" t="s">
         <v>61</v>
       </c>
-      <c r="H67" t="s">
-        <v>68</v>
+      <c r="H67" t="str">
+        <f t="shared" si="1"/>
+        <v>A30-C0-D10-L10-E3-F1-I0-</v>
       </c>
       <c r="I67" t="s">
         <v>0</v>
@@ -4072,7 +4055,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F68" t="s">
         <v>55</v>
@@ -4080,8 +4063,9 @@
       <c r="G68" t="s">
         <v>61</v>
       </c>
-      <c r="H68" t="s">
-        <v>71</v>
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v>A30-C0-D10-L30-E3-F1-I0-</v>
       </c>
       <c r="I68" t="s">
         <v>0</v>
@@ -4116,7 +4100,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F69" t="s">
         <v>55</v>
@@ -4124,8 +4108,9 @@
       <c r="G69" t="s">
         <v>61</v>
       </c>
-      <c r="H69" t="s">
-        <v>72</v>
+      <c r="H69" t="str">
+        <f t="shared" si="1"/>
+        <v>A30-C0-D20-L30-E3-F1-I0-</v>
       </c>
       <c r="I69" t="s">
         <v>0</v>
@@ -4404,7 +4389,7 @@
         <v>E3</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -4419,7 +4404,7 @@
         <v>E10</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4434,7 +4419,7 @@
         <v>E11</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4449,7 +4434,7 @@
         <v>E12</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4464,7 +4449,7 @@
         <v>E13</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4479,7 +4464,7 @@
         <v>E14</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4494,7 +4479,7 @@
         <v>E15</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4509,7 +4494,7 @@
         <v>E16</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -4524,7 +4509,7 @@
         <v>E17</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -4539,7 +4524,7 @@
         <v>E18</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4554,7 +4539,7 @@
         <v>E19</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">

--- a/lib/scenarios.xlsx
+++ b/lib/scenarios.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\estgrowth\lib\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenarios!$A$1:$N$69</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="99">
   <si>
     <t>fish &amp; surv length</t>
   </si>
@@ -309,6 +304,18 @@
   </si>
   <si>
     <t>E29</t>
+  </si>
+  <si>
+    <t>E100</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>E102</t>
+  </si>
+  <si>
+    <t>E103</t>
   </si>
 </sst>
 </file>
@@ -416,7 +423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,7 +458,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -665,7 +672,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +744,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -747,7 +754,7 @@
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H65" si="0">CONCATENATE(A2,"-",B2,"-",C2,"-",D2,"-",E2,"-",F2,"-",G2,"-")</f>
-        <v>A0-C0-D0-L10-E0-F0-I0-</v>
+        <v>A0-C0-D0-L10-E100-F0-I0-</v>
       </c>
       <c r="I2" t="str">
         <f>LOOKUP(A2,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -767,7 +774,7 @@
       </c>
       <c r="M2" t="str">
         <f>LOOKUP(E2,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>M50</v>
       </c>
       <c r="N2" t="str">
         <f>LOOKUP(F2,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -839,7 +846,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -849,7 +856,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E0-F0-I0-</v>
+        <v>A10-C0-D0-L10-E100-F0-I0-</v>
       </c>
       <c r="I4" t="str">
         <f>LOOKUP(A4,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -869,7 +876,7 @@
       </c>
       <c r="M4" t="str">
         <f>LOOKUP(E4,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>M50</v>
       </c>
       <c r="N4" t="str">
         <f>LOOKUP(F4,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1094,7 +1101,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
@@ -1104,7 +1111,7 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L10-E1-F0-I0-</v>
+        <v>A0-C0-D0-L10-E101-F0-I0-</v>
       </c>
       <c r="I9" t="str">
         <f>LOOKUP(A9,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1124,7 +1131,7 @@
       </c>
       <c r="M9" t="str">
         <f>LOOKUP(E9,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>M50</v>
       </c>
       <c r="N9" t="str">
         <f>LOOKUP(F9,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1196,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -1206,7 +1213,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E1-F0-I0-</v>
+        <v>A10-C0-D0-L10-E101-F0-I0-</v>
       </c>
       <c r="I11" t="str">
         <f>LOOKUP(A11,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1226,7 +1233,7 @@
       </c>
       <c r="M11" t="str">
         <f>LOOKUP(E11,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>M50</v>
       </c>
       <c r="N11" t="str">
         <f>LOOKUP(F11,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1451,7 +1458,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
         <v>54</v>
@@ -1461,7 +1468,7 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E2-F0-I0-</v>
+        <v>A10-C0-D10-L10-E102-F0-I0-</v>
       </c>
       <c r="I16" t="str">
         <f>LOOKUP(A16,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1481,7 +1488,7 @@
       </c>
       <c r="M16" t="str">
         <f>LOOKUP(E16,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>M50</v>
       </c>
       <c r="N16" t="str">
         <f>LOOKUP(F16,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1706,7 +1713,7 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
         <v>54</v>
@@ -1716,7 +1723,7 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E3-F0-I0-</v>
+        <v>A10-C0-D10-L10-E103-F0-I0-</v>
       </c>
       <c r="I21" t="s">
         <v>9</v>
@@ -1931,7 +1938,7 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
         <v>55</v>
@@ -1941,7 +1948,7 @@
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L10-E0-F1-I0-</v>
+        <v>A0-C0-D0-L10-E100-F1-I0-</v>
       </c>
       <c r="I26" t="str">
         <f>LOOKUP(A26,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1961,7 +1968,7 @@
       </c>
       <c r="M26" t="str">
         <f>LOOKUP(E26,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>M50</v>
       </c>
       <c r="N26" t="str">
         <f>LOOKUP(F26,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2033,7 +2040,7 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
         <v>55</v>
@@ -2043,7 +2050,7 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E0-F1-I0-</v>
+        <v>A10-C0-D0-L10-E100-F1-I0-</v>
       </c>
       <c r="I28" t="str">
         <f>LOOKUP(A28,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2063,7 +2070,7 @@
       </c>
       <c r="M28" t="str">
         <f>LOOKUP(E28,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fixed</v>
+        <v>M50</v>
       </c>
       <c r="N28" t="str">
         <f>LOOKUP(F28,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2288,7 +2295,7 @@
         <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
         <v>55</v>
@@ -2298,7 +2305,7 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>A0-C0-D0-L10-E1-F1-I0-</v>
+        <v>A0-C0-D0-L10-E101-F1-I0-</v>
       </c>
       <c r="I33" t="str">
         <f>LOOKUP(A33,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2318,7 +2325,7 @@
       </c>
       <c r="M33" t="str">
         <f>LOOKUP(E33,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>M50</v>
       </c>
       <c r="N33" t="str">
         <f>LOOKUP(F33,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2390,7 +2397,7 @@
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
@@ -2400,7 +2407,7 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E1-F1-I0-</v>
+        <v>A10-C0-D0-L10-E101-F1-I0-</v>
       </c>
       <c r="I35" t="str">
         <f>LOOKUP(A35,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2420,7 +2427,7 @@
       </c>
       <c r="M35" t="str">
         <f>LOOKUP(E35,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>internal</v>
+        <v>M50</v>
       </c>
       <c r="N35" t="str">
         <f>LOOKUP(F35,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3155,7 +3162,7 @@
         <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
         <v>55</v>
@@ -3165,7 +3172,7 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E2-F1-I0-</v>
+        <v>A10-C0-D10-L10-E102-F1-I0-</v>
       </c>
       <c r="I50" t="str">
         <f>LOOKUP(A50,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3185,7 +3192,7 @@
       </c>
       <c r="M50" t="str">
         <f>LOOKUP(E50,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>M50</v>
       </c>
       <c r="N50" t="str">
         <f>LOOKUP(F50,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3920,7 +3927,7 @@
         <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="F65" t="s">
         <v>55</v>
@@ -3930,7 +3937,7 @@
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E3-F1-I0-</v>
+        <v>A10-C0-D10-L10-E103-F1-I0-</v>
       </c>
       <c r="I65" t="s">
         <v>9</v>
@@ -4132,16 +4139,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N69">
-    <sortState ref="A2:N69">
-      <sortCondition ref="F2:F69"/>
-      <sortCondition ref="E2:E69"/>
-      <sortCondition ref="B2:B69"/>
-      <sortCondition ref="C2:C69"/>
-      <sortCondition ref="A2:A69"/>
-      <sortCondition ref="D2:D69"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:N69"/>
   <sortState ref="A2:N49">
     <sortCondition ref="F2:F49"/>
     <sortCondition ref="D2:D49"/>

--- a/lib/scenarios.xlsx
+++ b/lib/scenarios.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="89">
   <si>
     <t>fish &amp; surv length</t>
   </si>
@@ -244,36 +244,6 @@
   </si>
   <si>
     <t>internalCV</t>
-  </si>
-  <si>
-    <t>M60</t>
-  </si>
-  <si>
-    <t>M80</t>
-  </si>
-  <si>
-    <t>M50</t>
-  </si>
-  <si>
-    <t>M70</t>
-  </si>
-  <si>
-    <t>M90</t>
-  </si>
-  <si>
-    <t>M110</t>
-  </si>
-  <si>
-    <t>M120</t>
-  </si>
-  <si>
-    <t>M130</t>
-  </si>
-  <si>
-    <t>M140</t>
-  </si>
-  <si>
-    <t>M150</t>
   </si>
   <si>
     <t>E20</t>
@@ -744,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -774,7 +744,7 @@
       </c>
       <c r="M2" t="str">
         <f>LOOKUP(E2,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M50</v>
+        <v>external</v>
       </c>
       <c r="N2" t="str">
         <f>LOOKUP(F2,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -846,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -876,7 +846,7 @@
       </c>
       <c r="M4" t="str">
         <f>LOOKUP(E4,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M50</v>
+        <v>external</v>
       </c>
       <c r="N4" t="str">
         <f>LOOKUP(F4,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1101,7 +1071,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
@@ -1131,7 +1101,7 @@
       </c>
       <c r="M9" t="str">
         <f>LOOKUP(E9,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M50</v>
+        <v>external</v>
       </c>
       <c r="N9" t="str">
         <f>LOOKUP(F9,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1203,7 +1173,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -1233,7 +1203,7 @@
       </c>
       <c r="M11" t="str">
         <f>LOOKUP(E11,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M50</v>
+        <v>external</v>
       </c>
       <c r="N11" t="str">
         <f>LOOKUP(F11,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1458,7 +1428,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
         <v>54</v>
@@ -1488,7 +1458,7 @@
       </c>
       <c r="M16" t="str">
         <f>LOOKUP(E16,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M50</v>
+        <v>external</v>
       </c>
       <c r="N16" t="str">
         <f>LOOKUP(F16,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1539,7 +1509,7 @@
       </c>
       <c r="M17" t="str">
         <f>LOOKUP(E17,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>external</v>
       </c>
       <c r="N17" t="str">
         <f>LOOKUP(F17,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1590,7 +1560,7 @@
       </c>
       <c r="M18" t="str">
         <f>LOOKUP(E18,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>external</v>
       </c>
       <c r="N18" t="str">
         <f>LOOKUP(F18,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1641,7 +1611,7 @@
       </c>
       <c r="M19" t="str">
         <f>LOOKUP(E19,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>external</v>
       </c>
       <c r="N19" t="str">
         <f>LOOKUP(F19,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1692,7 +1662,7 @@
       </c>
       <c r="M20" t="str">
         <f>LOOKUP(E20,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>external</v>
       </c>
       <c r="N20" t="str">
         <f>LOOKUP(F20,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -1713,7 +1683,7 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
         <v>54</v>
@@ -1938,7 +1908,7 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
         <v>55</v>
@@ -1968,7 +1938,7 @@
       </c>
       <c r="M26" t="str">
         <f>LOOKUP(E26,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M50</v>
+        <v>external</v>
       </c>
       <c r="N26" t="str">
         <f>LOOKUP(F26,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2040,7 +2010,7 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
         <v>55</v>
@@ -2070,7 +2040,7 @@
       </c>
       <c r="M28" t="str">
         <f>LOOKUP(E28,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M50</v>
+        <v>external</v>
       </c>
       <c r="N28" t="str">
         <f>LOOKUP(F28,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2295,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
         <v>55</v>
@@ -2325,7 +2295,7 @@
       </c>
       <c r="M33" t="str">
         <f>LOOKUP(E33,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M50</v>
+        <v>external</v>
       </c>
       <c r="N33" t="str">
         <f>LOOKUP(F33,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2397,7 +2367,7 @@
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
@@ -2427,7 +2397,7 @@
       </c>
       <c r="M35" t="str">
         <f>LOOKUP(E35,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M50</v>
+        <v>external</v>
       </c>
       <c r="N35" t="str">
         <f>LOOKUP(F35,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2640,7 +2610,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -2649,7 +2619,7 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
         <v>64</v>
@@ -2662,11 +2632,11 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E10-F1-I0-</v>
+        <v>A30-C0-D10-L30-E10-F1-I0-</v>
       </c>
       <c r="I40" t="str">
         <f>LOOKUP(A40,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J40" t="str">
         <f>LOOKUP(B40,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2678,11 +2648,11 @@
       </c>
       <c r="L40" t="str">
         <f>LOOKUP(D40,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M40" t="str">
         <f>LOOKUP(E40,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M50</v>
+        <v>external</v>
       </c>
       <c r="N40" t="str">
         <f>LOOKUP(F40,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2691,7 +2661,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -2700,7 +2670,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
         <v>65</v>
@@ -2713,11 +2683,11 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E11-F1-I0-</v>
+        <v>A30-C0-D10-L30-E11-F1-I0-</v>
       </c>
       <c r="I41" t="str">
         <f>LOOKUP(A41,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J41" t="str">
         <f>LOOKUP(B41,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2729,11 +2699,11 @@
       </c>
       <c r="L41" t="str">
         <f>LOOKUP(D41,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M41" t="str">
         <f>LOOKUP(E41,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M60</v>
+        <v>external</v>
       </c>
       <c r="N41" t="str">
         <f>LOOKUP(F41,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2742,7 +2712,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
@@ -2751,7 +2721,7 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
         <v>66</v>
@@ -2764,11 +2734,11 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E12-F1-I0-</v>
+        <v>A30-C0-D10-L30-E12-F1-I0-</v>
       </c>
       <c r="I42" t="str">
         <f>LOOKUP(A42,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J42" t="str">
         <f>LOOKUP(B42,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2780,11 +2750,11 @@
       </c>
       <c r="L42" t="str">
         <f>LOOKUP(D42,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M42" t="str">
         <f>LOOKUP(E42,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M70</v>
+        <v>external</v>
       </c>
       <c r="N42" t="str">
         <f>LOOKUP(F42,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2793,7 +2763,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
@@ -2802,7 +2772,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
         <v>67</v>
@@ -2815,11 +2785,11 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E13-F1-I0-</v>
+        <v>A30-C0-D10-L30-E13-F1-I0-</v>
       </c>
       <c r="I43" t="str">
         <f>LOOKUP(A43,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J43" t="str">
         <f>LOOKUP(B43,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2831,11 +2801,11 @@
       </c>
       <c r="L43" t="str">
         <f>LOOKUP(D43,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M43" t="str">
         <f>LOOKUP(E43,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M80</v>
+        <v>external</v>
       </c>
       <c r="N43" t="str">
         <f>LOOKUP(F43,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2844,7 +2814,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -2853,7 +2823,7 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
         <v>68</v>
@@ -2866,11 +2836,11 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E14-F1-I0-</v>
+        <v>A30-C0-D10-L30-E14-F1-I0-</v>
       </c>
       <c r="I44" t="str">
         <f>LOOKUP(A44,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J44" t="str">
         <f>LOOKUP(B44,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2882,11 +2852,11 @@
       </c>
       <c r="L44" t="str">
         <f>LOOKUP(D44,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M44" t="str">
         <f>LOOKUP(E44,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M90</v>
+        <v>external</v>
       </c>
       <c r="N44" t="str">
         <f>LOOKUP(F44,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2895,7 +2865,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
@@ -2904,7 +2874,7 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s">
         <v>69</v>
@@ -2917,11 +2887,11 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E15-F1-I0-</v>
+        <v>A30-C0-D10-L30-E15-F1-I0-</v>
       </c>
       <c r="I45" t="str">
         <f>LOOKUP(A45,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J45" t="str">
         <f>LOOKUP(B45,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2933,11 +2903,11 @@
       </c>
       <c r="L45" t="str">
         <f>LOOKUP(D45,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M45" t="str">
         <f>LOOKUP(E45,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M110</v>
+        <v>external</v>
       </c>
       <c r="N45" t="str">
         <f>LOOKUP(F45,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2946,7 +2916,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
@@ -2955,7 +2925,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
         <v>70</v>
@@ -2968,11 +2938,11 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E16-F1-I0-</v>
+        <v>A30-C0-D10-L30-E16-F1-I0-</v>
       </c>
       <c r="I46" t="str">
         <f>LOOKUP(A46,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J46" t="str">
         <f>LOOKUP(B46,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2984,11 +2954,11 @@
       </c>
       <c r="L46" t="str">
         <f>LOOKUP(D46,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M46" t="str">
         <f>LOOKUP(E46,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M120</v>
+        <v>external</v>
       </c>
       <c r="N46" t="str">
         <f>LOOKUP(F46,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -2997,7 +2967,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -3006,7 +2976,7 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
         <v>71</v>
@@ -3019,11 +2989,11 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E17-F1-I0-</v>
+        <v>A30-C0-D10-L30-E17-F1-I0-</v>
       </c>
       <c r="I47" t="str">
         <f>LOOKUP(A47,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J47" t="str">
         <f>LOOKUP(B47,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3035,11 +3005,11 @@
       </c>
       <c r="L47" t="str">
         <f>LOOKUP(D47,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M47" t="str">
         <f>LOOKUP(E47,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M130</v>
+        <v>external</v>
       </c>
       <c r="N47" t="str">
         <f>LOOKUP(F47,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3048,7 +3018,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -3057,7 +3027,7 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
         <v>72</v>
@@ -3070,11 +3040,11 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E18-F1-I0-</v>
+        <v>A30-C0-D10-L30-E18-F1-I0-</v>
       </c>
       <c r="I48" t="str">
         <f>LOOKUP(A48,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J48" t="str">
         <f>LOOKUP(B48,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3086,11 +3056,11 @@
       </c>
       <c r="L48" t="str">
         <f>LOOKUP(D48,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M48" t="str">
         <f>LOOKUP(E48,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M140</v>
+        <v>external</v>
       </c>
       <c r="N48" t="str">
         <f>LOOKUP(F48,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3099,7 +3069,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
@@ -3108,7 +3078,7 @@
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
         <v>73</v>
@@ -3121,11 +3091,11 @@
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D10-L10-E19-F1-I0-</v>
+        <v>A30-C0-D10-L30-E19-F1-I0-</v>
       </c>
       <c r="I49" t="str">
         <f>LOOKUP(A49,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J49" t="str">
         <f>LOOKUP(B49,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3137,11 +3107,11 @@
       </c>
       <c r="L49" t="str">
         <f>LOOKUP(D49,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M49" t="str">
         <f>LOOKUP(E49,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>external</v>
       </c>
       <c r="N49" t="str">
         <f>LOOKUP(F49,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3162,7 +3132,7 @@
         <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
         <v>55</v>
@@ -3192,7 +3162,7 @@
       </c>
       <c r="M50" t="str">
         <f>LOOKUP(E50,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M50</v>
+        <v>external</v>
       </c>
       <c r="N50" t="str">
         <f>LOOKUP(F50,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3243,7 +3213,7 @@
       </c>
       <c r="M51" t="str">
         <f>LOOKUP(E51,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>external</v>
       </c>
       <c r="N51" t="str">
         <f>LOOKUP(F51,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3294,7 +3264,7 @@
       </c>
       <c r="M52" t="str">
         <f>LOOKUP(E52,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>external</v>
       </c>
       <c r="N52" t="str">
         <f>LOOKUP(F52,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3345,7 +3315,7 @@
       </c>
       <c r="M53" t="str">
         <f>LOOKUP(E53,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>external</v>
       </c>
       <c r="N53" t="str">
         <f>LOOKUP(F53,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3396,7 +3366,7 @@
       </c>
       <c r="M54" t="str">
         <f>LOOKUP(E54,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>external</v>
       </c>
       <c r="N54" t="str">
         <f>LOOKUP(F54,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3405,7 +3375,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
@@ -3414,10 +3384,10 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s">
         <v>55</v>
@@ -3427,11 +3397,11 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E20-F1-I0-</v>
+        <v>A30-C0-D0-L30-E20-F1-I0-</v>
       </c>
       <c r="I55" t="str">
         <f>LOOKUP(A55,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J55" t="str">
         <f>LOOKUP(B55,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3443,11 +3413,11 @@
       </c>
       <c r="L55" t="str">
         <f>LOOKUP(D55,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M55" t="str">
         <f>LOOKUP(E55,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>internal</v>
       </c>
       <c r="N55" t="str">
         <f>LOOKUP(F55,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3456,7 +3426,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
@@ -3465,10 +3435,10 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F56" t="s">
         <v>55</v>
@@ -3478,11 +3448,11 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E21-F1-I0-</v>
+        <v>A30-C0-D0-L30-E21-F1-I0-</v>
       </c>
       <c r="I56" t="str">
         <f>LOOKUP(A56,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J56" t="str">
         <f>LOOKUP(B56,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3494,11 +3464,11 @@
       </c>
       <c r="L56" t="str">
         <f>LOOKUP(D56,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M56" t="str">
         <f>LOOKUP(E56,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>internal</v>
       </c>
       <c r="N56" t="str">
         <f>LOOKUP(F56,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3507,7 +3477,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
@@ -3516,10 +3486,10 @@
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
@@ -3529,11 +3499,11 @@
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E22-F1-I0-</v>
+        <v>A30-C0-D0-L30-E22-F1-I0-</v>
       </c>
       <c r="I57" t="str">
         <f>LOOKUP(A57,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J57" t="str">
         <f>LOOKUP(B57,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3545,11 +3515,11 @@
       </c>
       <c r="L57" t="str">
         <f>LOOKUP(D57,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M57" t="str">
         <f>LOOKUP(E57,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>internal</v>
       </c>
       <c r="N57" t="str">
         <f>LOOKUP(F57,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3558,7 +3528,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -3567,10 +3537,10 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F58" t="s">
         <v>55</v>
@@ -3580,11 +3550,11 @@
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E23-F1-I0-</v>
+        <v>A30-C0-D0-L30-E23-F1-I0-</v>
       </c>
       <c r="I58" t="str">
         <f>LOOKUP(A58,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J58" t="str">
         <f>LOOKUP(B58,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3596,11 +3566,11 @@
       </c>
       <c r="L58" t="str">
         <f>LOOKUP(D58,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M58" t="str">
         <f>LOOKUP(E58,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>internal</v>
       </c>
       <c r="N58" t="str">
         <f>LOOKUP(F58,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3609,7 +3579,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
@@ -3618,10 +3588,10 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s">
         <v>55</v>
@@ -3631,11 +3601,11 @@
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E24-F1-I0-</v>
+        <v>A30-C0-D0-L30-E24-F1-I0-</v>
       </c>
       <c r="I59" t="str">
         <f>LOOKUP(A59,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J59" t="str">
         <f>LOOKUP(B59,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3647,11 +3617,11 @@
       </c>
       <c r="L59" t="str">
         <f>LOOKUP(D59,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M59" t="str">
         <f>LOOKUP(E59,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>internal</v>
       </c>
       <c r="N59" t="str">
         <f>LOOKUP(F59,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3660,7 +3630,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
@@ -3669,10 +3639,10 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F60" t="s">
         <v>55</v>
@@ -3682,11 +3652,11 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E25-F1-I0-</v>
+        <v>A30-C0-D0-L30-E25-F1-I0-</v>
       </c>
       <c r="I60" t="str">
         <f>LOOKUP(A60,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J60" t="str">
         <f>LOOKUP(B60,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3698,11 +3668,11 @@
       </c>
       <c r="L60" t="str">
         <f>LOOKUP(D60,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M60" t="str">
         <f>LOOKUP(E60,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>internal</v>
       </c>
       <c r="N60" t="str">
         <f>LOOKUP(F60,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3711,7 +3681,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
@@ -3720,10 +3690,10 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F61" t="s">
         <v>55</v>
@@ -3733,11 +3703,11 @@
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E26-F1-I0-</v>
+        <v>A30-C0-D0-L30-E26-F1-I0-</v>
       </c>
       <c r="I61" t="str">
         <f>LOOKUP(A61,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J61" t="str">
         <f>LOOKUP(B61,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3749,11 +3719,11 @@
       </c>
       <c r="L61" t="str">
         <f>LOOKUP(D61,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M61" t="str">
         <f>LOOKUP(E61,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>internal</v>
       </c>
       <c r="N61" t="str">
         <f>LOOKUP(F61,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3762,7 +3732,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
@@ -3771,10 +3741,10 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F62" t="s">
         <v>55</v>
@@ -3784,11 +3754,11 @@
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E27-F1-I0-</v>
+        <v>A30-C0-D0-L30-E27-F1-I0-</v>
       </c>
       <c r="I62" t="str">
         <f>LOOKUP(A62,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J62" t="str">
         <f>LOOKUP(B62,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3800,11 +3770,11 @@
       </c>
       <c r="L62" t="str">
         <f>LOOKUP(D62,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M62" t="str">
         <f>LOOKUP(E62,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>internal</v>
       </c>
       <c r="N62" t="str">
         <f>LOOKUP(F62,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3813,7 +3783,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
@@ -3822,10 +3792,10 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F63" t="s">
         <v>55</v>
@@ -3835,11 +3805,11 @@
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E28-F1-I0-</v>
+        <v>A30-C0-D0-L30-E28-F1-I0-</v>
       </c>
       <c r="I63" t="str">
         <f>LOOKUP(A63,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J63" t="str">
         <f>LOOKUP(B63,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3851,11 +3821,11 @@
       </c>
       <c r="L63" t="str">
         <f>LOOKUP(D63,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M63" t="str">
         <f>LOOKUP(E63,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>internal</v>
       </c>
       <c r="N63" t="str">
         <f>LOOKUP(F63,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3864,7 +3834,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
@@ -3873,10 +3843,10 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F64" t="s">
         <v>55</v>
@@ -3886,11 +3856,11 @@
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>A10-C0-D0-L10-E29-F1-I0-</v>
+        <v>A30-C0-D0-L30-E29-F1-I0-</v>
       </c>
       <c r="I64" t="str">
         <f>LOOKUP(A64,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish age</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="J64" t="str">
         <f>LOOKUP(B64,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3902,11 +3872,11 @@
       </c>
       <c r="L64" t="str">
         <f>LOOKUP(D64,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>fish length</v>
+        <v>fish &amp; surv length</v>
       </c>
       <c r="M64" t="str">
         <f>LOOKUP(E64,descriptions!$C:$C,descriptions!$D:$D)</f>
-        <v>M150</v>
+        <v>internal</v>
       </c>
       <c r="N64" t="str">
         <f>LOOKUP(F64,descriptions!$C:$C,descriptions!$D:$D)</f>
@@ -3927,7 +3897,7 @@
         <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F65" t="s">
         <v>55</v>
@@ -4155,10 +4125,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4203,7 +4173,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C31" si="0">CONCATENATE(A3,B3)</f>
+        <f t="shared" ref="C3:C41" si="0">CONCATENATE(A3,B3)</f>
         <v>A10</v>
       </c>
       <c r="D3" t="s">
@@ -4402,7 +4372,7 @@
         <v>E10</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4417,7 +4387,7 @@
         <v>E11</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4432,7 +4402,7 @@
         <v>E12</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4447,7 +4417,7 @@
         <v>E13</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4462,7 +4432,7 @@
         <v>E14</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4477,7 +4447,7 @@
         <v>E15</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4492,7 +4462,7 @@
         <v>E16</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -4507,7 +4477,7 @@
         <v>E17</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -4522,7 +4492,7 @@
         <v>E18</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4537,96 +4507,246 @@
         <v>E19</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>F0</v>
+        <v>E20</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>F1</v>
+        <v>E21</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>E22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>23</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>E23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>E24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>E25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>26</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>E26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>E27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>28</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>E28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>29</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>E29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>57</v>
       </c>
-      <c r="B28">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>F0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>F1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38">
         <v>2</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>F2</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B29">
+      <c r="B39">
         <v>10</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v>L10</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B30">
+      <c r="B40">
         <v>30</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C40" t="str">
         <f t="shared" si="0"/>
         <v>L30</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B31">
+      <c r="B41">
         <v>31</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v>L31</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D41" t="s">
         <v>6</v>
       </c>
     </row>
